--- a/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9797297143136851</v>
+        <v>0.9797297143136855</v>
       </c>
       <c r="D2">
-        <v>1.001286072655873</v>
+        <v>1.001286072655874</v>
       </c>
       <c r="E2">
-        <v>0.9885952797754598</v>
+        <v>0.9885952797754602</v>
       </c>
       <c r="F2">
-        <v>0.981308826541299</v>
+        <v>0.9813088265412993</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.01272751947498</v>
       </c>
       <c r="L2">
-        <v>1.000215820799057</v>
+        <v>1.000215820799058</v>
       </c>
       <c r="M2">
-        <v>0.9930348505839012</v>
+        <v>0.9930348505839015</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9883328506877485</v>
+        <v>0.9883328506877488</v>
       </c>
       <c r="D3">
-        <v>1.007804222088818</v>
+        <v>1.007804222088819</v>
       </c>
       <c r="E3">
-        <v>0.9960224898212781</v>
+        <v>0.9960224898212787</v>
       </c>
       <c r="F3">
-        <v>0.9906502677792645</v>
+        <v>0.9906502677792651</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.039973573944533</v>
       </c>
       <c r="J3">
-        <v>1.009146707343966</v>
+        <v>1.009146707343967</v>
       </c>
       <c r="K3">
-        <v>1.01833821087903</v>
+        <v>1.018338210879031</v>
       </c>
       <c r="L3">
-        <v>1.006706517892178</v>
+        <v>1.006706517892179</v>
       </c>
       <c r="M3">
-        <v>1.001404194731921</v>
+        <v>1.001404194731922</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937010756353349</v>
+        <v>0.9937010756353361</v>
       </c>
       <c r="D4">
-        <v>1.011872845494692</v>
+        <v>1.011872845494693</v>
       </c>
       <c r="E4">
         <v>1.000662733602953</v>
       </c>
       <c r="F4">
-        <v>0.9964852547532242</v>
+        <v>0.9964852547532252</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041705347781227</v>
       </c>
       <c r="J4">
-        <v>1.01326729261329</v>
+        <v>1.013267292613291</v>
       </c>
       <c r="K4">
-        <v>1.021830056919624</v>
+        <v>1.021830056919625</v>
       </c>
       <c r="L4">
-        <v>1.01075316658979</v>
+        <v>1.010753166589791</v>
       </c>
       <c r="M4">
-        <v>1.006626285574347</v>
+        <v>1.006626285574348</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9959134916634165</v>
+        <v>0.9959134916634199</v>
       </c>
       <c r="D5">
-        <v>1.013549837090644</v>
+        <v>1.013549837090646</v>
       </c>
       <c r="E5">
-        <v>1.002576405735802</v>
+        <v>1.002576405735805</v>
       </c>
       <c r="F5">
-        <v>0.9988915372465139</v>
+        <v>0.9988915372465165</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042414736349873</v>
+        <v>1.042414736349875</v>
       </c>
       <c r="J5">
-        <v>1.014964097344688</v>
+        <v>1.014964097344691</v>
       </c>
       <c r="K5">
-        <v>1.02326686249522</v>
+        <v>1.023266862495223</v>
       </c>
       <c r="L5">
-        <v>1.012420012621986</v>
+        <v>1.012420012621989</v>
       </c>
       <c r="M5">
-        <v>1.008778422300091</v>
+        <v>1.008778422300094</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9962824489172826</v>
+        <v>0.9962824489172828</v>
       </c>
       <c r="D6">
         <v>1.013829509924166</v>
@@ -582,7 +582,7 @@
         <v>1.002895614873515</v>
       </c>
       <c r="F6">
-        <v>0.9992929143045859</v>
+        <v>0.9992929143045863</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -597,10 +597,10 @@
         <v>1.023506335912096</v>
       </c>
       <c r="L6">
-        <v>1.012697931465602</v>
+        <v>1.012697931465603</v>
       </c>
       <c r="M6">
-        <v>1.009137324062752</v>
+        <v>1.009137324062753</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937308085250581</v>
+        <v>0.9937308085250586</v>
       </c>
       <c r="D7">
         <v>1.011895382229018</v>
       </c>
       <c r="E7">
-        <v>1.000688446702252</v>
+        <v>1.000688446702253</v>
       </c>
       <c r="F7">
-        <v>0.9965175870412818</v>
+        <v>0.9965175870412822</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.041714898600646</v>
       </c>
       <c r="J7">
-        <v>1.013290101872794</v>
+        <v>1.013290101872795</v>
       </c>
       <c r="K7">
         <v>1.021849375524955</v>
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9826803092534095</v>
+        <v>0.98268030925341</v>
       </c>
       <c r="D8">
         <v>1.003521190004013</v>
       </c>
       <c r="E8">
-        <v>0.9911412764981071</v>
+        <v>0.9911412764981077</v>
       </c>
       <c r="F8">
         <v>0.9845113768115891</v>
@@ -673,10 +673,10 @@
         <v>1.014653674859037</v>
       </c>
       <c r="L8">
-        <v>1.002442597178921</v>
+        <v>1.002442597178922</v>
       </c>
       <c r="M8">
-        <v>0.9959053208152012</v>
+        <v>0.9959053208152011</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9615250306162376</v>
+        <v>0.9615250306162396</v>
       </c>
       <c r="D9">
-        <v>0.9875091832671301</v>
+        <v>0.9875091832671314</v>
       </c>
       <c r="E9">
-        <v>0.9729173602488329</v>
+        <v>0.9729173602488346</v>
       </c>
       <c r="F9">
-        <v>0.9615741318043362</v>
+        <v>0.9615741318043377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031140806007265</v>
+        <v>1.031140806007266</v>
       </c>
       <c r="J9">
-        <v>0.9885136308390646</v>
+        <v>0.9885136308390666</v>
       </c>
       <c r="K9">
-        <v>1.00080821913938</v>
+        <v>1.000808219139382</v>
       </c>
       <c r="L9">
-        <v>0.9864656684976526</v>
+        <v>0.9864656684976543</v>
       </c>
       <c r="M9">
-        <v>0.9753230068364617</v>
+        <v>0.9753230068364632</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9460242714594577</v>
+        <v>0.9460242714594578</v>
       </c>
       <c r="D10">
-        <v>0.9758038936089943</v>
+        <v>0.9758038936089944</v>
       </c>
       <c r="E10">
-        <v>0.9596106578358191</v>
+        <v>0.9596106578358194</v>
       </c>
       <c r="F10">
-        <v>0.944796420275241</v>
+        <v>0.9447964202752409</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>0.9765560827779913</v>
       </c>
       <c r="K10">
-        <v>0.9906242045455927</v>
+        <v>0.9906242045455929</v>
       </c>
       <c r="L10">
-        <v>0.9747495651678028</v>
+        <v>0.9747495651678029</v>
       </c>
       <c r="M10">
         <v>0.9602394457629692</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9389068604654698</v>
+        <v>0.9389068604654697</v>
       </c>
       <c r="D11">
-        <v>0.9704392554693143</v>
+        <v>0.9704392554693144</v>
       </c>
       <c r="E11">
-        <v>0.9535142999739201</v>
+        <v>0.95351429997392</v>
       </c>
       <c r="F11">
-        <v>0.9370983490782795</v>
+        <v>0.9370983490782796</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023512003014463</v>
+        <v>1.023512003014464</v>
       </c>
       <c r="J11">
         <v>0.9710621712378675</v>
       </c>
       <c r="K11">
-        <v>0.9859410381899275</v>
+        <v>0.9859410381899277</v>
       </c>
       <c r="L11">
         <v>0.9693695454620059</v>
       </c>
       <c r="M11">
-        <v>0.953312685807796</v>
+        <v>0.9533126858077962</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9361944975846168</v>
+        <v>0.9361944975846163</v>
       </c>
       <c r="D12">
-        <v>0.9683967242138192</v>
+        <v>0.9683967242138185</v>
       </c>
       <c r="E12">
-        <v>0.9511933606334686</v>
+        <v>0.9511933606334679</v>
       </c>
       <c r="F12">
-        <v>0.9341654298517555</v>
+        <v>0.9341654298517547</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022589285088313</v>
+        <v>1.022589285088312</v>
       </c>
       <c r="J12">
-        <v>0.9689681750094455</v>
+        <v>0.968968175009445</v>
       </c>
       <c r="K12">
-        <v>0.9841555163982544</v>
+        <v>0.9841555163982538</v>
       </c>
       <c r="L12">
-        <v>0.9673194151001364</v>
+        <v>0.967319415100136</v>
       </c>
       <c r="M12">
-        <v>0.9506728072569574</v>
+        <v>0.9506728072569566</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9367795543454164</v>
+        <v>0.936779554345415</v>
       </c>
       <c r="D13">
-        <v>0.9688372075339853</v>
+        <v>0.9688372075339846</v>
       </c>
       <c r="E13">
-        <v>0.951693878382024</v>
+        <v>0.9516938783820228</v>
       </c>
       <c r="F13">
-        <v>0.9347980301769609</v>
+        <v>0.9347980301769596</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.022788436674908</v>
       </c>
       <c r="J13">
-        <v>0.9694198616969734</v>
+        <v>0.9694198616969723</v>
       </c>
       <c r="K13">
-        <v>0.9845406864147291</v>
+        <v>0.9845406864147284</v>
       </c>
       <c r="L13">
-        <v>0.9677616189015276</v>
+        <v>0.9677616189015266</v>
       </c>
       <c r="M13">
-        <v>0.9512422374740236</v>
+        <v>0.9512422374740223</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.938684105679185</v>
+        <v>0.9386841056791856</v>
       </c>
       <c r="D14">
-        <v>0.9702714709762592</v>
+        <v>0.9702714709762598</v>
       </c>
       <c r="E14">
         <v>0.9533236426841109</v>
       </c>
       <c r="F14">
-        <v>0.9368574670595291</v>
+        <v>0.9368574670595293</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.023436278860108</v>
       </c>
       <c r="J14">
-        <v>0.9708902057900649</v>
+        <v>0.970890205790065</v>
       </c>
       <c r="K14">
-        <v>0.9857944160590544</v>
+        <v>0.9857944160590548</v>
       </c>
       <c r="L14">
-        <v>0.969201173112415</v>
+        <v>0.9692011731124152</v>
       </c>
       <c r="M14">
-        <v>0.9530958875266711</v>
+        <v>0.9530958875266713</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9398482120762437</v>
+        <v>0.9398482120762435</v>
       </c>
       <c r="D15">
-        <v>0.9711483832047976</v>
+        <v>0.9711483832047973</v>
       </c>
       <c r="E15">
-        <v>0.9543201043994393</v>
+        <v>0.9543201043994394</v>
       </c>
       <c r="F15">
-        <v>0.9381163341779777</v>
+        <v>0.9381163341779775</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023831899099155</v>
+        <v>1.023831899099154</v>
       </c>
       <c r="J15">
-        <v>0.9717888771923751</v>
+        <v>0.9717888771923748</v>
       </c>
       <c r="K15">
-        <v>0.9865606248453969</v>
+        <v>0.9865606248453967</v>
       </c>
       <c r="L15">
-        <v>0.9700810859609754</v>
+        <v>0.9700810859609755</v>
       </c>
       <c r="M15">
-        <v>0.9542288583629361</v>
+        <v>0.954228858362936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.946487459901136</v>
+        <v>0.9464874599011376</v>
       </c>
       <c r="D16">
-        <v>0.9761532500584154</v>
+        <v>0.9761532500584167</v>
       </c>
       <c r="E16">
-        <v>0.9600076993127553</v>
+        <v>0.9600076993127568</v>
       </c>
       <c r="F16">
-        <v>0.9452975038008788</v>
+        <v>0.9452975038008805</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.026082740123669</v>
       </c>
       <c r="J16">
-        <v>0.9769135611264952</v>
+        <v>0.9769135611264964</v>
       </c>
       <c r="K16">
-        <v>0.9909288510065932</v>
+        <v>0.9909288510065944</v>
       </c>
       <c r="L16">
-        <v>0.9750996945585475</v>
+        <v>0.9750996945585487</v>
       </c>
       <c r="M16">
-        <v>0.9606902056186526</v>
+        <v>0.9606902056186541</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.950538496941536</v>
+        <v>0.9505384969415362</v>
       </c>
       <c r="D17">
-        <v>0.9792098745139213</v>
+        <v>0.9792098745139211</v>
       </c>
       <c r="E17">
-        <v>0.963481767970236</v>
+        <v>0.9634817679702359</v>
       </c>
       <c r="F17">
-        <v>0.9496805933236678</v>
+        <v>0.9496805933236679</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.027451169940137</v>
       </c>
       <c r="J17">
-        <v>0.9800396958394346</v>
+        <v>0.9800396958394347</v>
       </c>
       <c r="K17">
-        <v>0.9935925213720807</v>
+        <v>0.9935925213720805</v>
       </c>
       <c r="L17">
         <v>0.9781618952306343</v>
       </c>
       <c r="M17">
-        <v>0.9646324374337545</v>
+        <v>0.964632437433755</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9528628640110223</v>
+        <v>0.952862864011023</v>
       </c>
       <c r="D18">
-        <v>0.980964584257851</v>
+        <v>0.9809645842578516</v>
       </c>
       <c r="E18">
-        <v>0.9654763365193267</v>
+        <v>0.9654763365193275</v>
       </c>
       <c r="F18">
-        <v>0.9521960198283175</v>
+        <v>0.9521960198283178</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.028234499255321</v>
       </c>
       <c r="J18">
-        <v>0.9818330493667388</v>
+        <v>0.9818330493667394</v>
       </c>
       <c r="K18">
-        <v>0.9951201876460622</v>
+        <v>0.9951201876460629</v>
       </c>
       <c r="L18">
-        <v>0.9799188467076207</v>
+        <v>0.9799188467076212</v>
       </c>
       <c r="M18">
-        <v>0.9668942928823501</v>
+        <v>0.9668942928823504</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.953649089445207</v>
+        <v>0.9536490894452059</v>
       </c>
       <c r="D19">
-        <v>0.9815582652340897</v>
+        <v>0.9815582652340888</v>
       </c>
       <c r="E19">
-        <v>0.9661512111827035</v>
+        <v>0.9661512111827024</v>
       </c>
       <c r="F19">
-        <v>0.9530469662260754</v>
+        <v>0.9530469662260743</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028499146868612</v>
       </c>
       <c r="J19">
-        <v>0.9824395964056541</v>
+        <v>0.9824395964056531</v>
       </c>
       <c r="K19">
-        <v>0.9956368062222395</v>
+        <v>0.9956368062222386</v>
       </c>
       <c r="L19">
-        <v>0.9805131281561807</v>
+        <v>0.9805131281561797</v>
       </c>
       <c r="M19">
-        <v>0.9676593604131625</v>
+        <v>0.9676593604131614</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9501078961695503</v>
+        <v>0.9501078961695502</v>
       </c>
       <c r="D20">
-        <v>0.9788848769343235</v>
+        <v>0.9788848769343232</v>
       </c>
       <c r="E20">
-        <v>0.9631123636957595</v>
+        <v>0.9631123636957594</v>
       </c>
       <c r="F20">
-        <v>0.9492146422409696</v>
+        <v>0.9492146422409692</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.027305904019107</v>
       </c>
       <c r="J20">
-        <v>0.9797074399067954</v>
+        <v>0.9797074399067952</v>
       </c>
       <c r="K20">
-        <v>0.9933094575312746</v>
+        <v>0.9933094575312742</v>
       </c>
       <c r="L20">
         <v>0.9778364057546864</v>
       </c>
       <c r="M20">
-        <v>0.9642134107795109</v>
+        <v>0.9642134107795105</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9381252267399041</v>
+        <v>0.9381252267398996</v>
       </c>
       <c r="D21">
-        <v>0.969850540691508</v>
+        <v>0.9698505406915042</v>
       </c>
       <c r="E21">
-        <v>0.9528453326037468</v>
+        <v>0.9528453326037429</v>
       </c>
       <c r="F21">
-        <v>0.9362531191233201</v>
+        <v>0.9362531191233158</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023246247657312</v>
+        <v>1.023246247657309</v>
       </c>
       <c r="J21">
-        <v>0.9704587497532087</v>
+        <v>0.9704587497532045</v>
       </c>
       <c r="K21">
-        <v>0.9854265372428536</v>
+        <v>0.9854265372428499</v>
       </c>
       <c r="L21">
-        <v>0.9687787394136187</v>
+        <v>0.9687787394136149</v>
       </c>
       <c r="M21">
-        <v>0.9525519502475031</v>
+        <v>0.9525519502474987</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9301891745601987</v>
+        <v>0.9301891745602007</v>
       </c>
       <c r="D22">
-        <v>0.9638783633458083</v>
+        <v>0.9638783633458099</v>
       </c>
       <c r="E22">
-        <v>0.9460592851332843</v>
+        <v>0.9460592851332864</v>
       </c>
       <c r="F22">
-        <v>0.9276729619087579</v>
+        <v>0.9276729619087597</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020541450652882</v>
+        <v>1.020541450652883</v>
       </c>
       <c r="J22">
-        <v>0.9643315701840903</v>
+        <v>0.9643315701840922</v>
       </c>
       <c r="K22">
-        <v>0.9802010435556016</v>
+        <v>0.9802010435556032</v>
       </c>
       <c r="L22">
-        <v>0.9627807989915108</v>
+        <v>0.9627807989915128</v>
       </c>
       <c r="M22">
-        <v>0.944827606604359</v>
+        <v>0.9448276066043609</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9344373103516144</v>
+        <v>0.9344373103516137</v>
       </c>
       <c r="D23">
-        <v>0.9670740611723577</v>
+        <v>0.9670740611723569</v>
       </c>
       <c r="E23">
-        <v>0.9496904438017586</v>
+        <v>0.949690443801758</v>
       </c>
       <c r="F23">
-        <v>0.9322655432594804</v>
+        <v>0.93226554325948</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.021990754348409</v>
       </c>
       <c r="J23">
-        <v>0.9676115251899381</v>
+        <v>0.9676115251899374</v>
       </c>
       <c r="K23">
-        <v>0.9829985781008083</v>
+        <v>0.9829985781008074</v>
       </c>
       <c r="L23">
-        <v>0.9659913152211835</v>
+        <v>0.965991315221183</v>
       </c>
       <c r="M23">
-        <v>0.9489625253736832</v>
+        <v>0.9489625253736829</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9503025846404747</v>
+        <v>0.9503025846404749</v>
       </c>
       <c r="D24">
-        <v>0.9790318160039471</v>
+        <v>0.9790318160039473</v>
       </c>
       <c r="E24">
-        <v>0.9632793793920781</v>
+        <v>0.9632793793920785</v>
       </c>
       <c r="F24">
-        <v>0.9494253120446638</v>
+        <v>0.9494253120446644</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027371589143891</v>
       </c>
       <c r="J24">
-        <v>0.979857664554588</v>
+        <v>0.9798576645545884</v>
       </c>
       <c r="K24">
-        <v>0.9934374419081644</v>
+        <v>0.9934374419081647</v>
       </c>
       <c r="L24">
-        <v>0.977983570194376</v>
+        <v>0.9779835701943764</v>
       </c>
       <c r="M24">
-        <v>0.9644028664733452</v>
+        <v>0.9644028664733456</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9672185400220673</v>
+        <v>0.9672185400220658</v>
       </c>
       <c r="D25">
-        <v>0.9918149885812521</v>
+        <v>0.9918149885812506</v>
       </c>
       <c r="E25">
-        <v>0.977814923233899</v>
+        <v>0.9778149232338973</v>
       </c>
       <c r="F25">
-        <v>0.9677420721517831</v>
+        <v>0.967742072151782</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033038845246477</v>
+        <v>1.033038845246476</v>
       </c>
       <c r="J25">
-        <v>0.992901836573302</v>
+        <v>0.9929018365733004</v>
       </c>
       <c r="K25">
-        <v>1.004541709230044</v>
+        <v>1.004541709230043</v>
       </c>
       <c r="L25">
-        <v>0.9907676820857796</v>
+        <v>0.990767682085778</v>
       </c>
       <c r="M25">
-        <v>0.9808626810574639</v>
+        <v>0.9808626810574624</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9797297143136855</v>
+        <v>0.9797297143136851</v>
       </c>
       <c r="D2">
-        <v>1.001286072655874</v>
+        <v>1.001286072655873</v>
       </c>
       <c r="E2">
-        <v>0.9885952797754602</v>
+        <v>0.9885952797754598</v>
       </c>
       <c r="F2">
-        <v>0.9813088265412993</v>
+        <v>0.981308826541299</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.01272751947498</v>
       </c>
       <c r="L2">
-        <v>1.000215820799058</v>
+        <v>1.000215820799057</v>
       </c>
       <c r="M2">
-        <v>0.9930348505839015</v>
+        <v>0.9930348505839012</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9883328506877488</v>
+        <v>0.9883328506877485</v>
       </c>
       <c r="D3">
-        <v>1.007804222088819</v>
+        <v>1.007804222088818</v>
       </c>
       <c r="E3">
-        <v>0.9960224898212787</v>
+        <v>0.9960224898212781</v>
       </c>
       <c r="F3">
-        <v>0.9906502677792651</v>
+        <v>0.9906502677792645</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.039973573944533</v>
       </c>
       <c r="J3">
-        <v>1.009146707343967</v>
+        <v>1.009146707343966</v>
       </c>
       <c r="K3">
-        <v>1.018338210879031</v>
+        <v>1.01833821087903</v>
       </c>
       <c r="L3">
-        <v>1.006706517892179</v>
+        <v>1.006706517892178</v>
       </c>
       <c r="M3">
-        <v>1.001404194731922</v>
+        <v>1.001404194731921</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937010756353361</v>
+        <v>0.9937010756353349</v>
       </c>
       <c r="D4">
-        <v>1.011872845494693</v>
+        <v>1.011872845494692</v>
       </c>
       <c r="E4">
         <v>1.000662733602953</v>
       </c>
       <c r="F4">
-        <v>0.9964852547532252</v>
+        <v>0.9964852547532242</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041705347781227</v>
       </c>
       <c r="J4">
-        <v>1.013267292613291</v>
+        <v>1.01326729261329</v>
       </c>
       <c r="K4">
-        <v>1.021830056919625</v>
+        <v>1.021830056919624</v>
       </c>
       <c r="L4">
-        <v>1.010753166589791</v>
+        <v>1.01075316658979</v>
       </c>
       <c r="M4">
-        <v>1.006626285574348</v>
+        <v>1.006626285574347</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9959134916634199</v>
+        <v>0.9959134916634165</v>
       </c>
       <c r="D5">
-        <v>1.013549837090646</v>
+        <v>1.013549837090644</v>
       </c>
       <c r="E5">
-        <v>1.002576405735805</v>
+        <v>1.002576405735802</v>
       </c>
       <c r="F5">
-        <v>0.9988915372465165</v>
+        <v>0.9988915372465139</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042414736349875</v>
+        <v>1.042414736349873</v>
       </c>
       <c r="J5">
-        <v>1.014964097344691</v>
+        <v>1.014964097344688</v>
       </c>
       <c r="K5">
-        <v>1.023266862495223</v>
+        <v>1.02326686249522</v>
       </c>
       <c r="L5">
-        <v>1.012420012621989</v>
+        <v>1.012420012621986</v>
       </c>
       <c r="M5">
-        <v>1.008778422300094</v>
+        <v>1.008778422300091</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9962824489172828</v>
+        <v>0.9962824489172826</v>
       </c>
       <c r="D6">
         <v>1.013829509924166</v>
@@ -582,7 +582,7 @@
         <v>1.002895614873515</v>
       </c>
       <c r="F6">
-        <v>0.9992929143045863</v>
+        <v>0.9992929143045859</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -597,10 +597,10 @@
         <v>1.023506335912096</v>
       </c>
       <c r="L6">
-        <v>1.012697931465603</v>
+        <v>1.012697931465602</v>
       </c>
       <c r="M6">
-        <v>1.009137324062753</v>
+        <v>1.009137324062752</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937308085250586</v>
+        <v>0.9937308085250581</v>
       </c>
       <c r="D7">
         <v>1.011895382229018</v>
       </c>
       <c r="E7">
-        <v>1.000688446702253</v>
+        <v>1.000688446702252</v>
       </c>
       <c r="F7">
-        <v>0.9965175870412822</v>
+        <v>0.9965175870412818</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.041714898600646</v>
       </c>
       <c r="J7">
-        <v>1.013290101872795</v>
+        <v>1.013290101872794</v>
       </c>
       <c r="K7">
         <v>1.021849375524955</v>
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.98268030925341</v>
+        <v>0.9826803092534095</v>
       </c>
       <c r="D8">
         <v>1.003521190004013</v>
       </c>
       <c r="E8">
-        <v>0.9911412764981077</v>
+        <v>0.9911412764981071</v>
       </c>
       <c r="F8">
         <v>0.9845113768115891</v>
@@ -673,10 +673,10 @@
         <v>1.014653674859037</v>
       </c>
       <c r="L8">
-        <v>1.002442597178922</v>
+        <v>1.002442597178921</v>
       </c>
       <c r="M8">
-        <v>0.9959053208152011</v>
+        <v>0.9959053208152012</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9615250306162396</v>
+        <v>0.9615250306162376</v>
       </c>
       <c r="D9">
-        <v>0.9875091832671314</v>
+        <v>0.9875091832671301</v>
       </c>
       <c r="E9">
-        <v>0.9729173602488346</v>
+        <v>0.9729173602488329</v>
       </c>
       <c r="F9">
-        <v>0.9615741318043377</v>
+        <v>0.9615741318043362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031140806007266</v>
+        <v>1.031140806007265</v>
       </c>
       <c r="J9">
-        <v>0.9885136308390666</v>
+        <v>0.9885136308390646</v>
       </c>
       <c r="K9">
-        <v>1.000808219139382</v>
+        <v>1.00080821913938</v>
       </c>
       <c r="L9">
-        <v>0.9864656684976543</v>
+        <v>0.9864656684976526</v>
       </c>
       <c r="M9">
-        <v>0.9753230068364632</v>
+        <v>0.9753230068364617</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9460242714594578</v>
+        <v>0.9460242714594577</v>
       </c>
       <c r="D10">
-        <v>0.9758038936089944</v>
+        <v>0.9758038936089943</v>
       </c>
       <c r="E10">
-        <v>0.9596106578358194</v>
+        <v>0.9596106578358191</v>
       </c>
       <c r="F10">
-        <v>0.9447964202752409</v>
+        <v>0.944796420275241</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>0.9765560827779913</v>
       </c>
       <c r="K10">
-        <v>0.9906242045455929</v>
+        <v>0.9906242045455927</v>
       </c>
       <c r="L10">
-        <v>0.9747495651678029</v>
+        <v>0.9747495651678028</v>
       </c>
       <c r="M10">
         <v>0.9602394457629692</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9389068604654697</v>
+        <v>0.9389068604654698</v>
       </c>
       <c r="D11">
-        <v>0.9704392554693144</v>
+        <v>0.9704392554693143</v>
       </c>
       <c r="E11">
-        <v>0.95351429997392</v>
+        <v>0.9535142999739201</v>
       </c>
       <c r="F11">
-        <v>0.9370983490782796</v>
+        <v>0.9370983490782795</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023512003014464</v>
+        <v>1.023512003014463</v>
       </c>
       <c r="J11">
         <v>0.9710621712378675</v>
       </c>
       <c r="K11">
-        <v>0.9859410381899277</v>
+        <v>0.9859410381899275</v>
       </c>
       <c r="L11">
         <v>0.9693695454620059</v>
       </c>
       <c r="M11">
-        <v>0.9533126858077962</v>
+        <v>0.953312685807796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9361944975846163</v>
+        <v>0.9361944975846168</v>
       </c>
       <c r="D12">
-        <v>0.9683967242138185</v>
+        <v>0.9683967242138192</v>
       </c>
       <c r="E12">
-        <v>0.9511933606334679</v>
+        <v>0.9511933606334686</v>
       </c>
       <c r="F12">
-        <v>0.9341654298517547</v>
+        <v>0.9341654298517555</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022589285088312</v>
+        <v>1.022589285088313</v>
       </c>
       <c r="J12">
-        <v>0.968968175009445</v>
+        <v>0.9689681750094455</v>
       </c>
       <c r="K12">
-        <v>0.9841555163982538</v>
+        <v>0.9841555163982544</v>
       </c>
       <c r="L12">
-        <v>0.967319415100136</v>
+        <v>0.9673194151001364</v>
       </c>
       <c r="M12">
-        <v>0.9506728072569566</v>
+        <v>0.9506728072569574</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.936779554345415</v>
+        <v>0.9367795543454164</v>
       </c>
       <c r="D13">
-        <v>0.9688372075339846</v>
+        <v>0.9688372075339853</v>
       </c>
       <c r="E13">
-        <v>0.9516938783820228</v>
+        <v>0.951693878382024</v>
       </c>
       <c r="F13">
-        <v>0.9347980301769596</v>
+        <v>0.9347980301769609</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.022788436674908</v>
       </c>
       <c r="J13">
-        <v>0.9694198616969723</v>
+        <v>0.9694198616969734</v>
       </c>
       <c r="K13">
-        <v>0.9845406864147284</v>
+        <v>0.9845406864147291</v>
       </c>
       <c r="L13">
-        <v>0.9677616189015266</v>
+        <v>0.9677616189015276</v>
       </c>
       <c r="M13">
-        <v>0.9512422374740223</v>
+        <v>0.9512422374740236</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9386841056791856</v>
+        <v>0.938684105679185</v>
       </c>
       <c r="D14">
-        <v>0.9702714709762598</v>
+        <v>0.9702714709762592</v>
       </c>
       <c r="E14">
         <v>0.9533236426841109</v>
       </c>
       <c r="F14">
-        <v>0.9368574670595293</v>
+        <v>0.9368574670595291</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.023436278860108</v>
       </c>
       <c r="J14">
-        <v>0.970890205790065</v>
+        <v>0.9708902057900649</v>
       </c>
       <c r="K14">
-        <v>0.9857944160590548</v>
+        <v>0.9857944160590544</v>
       </c>
       <c r="L14">
-        <v>0.9692011731124152</v>
+        <v>0.969201173112415</v>
       </c>
       <c r="M14">
-        <v>0.9530958875266713</v>
+        <v>0.9530958875266711</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9398482120762435</v>
+        <v>0.9398482120762437</v>
       </c>
       <c r="D15">
-        <v>0.9711483832047973</v>
+        <v>0.9711483832047976</v>
       </c>
       <c r="E15">
-        <v>0.9543201043994394</v>
+        <v>0.9543201043994393</v>
       </c>
       <c r="F15">
-        <v>0.9381163341779775</v>
+        <v>0.9381163341779777</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023831899099154</v>
+        <v>1.023831899099155</v>
       </c>
       <c r="J15">
-        <v>0.9717888771923748</v>
+        <v>0.9717888771923751</v>
       </c>
       <c r="K15">
-        <v>0.9865606248453967</v>
+        <v>0.9865606248453969</v>
       </c>
       <c r="L15">
-        <v>0.9700810859609755</v>
+        <v>0.9700810859609754</v>
       </c>
       <c r="M15">
-        <v>0.954228858362936</v>
+        <v>0.9542288583629361</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9464874599011376</v>
+        <v>0.946487459901136</v>
       </c>
       <c r="D16">
-        <v>0.9761532500584167</v>
+        <v>0.9761532500584154</v>
       </c>
       <c r="E16">
-        <v>0.9600076993127568</v>
+        <v>0.9600076993127553</v>
       </c>
       <c r="F16">
-        <v>0.9452975038008805</v>
+        <v>0.9452975038008788</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.026082740123669</v>
       </c>
       <c r="J16">
-        <v>0.9769135611264964</v>
+        <v>0.9769135611264952</v>
       </c>
       <c r="K16">
-        <v>0.9909288510065944</v>
+        <v>0.9909288510065932</v>
       </c>
       <c r="L16">
-        <v>0.9750996945585487</v>
+        <v>0.9750996945585475</v>
       </c>
       <c r="M16">
-        <v>0.9606902056186541</v>
+        <v>0.9606902056186526</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9505384969415362</v>
+        <v>0.950538496941536</v>
       </c>
       <c r="D17">
-        <v>0.9792098745139211</v>
+        <v>0.9792098745139213</v>
       </c>
       <c r="E17">
-        <v>0.9634817679702359</v>
+        <v>0.963481767970236</v>
       </c>
       <c r="F17">
-        <v>0.9496805933236679</v>
+        <v>0.9496805933236678</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.027451169940137</v>
       </c>
       <c r="J17">
-        <v>0.9800396958394347</v>
+        <v>0.9800396958394346</v>
       </c>
       <c r="K17">
-        <v>0.9935925213720805</v>
+        <v>0.9935925213720807</v>
       </c>
       <c r="L17">
         <v>0.9781618952306343</v>
       </c>
       <c r="M17">
-        <v>0.964632437433755</v>
+        <v>0.9646324374337545</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.952862864011023</v>
+        <v>0.9528628640110223</v>
       </c>
       <c r="D18">
-        <v>0.9809645842578516</v>
+        <v>0.980964584257851</v>
       </c>
       <c r="E18">
-        <v>0.9654763365193275</v>
+        <v>0.9654763365193267</v>
       </c>
       <c r="F18">
-        <v>0.9521960198283178</v>
+        <v>0.9521960198283175</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.028234499255321</v>
       </c>
       <c r="J18">
-        <v>0.9818330493667394</v>
+        <v>0.9818330493667388</v>
       </c>
       <c r="K18">
-        <v>0.9951201876460629</v>
+        <v>0.9951201876460622</v>
       </c>
       <c r="L18">
-        <v>0.9799188467076212</v>
+        <v>0.9799188467076207</v>
       </c>
       <c r="M18">
-        <v>0.9668942928823504</v>
+        <v>0.9668942928823501</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9536490894452059</v>
+        <v>0.953649089445207</v>
       </c>
       <c r="D19">
-        <v>0.9815582652340888</v>
+        <v>0.9815582652340897</v>
       </c>
       <c r="E19">
-        <v>0.9661512111827024</v>
+        <v>0.9661512111827035</v>
       </c>
       <c r="F19">
-        <v>0.9530469662260743</v>
+        <v>0.9530469662260754</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028499146868612</v>
       </c>
       <c r="J19">
-        <v>0.9824395964056531</v>
+        <v>0.9824395964056541</v>
       </c>
       <c r="K19">
-        <v>0.9956368062222386</v>
+        <v>0.9956368062222395</v>
       </c>
       <c r="L19">
-        <v>0.9805131281561797</v>
+        <v>0.9805131281561807</v>
       </c>
       <c r="M19">
-        <v>0.9676593604131614</v>
+        <v>0.9676593604131625</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9501078961695502</v>
+        <v>0.9501078961695503</v>
       </c>
       <c r="D20">
-        <v>0.9788848769343232</v>
+        <v>0.9788848769343235</v>
       </c>
       <c r="E20">
-        <v>0.9631123636957594</v>
+        <v>0.9631123636957595</v>
       </c>
       <c r="F20">
-        <v>0.9492146422409692</v>
+        <v>0.9492146422409696</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.027305904019107</v>
       </c>
       <c r="J20">
-        <v>0.9797074399067952</v>
+        <v>0.9797074399067954</v>
       </c>
       <c r="K20">
-        <v>0.9933094575312742</v>
+        <v>0.9933094575312746</v>
       </c>
       <c r="L20">
         <v>0.9778364057546864</v>
       </c>
       <c r="M20">
-        <v>0.9642134107795105</v>
+        <v>0.9642134107795109</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9381252267398996</v>
+        <v>0.9381252267399041</v>
       </c>
       <c r="D21">
-        <v>0.9698505406915042</v>
+        <v>0.969850540691508</v>
       </c>
       <c r="E21">
-        <v>0.9528453326037429</v>
+        <v>0.9528453326037468</v>
       </c>
       <c r="F21">
-        <v>0.9362531191233158</v>
+        <v>0.9362531191233201</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023246247657309</v>
+        <v>1.023246247657312</v>
       </c>
       <c r="J21">
-        <v>0.9704587497532045</v>
+        <v>0.9704587497532087</v>
       </c>
       <c r="K21">
-        <v>0.9854265372428499</v>
+        <v>0.9854265372428536</v>
       </c>
       <c r="L21">
-        <v>0.9687787394136149</v>
+        <v>0.9687787394136187</v>
       </c>
       <c r="M21">
-        <v>0.9525519502474987</v>
+        <v>0.9525519502475031</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9301891745602007</v>
+        <v>0.9301891745601987</v>
       </c>
       <c r="D22">
-        <v>0.9638783633458099</v>
+        <v>0.9638783633458083</v>
       </c>
       <c r="E22">
-        <v>0.9460592851332864</v>
+        <v>0.9460592851332843</v>
       </c>
       <c r="F22">
-        <v>0.9276729619087597</v>
+        <v>0.9276729619087579</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020541450652883</v>
+        <v>1.020541450652882</v>
       </c>
       <c r="J22">
-        <v>0.9643315701840922</v>
+        <v>0.9643315701840903</v>
       </c>
       <c r="K22">
-        <v>0.9802010435556032</v>
+        <v>0.9802010435556016</v>
       </c>
       <c r="L22">
-        <v>0.9627807989915128</v>
+        <v>0.9627807989915108</v>
       </c>
       <c r="M22">
-        <v>0.9448276066043609</v>
+        <v>0.944827606604359</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9344373103516137</v>
+        <v>0.9344373103516144</v>
       </c>
       <c r="D23">
-        <v>0.9670740611723569</v>
+        <v>0.9670740611723577</v>
       </c>
       <c r="E23">
-        <v>0.949690443801758</v>
+        <v>0.9496904438017586</v>
       </c>
       <c r="F23">
-        <v>0.93226554325948</v>
+        <v>0.9322655432594804</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.021990754348409</v>
       </c>
       <c r="J23">
-        <v>0.9676115251899374</v>
+        <v>0.9676115251899381</v>
       </c>
       <c r="K23">
-        <v>0.9829985781008074</v>
+        <v>0.9829985781008083</v>
       </c>
       <c r="L23">
-        <v>0.965991315221183</v>
+        <v>0.9659913152211835</v>
       </c>
       <c r="M23">
-        <v>0.9489625253736829</v>
+        <v>0.9489625253736832</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9503025846404749</v>
+        <v>0.9503025846404747</v>
       </c>
       <c r="D24">
-        <v>0.9790318160039473</v>
+        <v>0.9790318160039471</v>
       </c>
       <c r="E24">
-        <v>0.9632793793920785</v>
+        <v>0.9632793793920781</v>
       </c>
       <c r="F24">
-        <v>0.9494253120446644</v>
+        <v>0.9494253120446638</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027371589143891</v>
       </c>
       <c r="J24">
-        <v>0.9798576645545884</v>
+        <v>0.979857664554588</v>
       </c>
       <c r="K24">
-        <v>0.9934374419081647</v>
+        <v>0.9934374419081644</v>
       </c>
       <c r="L24">
-        <v>0.9779835701943764</v>
+        <v>0.977983570194376</v>
       </c>
       <c r="M24">
-        <v>0.9644028664733456</v>
+        <v>0.9644028664733452</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9672185400220658</v>
+        <v>0.9672185400220673</v>
       </c>
       <c r="D25">
-        <v>0.9918149885812506</v>
+        <v>0.9918149885812521</v>
       </c>
       <c r="E25">
-        <v>0.9778149232338973</v>
+        <v>0.977814923233899</v>
       </c>
       <c r="F25">
-        <v>0.967742072151782</v>
+        <v>0.9677420721517831</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033038845246476</v>
+        <v>1.033038845246477</v>
       </c>
       <c r="J25">
-        <v>0.9929018365733004</v>
+        <v>0.992901836573302</v>
       </c>
       <c r="K25">
-        <v>1.004541709230043</v>
+        <v>1.004541709230044</v>
       </c>
       <c r="L25">
-        <v>0.990767682085778</v>
+        <v>0.9907676820857796</v>
       </c>
       <c r="M25">
-        <v>0.9808626810574624</v>
+        <v>0.9808626810574639</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9797297143136851</v>
+        <v>0.9821110239299217</v>
       </c>
       <c r="D2">
-        <v>1.001286072655873</v>
+        <v>1.003088421231286</v>
       </c>
       <c r="E2">
-        <v>0.9885952797754598</v>
+        <v>0.9906451064644121</v>
       </c>
       <c r="F2">
-        <v>0.981308826541299</v>
+        <v>0.983327354497039</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037169881539704</v>
+        <v>1.038084245647133</v>
       </c>
       <c r="J2">
-        <v>1.002534083924663</v>
+        <v>1.004840281353977</v>
       </c>
       <c r="K2">
-        <v>1.01272751947498</v>
+        <v>1.014504896478701</v>
       </c>
       <c r="L2">
-        <v>1.000215820799057</v>
+        <v>1.002236326898337</v>
       </c>
       <c r="M2">
-        <v>0.9930348505839012</v>
+        <v>0.9950239586184992</v>
+      </c>
+      <c r="N2">
+        <v>1.006267269810291</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9883328506877485</v>
+        <v>0.990693759279662</v>
       </c>
       <c r="D3">
-        <v>1.007804222088818</v>
+        <v>1.009593412470616</v>
       </c>
       <c r="E3">
-        <v>0.9960224898212781</v>
+        <v>0.9980566845701461</v>
       </c>
       <c r="F3">
-        <v>0.9906502677792645</v>
+        <v>0.9926452603021207</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039973573944533</v>
+        <v>1.040882387106191</v>
       </c>
       <c r="J3">
-        <v>1.009146707343966</v>
+        <v>1.011441377397225</v>
       </c>
       <c r="K3">
-        <v>1.01833821087903</v>
+        <v>1.020104997891667</v>
       </c>
       <c r="L3">
-        <v>1.006706517892178</v>
+        <v>1.008714491017147</v>
       </c>
       <c r="M3">
-        <v>1.001404194731921</v>
+        <v>1.003373119472628</v>
+      </c>
+      <c r="N3">
+        <v>1.012877740167076</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937010756353349</v>
+        <v>0.9960502472894672</v>
       </c>
       <c r="D4">
-        <v>1.011872845494692</v>
+        <v>1.013654514813398</v>
       </c>
       <c r="E4">
-        <v>1.000662733602953</v>
+        <v>1.0026879660144</v>
       </c>
       <c r="F4">
-        <v>0.9964852547532242</v>
+        <v>0.9984665959679641</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041705347781227</v>
+        <v>1.042611059584216</v>
       </c>
       <c r="J4">
-        <v>1.01326729261329</v>
+        <v>1.015555530639225</v>
       </c>
       <c r="K4">
-        <v>1.021830056919624</v>
+        <v>1.023590888491187</v>
       </c>
       <c r="L4">
-        <v>1.01075316658979</v>
+        <v>1.012754057551825</v>
       </c>
       <c r="M4">
-        <v>1.006626285574347</v>
+        <v>1.008583563124877</v>
+      </c>
+      <c r="N4">
+        <v>1.01699773597858</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9959134916634165</v>
+        <v>0.9982580426566626</v>
       </c>
       <c r="D5">
-        <v>1.013549837090644</v>
+        <v>1.015328557936385</v>
       </c>
       <c r="E5">
-        <v>1.002576405735802</v>
+        <v>1.004598117548987</v>
       </c>
       <c r="F5">
-        <v>0.9988915372465139</v>
+        <v>1.000867477052541</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042414736349873</v>
+        <v>1.043319250135344</v>
       </c>
       <c r="J5">
-        <v>1.014964097344688</v>
+        <v>1.01724985123802</v>
       </c>
       <c r="K5">
-        <v>1.02326686249522</v>
+        <v>1.02502538305475</v>
       </c>
       <c r="L5">
-        <v>1.012420012621986</v>
+        <v>1.014418146545404</v>
       </c>
       <c r="M5">
-        <v>1.008778422300091</v>
+        <v>1.010731105980135</v>
+      </c>
+      <c r="N5">
+        <v>1.018694462706967</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9962824489172826</v>
+        <v>0.9986262414978696</v>
       </c>
       <c r="D6">
-        <v>1.013829509924166</v>
+        <v>1.01560774758017</v>
       </c>
       <c r="E6">
-        <v>1.002895614873515</v>
+        <v>1.004916749300797</v>
       </c>
       <c r="F6">
-        <v>0.9992929143045859</v>
+        <v>1.001267965934105</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042532781519881</v>
+        <v>1.043437100051402</v>
       </c>
       <c r="J6">
-        <v>1.015246982156248</v>
+        <v>1.017532331165899</v>
       </c>
       <c r="K6">
-        <v>1.023506335912096</v>
+        <v>1.025264479159918</v>
       </c>
       <c r="L6">
-        <v>1.012697931465602</v>
+        <v>1.014695614714104</v>
       </c>
       <c r="M6">
-        <v>1.009137324062752</v>
+        <v>1.011089253221487</v>
+      </c>
+      <c r="N6">
+        <v>1.018977343788744</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937308085250581</v>
+        <v>0.9960799172502792</v>
       </c>
       <c r="D7">
-        <v>1.011895382229018</v>
+        <v>1.01367701134112</v>
       </c>
       <c r="E7">
-        <v>1.000688446702252</v>
+        <v>1.002713631134864</v>
       </c>
       <c r="F7">
-        <v>0.9965175870412818</v>
+        <v>0.9984988548040431</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041714898600646</v>
+        <v>1.042620593994016</v>
       </c>
       <c r="J7">
-        <v>1.013290101872794</v>
+        <v>1.015578305872953</v>
       </c>
       <c r="K7">
-        <v>1.021849375524955</v>
+        <v>1.023610175486339</v>
       </c>
       <c r="L7">
-        <v>1.010775571200046</v>
+        <v>1.012776424487791</v>
       </c>
       <c r="M7">
-        <v>1.006655208564511</v>
+        <v>1.008612423585499</v>
+      </c>
+      <c r="N7">
+        <v>1.017020543555752</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9826803092534095</v>
+        <v>0.9850543970391664</v>
       </c>
       <c r="D8">
-        <v>1.003521190004013</v>
+        <v>1.005318870145947</v>
       </c>
       <c r="E8">
-        <v>0.9911412764981071</v>
+        <v>0.9931855628778549</v>
       </c>
       <c r="F8">
-        <v>0.9845113768115891</v>
+        <v>0.986521597991845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038135150210348</v>
+        <v>1.039047529198198</v>
       </c>
       <c r="J8">
-        <v>1.004803132459153</v>
+        <v>1.007105204550816</v>
       </c>
       <c r="K8">
-        <v>1.014653674859037</v>
+        <v>1.016427272769721</v>
       </c>
       <c r="L8">
-        <v>1.002442597178921</v>
+        <v>1.004458638171064</v>
       </c>
       <c r="M8">
-        <v>0.9959053208152012</v>
+        <v>0.9978872920343785</v>
+      </c>
+      <c r="N8">
+        <v>1.008535409457859</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9615250306162376</v>
+        <v>0.9639563757689906</v>
       </c>
       <c r="D9">
-        <v>0.9875091832671301</v>
+        <v>0.9893440936706281</v>
       </c>
       <c r="E9">
-        <v>0.9729173602488329</v>
+        <v>0.9750057141918428</v>
       </c>
       <c r="F9">
-        <v>0.9615741318043362</v>
+        <v>0.963649663163887</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031140806007265</v>
+        <v>1.032069358735643</v>
       </c>
       <c r="J9">
-        <v>0.9885136308390646</v>
+        <v>0.99084943645684</v>
       </c>
       <c r="K9">
-        <v>1.00080821913938</v>
+        <v>1.002612454254945</v>
       </c>
       <c r="L9">
-        <v>0.9864656684976526</v>
+        <v>0.988517755113546</v>
       </c>
       <c r="M9">
-        <v>0.9753230068364617</v>
+        <v>0.9773613811585092</v>
+      </c>
+      <c r="N9">
+        <v>0.9922565563086274</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9460242714594577</v>
+        <v>0.94850631059154</v>
       </c>
       <c r="D10">
-        <v>0.9758038936089943</v>
+        <v>0.9776720267435968</v>
       </c>
       <c r="E10">
-        <v>0.9596106578358191</v>
+        <v>0.9617382036004135</v>
       </c>
       <c r="F10">
-        <v>0.944796420275241</v>
+        <v>0.9469290432933672</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025926027845078</v>
+        <v>1.026869461273826</v>
       </c>
       <c r="J10">
-        <v>0.9765560827779913</v>
+        <v>0.9789231864472443</v>
       </c>
       <c r="K10">
-        <v>0.9906242045455927</v>
+        <v>0.9924564714605886</v>
       </c>
       <c r="L10">
-        <v>0.9747495651678028</v>
+        <v>0.9768344469062079</v>
       </c>
       <c r="M10">
-        <v>0.9602394457629692</v>
+        <v>0.9623275137813079</v>
+      </c>
+      <c r="N10">
+        <v>0.9803133696560581</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9389068604654698</v>
+        <v>0.9414149463322147</v>
       </c>
       <c r="D11">
-        <v>0.9704392554693143</v>
+        <v>0.9723245088331064</v>
       </c>
       <c r="E11">
-        <v>0.9535142999739201</v>
+        <v>0.9556620184936148</v>
       </c>
       <c r="F11">
-        <v>0.9370983490782795</v>
+        <v>0.9392601365301907</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023512003014463</v>
+        <v>1.024463207368141</v>
       </c>
       <c r="J11">
-        <v>0.9710621712378675</v>
+        <v>0.9734457146438771</v>
       </c>
       <c r="K11">
-        <v>0.9859410381899275</v>
+        <v>0.9877879231420846</v>
       </c>
       <c r="L11">
-        <v>0.9693695454620059</v>
+        <v>0.9714714920978422</v>
       </c>
       <c r="M11">
-        <v>0.953312685807796</v>
+        <v>0.9554262296145991</v>
+      </c>
+      <c r="N11">
+        <v>0.9748281192144557</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9361944975846168</v>
+        <v>0.9387130025314923</v>
       </c>
       <c r="D12">
-        <v>0.9683967242138192</v>
+        <v>0.9702888323890283</v>
       </c>
       <c r="E12">
-        <v>0.9511933606334686</v>
+        <v>0.9533491533456353</v>
       </c>
       <c r="F12">
-        <v>0.9341654298517555</v>
+        <v>0.9363388587472944</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022589285088313</v>
+        <v>1.0235436160233</v>
       </c>
       <c r="J12">
-        <v>0.9689681750094455</v>
+        <v>0.9713583501836408</v>
       </c>
       <c r="K12">
-        <v>0.9841555163982544</v>
+        <v>0.9860082811209492</v>
       </c>
       <c r="L12">
-        <v>0.9673194151001364</v>
+        <v>0.9694282206782282</v>
       </c>
       <c r="M12">
-        <v>0.9506728072569574</v>
+        <v>0.9527965334700798</v>
+      </c>
+      <c r="N12">
+        <v>0.9727377904572614</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9367795543454164</v>
+        <v>0.9392957882387216</v>
       </c>
       <c r="D13">
-        <v>0.9688372075339853</v>
+        <v>0.9707278212903889</v>
       </c>
       <c r="E13">
-        <v>0.951693878382024</v>
+        <v>0.9538479109531807</v>
       </c>
       <c r="F13">
-        <v>0.9347980301769609</v>
+        <v>0.9369689226740905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022788436674908</v>
+        <v>1.023742085308047</v>
       </c>
       <c r="J13">
-        <v>0.9694198616969734</v>
+        <v>0.9718085888197363</v>
       </c>
       <c r="K13">
-        <v>0.9845406864147291</v>
+        <v>0.9863921680714448</v>
       </c>
       <c r="L13">
-        <v>0.9677616189015276</v>
+        <v>0.9698689279577251</v>
       </c>
       <c r="M13">
-        <v>0.9512422374740236</v>
+        <v>0.953363744586135</v>
+      </c>
+      <c r="N13">
+        <v>0.9731886684838635</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.938684105679185</v>
+        <v>0.9411930367400995</v>
       </c>
       <c r="D14">
-        <v>0.9702714709762592</v>
+        <v>0.9721572802789741</v>
       </c>
       <c r="E14">
-        <v>0.9533236426841109</v>
+        <v>0.9554720160892819</v>
       </c>
       <c r="F14">
-        <v>0.9368574670595291</v>
+        <v>0.9390201993518668</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023436278860108</v>
+        <v>1.024387736485121</v>
       </c>
       <c r="J14">
-        <v>0.9708902057900649</v>
+        <v>0.973274286045387</v>
       </c>
       <c r="K14">
-        <v>0.9857944160590544</v>
+        <v>0.9876417773328717</v>
       </c>
       <c r="L14">
-        <v>0.969201173112415</v>
+        <v>0.9713036754896428</v>
       </c>
       <c r="M14">
-        <v>0.9530958875266711</v>
+        <v>0.9552102574915562</v>
+      </c>
+      <c r="N14">
+        <v>0.9746564471676923</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9398482120762437</v>
+        <v>0.9423527466715853</v>
       </c>
       <c r="D15">
-        <v>0.9711483832047976</v>
+        <v>0.9730313009178199</v>
       </c>
       <c r="E15">
-        <v>0.9543201043994393</v>
+        <v>0.9564650714587366</v>
       </c>
       <c r="F15">
-        <v>0.9381163341779777</v>
+        <v>0.9402741506934602</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023831899099155</v>
+        <v>1.024782039991837</v>
       </c>
       <c r="J15">
-        <v>0.9717888771923751</v>
+        <v>0.9741701671275176</v>
       </c>
       <c r="K15">
-        <v>0.9865606248453969</v>
+        <v>0.9884055097112006</v>
       </c>
       <c r="L15">
-        <v>0.9700810859609754</v>
+        <v>0.9721806988291239</v>
       </c>
       <c r="M15">
-        <v>0.9542288583629361</v>
+        <v>0.9563389305555197</v>
+      </c>
+      <c r="N15">
+        <v>0.9755536005037189</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,40 +992,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.946487459901136</v>
+        <v>0.9489678669326888</v>
       </c>
       <c r="D16">
-        <v>0.9761532500584154</v>
+        <v>0.9780203113338753</v>
       </c>
       <c r="E16">
-        <v>0.9600076993127553</v>
+        <v>0.962133981701464</v>
       </c>
       <c r="F16">
-        <v>0.9452975038008788</v>
+        <v>0.9474282960845408</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026082740123669</v>
+        <v>1.027025689023807</v>
       </c>
       <c r="J16">
-        <v>0.9769135611264952</v>
+        <v>0.9792796418515154</v>
       </c>
       <c r="K16">
-        <v>0.9909288510065932</v>
+        <v>0.9927602061734789</v>
       </c>
       <c r="L16">
-        <v>0.9750996945585475</v>
+        <v>0.9771835112541181</v>
       </c>
       <c r="M16">
-        <v>0.9606902056186526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9627766762113624</v>
+      </c>
+      <c r="N16">
+        <v>0.9806703312678892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.950538496941536</v>
+        <v>0.9530049468416059</v>
       </c>
       <c r="D17">
-        <v>0.9792098745139213</v>
+        <v>0.9810677748205074</v>
       </c>
       <c r="E17">
-        <v>0.963481767970236</v>
+        <v>0.9655972501461092</v>
       </c>
       <c r="F17">
-        <v>0.9496805933236678</v>
+        <v>0.9517957120251782</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027451169940137</v>
+        <v>1.028389988433479</v>
       </c>
       <c r="J17">
-        <v>0.9800396958394346</v>
+        <v>0.9823970666899471</v>
       </c>
       <c r="K17">
-        <v>0.9935925213720807</v>
+        <v>0.9954161022697485</v>
       </c>
       <c r="L17">
-        <v>0.9781618952306343</v>
+        <v>0.9802366267318338</v>
       </c>
       <c r="M17">
-        <v>0.9646324374337545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9667052414279113</v>
+      </c>
+      <c r="N17">
+        <v>0.9837921832071657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9528628640110223</v>
+        <v>0.9553215578961736</v>
       </c>
       <c r="D18">
-        <v>0.980964584257851</v>
+        <v>0.982817398229082</v>
       </c>
       <c r="E18">
-        <v>0.9654763365193267</v>
+        <v>0.96758582014575</v>
       </c>
       <c r="F18">
-        <v>0.9521960198283175</v>
+        <v>0.9543024138896707</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028234499255321</v>
+        <v>1.029171033397463</v>
       </c>
       <c r="J18">
-        <v>0.9818330493667388</v>
+        <v>0.9841856112038194</v>
       </c>
       <c r="K18">
-        <v>0.9951201876460622</v>
+        <v>0.9969394670753811</v>
       </c>
       <c r="L18">
-        <v>0.9799188467076207</v>
+        <v>0.9819885481802751</v>
       </c>
       <c r="M18">
-        <v>0.9668942928823501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9689594973307327</v>
+      </c>
+      <c r="N18">
+        <v>0.9855832676593964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.953649089445207</v>
+        <v>0.9561052006384891</v>
       </c>
       <c r="D19">
-        <v>0.9815582652340897</v>
+        <v>0.9834093862772109</v>
       </c>
       <c r="E19">
-        <v>0.9661512111827035</v>
+        <v>0.9682586978902163</v>
       </c>
       <c r="F19">
-        <v>0.9530469662260754</v>
+        <v>0.9551504525264217</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028499146868612</v>
+        <v>1.029434922213204</v>
       </c>
       <c r="J19">
-        <v>0.9824395964056541</v>
+        <v>0.9847905621101267</v>
       </c>
       <c r="K19">
-        <v>0.9956368062222395</v>
+        <v>0.9974546564726406</v>
       </c>
       <c r="L19">
-        <v>0.9805131281561807</v>
+        <v>0.9825811578196417</v>
       </c>
       <c r="M19">
-        <v>0.9676593604131625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9697220334224885</v>
+      </c>
+      <c r="N19">
+        <v>0.9861890776653794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9501078961695503</v>
+        <v>0.9525758028966469</v>
       </c>
       <c r="D20">
-        <v>0.9788848769343235</v>
+        <v>0.9807437329899726</v>
       </c>
       <c r="E20">
-        <v>0.9631123636957595</v>
+        <v>0.9652289728546758</v>
       </c>
       <c r="F20">
-        <v>0.9492146422409696</v>
+        <v>0.9513313984847673</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027305904019107</v>
+        <v>1.028245152492297</v>
       </c>
       <c r="J20">
-        <v>0.9797074399067954</v>
+        <v>0.9820657165963317</v>
       </c>
       <c r="K20">
-        <v>0.9933094575312746</v>
+        <v>0.9951338479253669</v>
       </c>
       <c r="L20">
-        <v>0.9778364057546864</v>
+        <v>0.9799120835898375</v>
       </c>
       <c r="M20">
-        <v>0.9642134107795109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9662876417987205</v>
+      </c>
+      <c r="N20">
+        <v>0.983460362558411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9381252267399041</v>
+        <v>0.9406362865513077</v>
       </c>
       <c r="D21">
-        <v>0.969850540691508</v>
+        <v>0.9717377503099641</v>
       </c>
       <c r="E21">
-        <v>0.9528453326037468</v>
+        <v>0.9549953555117578</v>
       </c>
       <c r="F21">
-        <v>0.9362531191233201</v>
+        <v>0.938418230750564</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023246247657312</v>
+        <v>1.024198343469462</v>
       </c>
       <c r="J21">
-        <v>0.9704587497532087</v>
+        <v>0.9728441830339637</v>
       </c>
       <c r="K21">
-        <v>0.9854265372428536</v>
+        <v>0.9872750987184847</v>
       </c>
       <c r="L21">
-        <v>0.9687787394136187</v>
+        <v>0.9708826420311968</v>
       </c>
       <c r="M21">
-        <v>0.9525519502475031</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9546684008874169</v>
+      </c>
+      <c r="N21">
+        <v>0.9742257333606594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9301891745601987</v>
+        <v>0.9327317637199577</v>
       </c>
       <c r="D22">
-        <v>0.9638783633458083</v>
+        <v>0.9657863276762544</v>
       </c>
       <c r="E22">
-        <v>0.9460592851332843</v>
+        <v>0.9482337500526863</v>
       </c>
       <c r="F22">
-        <v>0.9276729619087579</v>
+        <v>0.9298732547368646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020541450652882</v>
+        <v>1.021503042309399</v>
       </c>
       <c r="J22">
-        <v>0.9643315701840903</v>
+        <v>0.9667371825772452</v>
       </c>
       <c r="K22">
-        <v>0.9802010435556016</v>
+        <v>0.9820674609807715</v>
       </c>
       <c r="L22">
-        <v>0.9627807989915108</v>
+        <v>0.9649055219689968</v>
       </c>
       <c r="M22">
-        <v>0.944827606604359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9469748547488002</v>
+      </c>
+      <c r="N22">
+        <v>0.9681100602628098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9344373103516144</v>
+        <v>0.9369627156039133</v>
       </c>
       <c r="D23">
-        <v>0.9670740611723577</v>
+        <v>0.9689707108091477</v>
       </c>
       <c r="E23">
-        <v>0.9496904438017586</v>
+        <v>0.9518515851304782</v>
       </c>
       <c r="F23">
-        <v>0.9322655432594804</v>
+        <v>0.9344466751064162</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021990754348409</v>
+        <v>1.022947160976671</v>
       </c>
       <c r="J23">
-        <v>0.9676115251899381</v>
+        <v>0.9700061084103506</v>
       </c>
       <c r="K23">
-        <v>0.9829985781008083</v>
+        <v>0.9848552460147527</v>
       </c>
       <c r="L23">
-        <v>0.9659913152211835</v>
+        <v>0.9681046726439495</v>
       </c>
       <c r="M23">
-        <v>0.9489625253736832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.951092992855081</v>
+      </c>
+      <c r="N23">
+        <v>0.9713836283455488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9503025846404747</v>
+        <v>0.9527698319097131</v>
       </c>
       <c r="D24">
-        <v>0.9790318160039471</v>
+        <v>0.9808902394092449</v>
       </c>
       <c r="E24">
-        <v>0.9632793793920781</v>
+        <v>0.9653954783927072</v>
       </c>
       <c r="F24">
-        <v>0.9494253120446638</v>
+        <v>0.9515413270733996</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027371589143891</v>
+        <v>1.028310642944781</v>
       </c>
       <c r="J24">
-        <v>0.979857664554588</v>
+        <v>0.9822155311025397</v>
       </c>
       <c r="K24">
-        <v>0.9934374419081644</v>
+        <v>0.9952614658107255</v>
       </c>
       <c r="L24">
-        <v>0.977983570194376</v>
+        <v>0.980058819596401</v>
       </c>
       <c r="M24">
-        <v>0.9644028664733452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9664764515407878</v>
+      </c>
+      <c r="N24">
+        <v>0.9836103898184013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9672185400220673</v>
+        <v>0.969633189401632</v>
       </c>
       <c r="D25">
-        <v>0.9918149885812521</v>
+        <v>0.9936389999139351</v>
       </c>
       <c r="E25">
-        <v>0.977814923233899</v>
+        <v>0.9798903989551399</v>
       </c>
       <c r="F25">
-        <v>0.9677420721517831</v>
+        <v>0.9697986728677199</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033038845246477</v>
+        <v>1.033962593393973</v>
       </c>
       <c r="J25">
-        <v>0.992901836573302</v>
+        <v>0.9952275907345276</v>
       </c>
       <c r="K25">
-        <v>1.004541709230044</v>
+        <v>1.006336871380162</v>
       </c>
       <c r="L25">
-        <v>0.9907676820857796</v>
+        <v>0.9928091240482431</v>
       </c>
       <c r="M25">
-        <v>0.9808626810574639</v>
+        <v>0.9828846461556936</v>
+      </c>
+      <c r="N25">
+        <v>0.9966409280675708</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9821110239299217</v>
+        <v>1.001494820384111</v>
       </c>
       <c r="D2">
-        <v>1.003088421231286</v>
+        <v>1.021095134096956</v>
       </c>
       <c r="E2">
-        <v>0.9906451064644121</v>
+        <v>1.007035451746679</v>
       </c>
       <c r="F2">
-        <v>0.983327354497039</v>
+        <v>1.021726433108264</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038084245647133</v>
+        <v>1.042316272787716</v>
       </c>
       <c r="J2">
-        <v>1.004840281353977</v>
+        <v>1.023630913370957</v>
       </c>
       <c r="K2">
-        <v>1.014504896478701</v>
+        <v>1.032268199475433</v>
       </c>
       <c r="L2">
-        <v>1.002236326898337</v>
+        <v>1.018397634054382</v>
       </c>
       <c r="M2">
-        <v>0.9950239586184992</v>
+        <v>1.032891160032675</v>
       </c>
       <c r="N2">
-        <v>1.006267269810291</v>
+        <v>1.025084586680051</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.990693759279662</v>
+        <v>1.009302784263162</v>
       </c>
       <c r="D3">
-        <v>1.009593412470616</v>
+        <v>1.02730573530594</v>
       </c>
       <c r="E3">
-        <v>0.9980566845701461</v>
+        <v>1.013569962869141</v>
       </c>
       <c r="F3">
-        <v>0.9926452603021207</v>
+        <v>1.028926242239803</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040882387106191</v>
+        <v>1.044759996958995</v>
       </c>
       <c r="J3">
-        <v>1.011441377397225</v>
+        <v>1.029543019045319</v>
       </c>
       <c r="K3">
-        <v>1.020104997891667</v>
+        <v>1.037600759938544</v>
       </c>
       <c r="L3">
-        <v>1.008714491017147</v>
+        <v>1.024032108547192</v>
       </c>
       <c r="M3">
-        <v>1.003373119472628</v>
+        <v>1.039201915297217</v>
       </c>
       <c r="N3">
-        <v>1.012877740167076</v>
+        <v>1.031005088222598</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9960502472894672</v>
+        <v>1.01419863337365</v>
       </c>
       <c r="D4">
-        <v>1.013654514813398</v>
+        <v>1.031202740129083</v>
       </c>
       <c r="E4">
-        <v>1.0026879660144</v>
+        <v>1.017673257732681</v>
       </c>
       <c r="F4">
-        <v>0.9984665959679641</v>
+        <v>1.033448239952387</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042611059584216</v>
+        <v>1.046279619451314</v>
       </c>
       <c r="J4">
-        <v>1.015555530639225</v>
+        <v>1.033245980491519</v>
       </c>
       <c r="K4">
-        <v>1.023590888491187</v>
+        <v>1.040938614328526</v>
       </c>
       <c r="L4">
-        <v>1.012754057551825</v>
+        <v>1.027562960689057</v>
       </c>
       <c r="M4">
-        <v>1.008583563124877</v>
+        <v>1.043159062614108</v>
       </c>
       <c r="N4">
-        <v>1.01699773597858</v>
+        <v>1.034713308298787</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9982580426566626</v>
+        <v>1.016221582896512</v>
       </c>
       <c r="D5">
-        <v>1.015328557936385</v>
+        <v>1.032813512169412</v>
       </c>
       <c r="E5">
-        <v>1.004598117548987</v>
+        <v>1.019370049330092</v>
       </c>
       <c r="F5">
-        <v>1.000867477052541</v>
+        <v>1.035318402588214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043319250135344</v>
+        <v>1.046904412162879</v>
       </c>
       <c r="J5">
-        <v>1.01724985123802</v>
+        <v>1.034774969787166</v>
       </c>
       <c r="K5">
-        <v>1.02502538305475</v>
+        <v>1.042316313677911</v>
       </c>
       <c r="L5">
-        <v>1.014418146545404</v>
+        <v>1.02902129943674</v>
       </c>
       <c r="M5">
-        <v>1.010731105980135</v>
+        <v>1.044794066582216</v>
       </c>
       <c r="N5">
-        <v>1.018694462706967</v>
+        <v>1.036244468934612</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9986262414978696</v>
+        <v>1.016559236966662</v>
       </c>
       <c r="D6">
-        <v>1.01560774758017</v>
+        <v>1.033082397538395</v>
       </c>
       <c r="E6">
-        <v>1.004916749300797</v>
+        <v>1.019653338778134</v>
       </c>
       <c r="F6">
-        <v>1.001267965934105</v>
+        <v>1.035630650999621</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043437100051402</v>
+        <v>1.047008512499541</v>
       </c>
       <c r="J6">
-        <v>1.017532331165899</v>
+        <v>1.035030111527336</v>
       </c>
       <c r="K6">
-        <v>1.025264479159918</v>
+        <v>1.04254617762544</v>
       </c>
       <c r="L6">
-        <v>1.014695614714104</v>
+        <v>1.029264675833298</v>
       </c>
       <c r="M6">
-        <v>1.011089253221487</v>
+        <v>1.045066960675802</v>
       </c>
       <c r="N6">
-        <v>1.018977343788744</v>
+        <v>1.036499973005318</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9960799172502792</v>
+        <v>1.014225799948973</v>
       </c>
       <c r="D7">
-        <v>1.01367701134112</v>
+        <v>1.031224369500151</v>
       </c>
       <c r="E7">
-        <v>1.002713631134864</v>
+        <v>1.01769603916327</v>
       </c>
       <c r="F7">
-        <v>0.9984988548040431</v>
+        <v>1.033473348179393</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042620593994016</v>
+        <v>1.04628802231632</v>
       </c>
       <c r="J7">
-        <v>1.015578305872953</v>
+        <v>1.033266517881918</v>
       </c>
       <c r="K7">
-        <v>1.023610175486339</v>
+        <v>1.040957121737925</v>
       </c>
       <c r="L7">
-        <v>1.012776424487791</v>
+        <v>1.027582547472575</v>
       </c>
       <c r="M7">
-        <v>1.008612423585499</v>
+        <v>1.043181019826075</v>
       </c>
       <c r="N7">
-        <v>1.017020543555752</v>
+        <v>1.034733874854636</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9850543970391664</v>
+        <v>1.00416732464805</v>
       </c>
       <c r="D8">
-        <v>1.005318870145947</v>
+        <v>1.02322023606421</v>
       </c>
       <c r="E8">
-        <v>0.9931855628778549</v>
+        <v>1.009270758202983</v>
       </c>
       <c r="F8">
-        <v>0.986521597991845</v>
+        <v>1.024189128809973</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039047529198198</v>
+        <v>1.043155341711495</v>
       </c>
       <c r="J8">
-        <v>1.007105204550816</v>
+        <v>1.025655328458045</v>
       </c>
       <c r="K8">
-        <v>1.016427272769721</v>
+        <v>1.034094598842418</v>
       </c>
       <c r="L8">
-        <v>1.004458638171064</v>
+        <v>1.020326598622249</v>
       </c>
       <c r="M8">
-        <v>0.9978872920343785</v>
+        <v>1.035051116069339</v>
       </c>
       <c r="N8">
-        <v>1.008535409457859</v>
+        <v>1.027111876668766</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9639563757689906</v>
+        <v>0.9851354312741214</v>
       </c>
       <c r="D9">
-        <v>0.9893440936706281</v>
+        <v>1.00810408740501</v>
       </c>
       <c r="E9">
-        <v>0.9750057141918428</v>
+        <v>0.9933829003647787</v>
       </c>
       <c r="F9">
-        <v>0.963649663163887</v>
+        <v>1.006688882314401</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032069358735643</v>
+        <v>1.037128210155737</v>
       </c>
       <c r="J9">
-        <v>0.99084943645684</v>
+        <v>1.011224240641726</v>
       </c>
       <c r="K9">
-        <v>1.002612454254945</v>
+        <v>1.021067035696755</v>
       </c>
       <c r="L9">
-        <v>0.988517755113546</v>
+        <v>1.006584255532151</v>
       </c>
       <c r="M9">
-        <v>0.9773613811585092</v>
+        <v>1.019674361304912</v>
       </c>
       <c r="N9">
-        <v>0.9922565563086274</v>
+        <v>1.012660295052478</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.94850631059154</v>
+        <v>0.9713940471261859</v>
       </c>
       <c r="D10">
-        <v>0.9776720267435968</v>
+        <v>0.9972195052466863</v>
       </c>
       <c r="E10">
-        <v>0.9617382036004135</v>
+        <v>0.9819570554553851</v>
       </c>
       <c r="F10">
-        <v>0.9469290432933672</v>
+        <v>0.9941081423667242</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026869461273826</v>
+        <v>1.032713871157591</v>
       </c>
       <c r="J10">
-        <v>0.9789231864472443</v>
+        <v>1.000790460851112</v>
       </c>
       <c r="K10">
-        <v>0.9924564714605886</v>
+        <v>1.011639144518256</v>
       </c>
       <c r="L10">
-        <v>0.9768344469062079</v>
+        <v>0.996659905898683</v>
       </c>
       <c r="M10">
-        <v>0.9623275137813079</v>
+        <v>1.008584597258933</v>
       </c>
       <c r="N10">
-        <v>0.9803133696560581</v>
+        <v>1.002211698097791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9414149463322147</v>
+        <v>0.9651475626681822</v>
       </c>
       <c r="D11">
-        <v>0.9723245088331064</v>
+        <v>0.9922812860687562</v>
       </c>
       <c r="E11">
-        <v>0.9556620184936148</v>
+        <v>0.976776258204589</v>
       </c>
       <c r="F11">
-        <v>0.9392601365301907</v>
+        <v>0.9884047145586177</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024463207368141</v>
+        <v>1.030693734978554</v>
       </c>
       <c r="J11">
-        <v>0.9734457146438771</v>
+        <v>0.9960457242661588</v>
       </c>
       <c r="K11">
-        <v>0.9877879231420846</v>
+        <v>1.007350248970826</v>
       </c>
       <c r="L11">
-        <v>0.9714714920978422</v>
+        <v>0.9921498445045563</v>
       </c>
       <c r="M11">
-        <v>0.9554262296145991</v>
+        <v>1.003548664698819</v>
       </c>
       <c r="N11">
-        <v>0.9748281192144557</v>
+        <v>0.9974602234426582</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9387130025314923</v>
+        <v>0.9627781601712827</v>
       </c>
       <c r="D12">
-        <v>0.9702888323890283</v>
+        <v>0.9904098346230046</v>
       </c>
       <c r="E12">
-        <v>0.9533491533456353</v>
+        <v>0.9748132826157164</v>
       </c>
       <c r="F12">
-        <v>0.9363388587472944</v>
+        <v>0.986243865540065</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0235436160233</v>
+        <v>1.029925570041339</v>
       </c>
       <c r="J12">
-        <v>0.9713583501836408</v>
+        <v>0.9942458455526286</v>
       </c>
       <c r="K12">
-        <v>0.9860082811209492</v>
+        <v>1.005723102676085</v>
       </c>
       <c r="L12">
-        <v>0.9694282206782282</v>
+        <v>0.990439469158003</v>
       </c>
       <c r="M12">
-        <v>0.9527965334700798</v>
+        <v>1.001639443506589</v>
       </c>
       <c r="N12">
-        <v>0.9727377904572614</v>
+        <v>0.995657788694906</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9392957882387216</v>
+        <v>0.9632887127319865</v>
       </c>
       <c r="D13">
-        <v>0.9707278212903889</v>
+        <v>0.9908130087576191</v>
       </c>
       <c r="E13">
-        <v>0.9538479109531807</v>
+        <v>0.9752361565521603</v>
       </c>
       <c r="F13">
-        <v>0.9369689226740905</v>
+        <v>0.986709359758371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023742085308047</v>
+        <v>1.030091175175545</v>
       </c>
       <c r="J13">
-        <v>0.9718085888197363</v>
+        <v>0.9946336811641721</v>
       </c>
       <c r="K13">
-        <v>0.9863921680714448</v>
+        <v>1.006073725694886</v>
       </c>
       <c r="L13">
-        <v>0.9698689279577251</v>
+        <v>0.9908079964908997</v>
       </c>
       <c r="M13">
-        <v>0.953363744586135</v>
+        <v>1.002050788634082</v>
       </c>
       <c r="N13">
-        <v>0.9731886684838635</v>
+        <v>0.9960461750775029</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9411930367400995</v>
+        <v>0.9649527397140787</v>
       </c>
       <c r="D14">
-        <v>0.9721572802789741</v>
+        <v>0.9921273708126743</v>
       </c>
       <c r="E14">
-        <v>0.9554720160892819</v>
+        <v>0.9766148076804743</v>
       </c>
       <c r="F14">
-        <v>0.9390201993518668</v>
+        <v>0.9882269863987504</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024387736485121</v>
+        <v>1.030630610486575</v>
       </c>
       <c r="J14">
-        <v>0.973274286045387</v>
+        <v>0.9958977315099421</v>
       </c>
       <c r="K14">
-        <v>0.9876417773328717</v>
+        <v>1.007216462402468</v>
       </c>
       <c r="L14">
-        <v>0.9713036754896428</v>
+        <v>0.9920092011230394</v>
       </c>
       <c r="M14">
-        <v>0.9552102574915562</v>
+        <v>1.003391658366516</v>
       </c>
       <c r="N14">
-        <v>0.9746564471676923</v>
+        <v>0.9973120205197528</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9423527466715853</v>
+        <v>0.9659713340911428</v>
       </c>
       <c r="D15">
-        <v>0.9730313009178199</v>
+        <v>0.9929321578882377</v>
       </c>
       <c r="E15">
-        <v>0.9564650714587366</v>
+        <v>0.9774590111626312</v>
       </c>
       <c r="F15">
-        <v>0.9402741506934602</v>
+        <v>0.9891563094805813</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024782039991837</v>
+        <v>1.030960568807501</v>
       </c>
       <c r="J15">
-        <v>0.9741701671275176</v>
+        <v>0.9966714794651669</v>
       </c>
       <c r="K15">
-        <v>0.9884055097112006</v>
+        <v>1.00791592910359</v>
       </c>
       <c r="L15">
-        <v>0.9721806988291239</v>
+        <v>0.9927445441861305</v>
       </c>
       <c r="M15">
-        <v>0.9563389305555197</v>
+        <v>1.004212577666907</v>
       </c>
       <c r="N15">
-        <v>0.9755536005037189</v>
+        <v>0.9980868672858241</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9489678669326888</v>
+        <v>0.9718019793534157</v>
       </c>
       <c r="D16">
-        <v>0.9780203113338753</v>
+        <v>0.9975422197412491</v>
       </c>
       <c r="E16">
-        <v>0.962133981701464</v>
+        <v>0.982295680823387</v>
       </c>
       <c r="F16">
-        <v>0.9474282960845408</v>
+        <v>0.994480948495019</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027025689023807</v>
+        <v>1.032845530305132</v>
       </c>
       <c r="J16">
-        <v>0.9792796418515154</v>
+        <v>1.00110029539173</v>
       </c>
       <c r="K16">
-        <v>0.9927602061734789</v>
+        <v>1.011919183721122</v>
       </c>
       <c r="L16">
-        <v>0.9771835112541181</v>
+        <v>0.9969544805222497</v>
       </c>
       <c r="M16">
-        <v>0.9627766762113624</v>
+        <v>1.008913598160686</v>
       </c>
       <c r="N16">
-        <v>0.9806703312678892</v>
+        <v>1.002521972638995</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9530049468416059</v>
+        <v>0.9753769600683159</v>
       </c>
       <c r="D17">
-        <v>0.9810677748205074</v>
+        <v>1.000371492767838</v>
       </c>
       <c r="E17">
-        <v>0.9655972501461092</v>
+        <v>0.9852647782087878</v>
       </c>
       <c r="F17">
-        <v>0.9517957120251782</v>
+        <v>0.9977498612460439</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028389988433479</v>
+        <v>1.033997842983666</v>
       </c>
       <c r="J17">
-        <v>0.9823970666899471</v>
+        <v>1.003815394390186</v>
       </c>
       <c r="K17">
-        <v>0.9954161022697485</v>
+        <v>1.014373011504127</v>
       </c>
       <c r="L17">
-        <v>0.9802366267318338</v>
+        <v>0.9995361980514389</v>
       </c>
       <c r="M17">
-        <v>0.9667052414279113</v>
+        <v>1.011797458907848</v>
       </c>
       <c r="N17">
-        <v>0.9837921832071657</v>
+        <v>1.005240927389454</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9553215578961736</v>
+        <v>0.9774339374265349</v>
       </c>
       <c r="D18">
-        <v>0.982817398229082</v>
+        <v>1.002000288633772</v>
       </c>
       <c r="E18">
-        <v>0.96758582014575</v>
+        <v>0.9869743533269845</v>
       </c>
       <c r="F18">
-        <v>0.9543024138896707</v>
+        <v>0.9996321640834503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029171033397463</v>
+        <v>1.034659588845986</v>
       </c>
       <c r="J18">
-        <v>0.9841856112038194</v>
+        <v>1.005377431721527</v>
       </c>
       <c r="K18">
-        <v>0.9969394670753811</v>
+        <v>1.015784583587653</v>
       </c>
       <c r="L18">
-        <v>0.9819885481802751</v>
+        <v>1.001021779256299</v>
       </c>
       <c r="M18">
-        <v>0.9689594973307327</v>
+        <v>1.013457249876512</v>
       </c>
       <c r="N18">
-        <v>0.9855832676593964</v>
+        <v>1.006805182992975</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9561052006384891</v>
+        <v>0.9781306527793959</v>
       </c>
       <c r="D19">
-        <v>0.9834093862772109</v>
+        <v>1.002552118426813</v>
       </c>
       <c r="E19">
-        <v>0.9682586978902163</v>
+        <v>0.9875536000314514</v>
       </c>
       <c r="F19">
-        <v>0.9551504525264217</v>
+        <v>1.000269951925332</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029434922213204</v>
+        <v>1.034883507931913</v>
       </c>
       <c r="J19">
-        <v>0.9847905621101267</v>
+        <v>1.005906471950184</v>
       </c>
       <c r="K19">
-        <v>0.9974546564726406</v>
+        <v>1.016262636157366</v>
       </c>
       <c r="L19">
-        <v>0.9825811578196417</v>
+        <v>1.001524971618988</v>
       </c>
       <c r="M19">
-        <v>0.9697220334224885</v>
+        <v>1.014019508854326</v>
       </c>
       <c r="N19">
-        <v>0.9861890776653794</v>
+        <v>1.007334974519438</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9525758028966469</v>
+        <v>0.9749963518385578</v>
       </c>
       <c r="D20">
-        <v>0.9807437329899726</v>
+        <v>1.000070182168453</v>
       </c>
       <c r="E20">
-        <v>0.9652289728546758</v>
+        <v>0.9849485475043374</v>
       </c>
       <c r="F20">
-        <v>0.9513313984847673</v>
+        <v>0.9974016879449025</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028245152492297</v>
+        <v>1.033875294190134</v>
       </c>
       <c r="J20">
-        <v>0.9820657165963317</v>
+        <v>1.003526350656233</v>
       </c>
       <c r="K20">
-        <v>0.9951338479253669</v>
+        <v>1.014111797619713</v>
       </c>
       <c r="L20">
-        <v>0.9799120835898375</v>
+        <v>0.9992613244989252</v>
       </c>
       <c r="M20">
-        <v>0.9662876417987205</v>
+        <v>1.011490379924447</v>
       </c>
       <c r="N20">
-        <v>0.983460362558411</v>
+        <v>1.004951473180246</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9406362865513077</v>
+        <v>0.9644641236418</v>
       </c>
       <c r="D21">
-        <v>0.9717377503099641</v>
+        <v>0.9917413795570994</v>
       </c>
       <c r="E21">
-        <v>0.9549953555117578</v>
+        <v>0.9762099257329384</v>
       </c>
       <c r="F21">
-        <v>0.938418230750564</v>
+        <v>0.9877812861308145</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024198343469462</v>
+        <v>1.030472264319586</v>
       </c>
       <c r="J21">
-        <v>0.9728441830339637</v>
+        <v>0.9955265643001139</v>
       </c>
       <c r="K21">
-        <v>0.9872750987184847</v>
+        <v>1.006880921616939</v>
       </c>
       <c r="L21">
-        <v>0.9708826420311968</v>
+        <v>0.9916564740493814</v>
       </c>
       <c r="M21">
-        <v>0.9546684008874169</v>
+        <v>1.002997903220057</v>
       </c>
       <c r="N21">
-        <v>0.9742257333606594</v>
+        <v>0.9969403262099131</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9327317637199577</v>
+        <v>0.9575547224174646</v>
       </c>
       <c r="D22">
-        <v>0.9657863276762544</v>
+        <v>0.9862876057035368</v>
       </c>
       <c r="E22">
-        <v>0.9482337500526863</v>
+        <v>0.9704901529149096</v>
       </c>
       <c r="F22">
-        <v>0.9298732547368646</v>
+        <v>0.9814852191315251</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021503042309399</v>
+        <v>1.028228792920897</v>
       </c>
       <c r="J22">
-        <v>0.9667371825772452</v>
+        <v>0.9902779211150141</v>
       </c>
       <c r="K22">
-        <v>0.9820674609807715</v>
+        <v>1.002135691554219</v>
       </c>
       <c r="L22">
-        <v>0.9649055219689968</v>
+        <v>0.9866697830896825</v>
       </c>
       <c r="M22">
-        <v>0.9469748547488002</v>
+        <v>0.9974326018201491</v>
       </c>
       <c r="N22">
-        <v>0.9681100602628098</v>
+        <v>0.9916842293494624</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9369627156039133</v>
+        <v>0.9612465060211317</v>
       </c>
       <c r="D23">
-        <v>0.9689707108091477</v>
+        <v>0.9892005861096363</v>
       </c>
       <c r="E23">
-        <v>0.9518515851304782</v>
+        <v>0.9735450041024092</v>
       </c>
       <c r="F23">
-        <v>0.9344466751064162</v>
+        <v>0.9848477820439984</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022947160976671</v>
+        <v>1.02942848983873</v>
       </c>
       <c r="J23">
-        <v>0.9700061084103506</v>
+        <v>0.9930823375172231</v>
       </c>
       <c r="K23">
-        <v>0.9848552460147527</v>
+        <v>1.004671209327684</v>
       </c>
       <c r="L23">
-        <v>0.9681046726439495</v>
+        <v>0.9893339589655467</v>
       </c>
       <c r="M23">
-        <v>0.951092992855081</v>
+        <v>1.000405575545956</v>
       </c>
       <c r="N23">
-        <v>0.9713836283455488</v>
+        <v>0.9944926283446339</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9527698319097131</v>
+        <v>0.9751684192664369</v>
       </c>
       <c r="D24">
-        <v>0.9808902394092449</v>
+        <v>1.000206397563028</v>
       </c>
       <c r="E24">
-        <v>0.9653954783927072</v>
+        <v>0.9850915070424221</v>
       </c>
       <c r="F24">
-        <v>0.9515413270733996</v>
+        <v>0.9975590875837288</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028310642944781</v>
+        <v>1.033930700679426</v>
       </c>
       <c r="J24">
-        <v>0.9822155311025397</v>
+        <v>1.003657023682453</v>
       </c>
       <c r="K24">
-        <v>0.9952614658107255</v>
+        <v>1.014229889598081</v>
       </c>
       <c r="L24">
-        <v>0.980058819596401</v>
+        <v>0.999385590495881</v>
       </c>
       <c r="M24">
-        <v>0.9664764515407878</v>
+        <v>1.01162920440416</v>
       </c>
       <c r="N24">
-        <v>0.9836103898184013</v>
+        <v>1.005082331777152</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.969633189401632</v>
+        <v>0.990227219799939</v>
       </c>
       <c r="D25">
-        <v>0.9936389999139351</v>
+        <v>1.01214401063713</v>
       </c>
       <c r="E25">
-        <v>0.9798903989551399</v>
+        <v>0.9976264916317646</v>
       </c>
       <c r="F25">
-        <v>0.9697986728677199</v>
+        <v>1.011362319976372</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033962593393973</v>
+        <v>1.038751741174874</v>
       </c>
       <c r="J25">
-        <v>0.9952275907345276</v>
+        <v>1.015088013210996</v>
       </c>
       <c r="K25">
-        <v>1.006336871380162</v>
+        <v>1.02455668677135</v>
       </c>
       <c r="L25">
-        <v>0.9928091240482431</v>
+        <v>1.010261765341771</v>
       </c>
       <c r="M25">
-        <v>0.9828846461556936</v>
+        <v>1.023786774479152</v>
       </c>
       <c r="N25">
-        <v>0.9966409280675708</v>
+        <v>1.016529554621978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001494820384111</v>
+        <v>0.9929496149403693</v>
       </c>
       <c r="D2">
-        <v>1.021095134096956</v>
+        <v>1.01637430404339</v>
       </c>
       <c r="E2">
-        <v>1.007035451746679</v>
+        <v>1.000150063100188</v>
       </c>
       <c r="F2">
-        <v>1.021726433108264</v>
+        <v>1.016882938299106</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042316272787716</v>
+        <v>1.044826167991161</v>
       </c>
       <c r="J2">
-        <v>1.023630913370957</v>
+        <v>1.015343266357686</v>
       </c>
       <c r="K2">
-        <v>1.032268199475433</v>
+        <v>1.027610136455226</v>
       </c>
       <c r="L2">
-        <v>1.018397634054382</v>
+        <v>1.011607307701183</v>
       </c>
       <c r="M2">
-        <v>1.032891160032675</v>
+        <v>1.028111972851426</v>
       </c>
       <c r="N2">
-        <v>1.025084586680051</v>
+        <v>1.008521302084549</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009302784263162</v>
+        <v>0.9992548557216164</v>
       </c>
       <c r="D3">
-        <v>1.02730573530594</v>
+        <v>1.021435546921701</v>
       </c>
       <c r="E3">
-        <v>1.013569962869141</v>
+        <v>1.005316106902279</v>
       </c>
       <c r="F3">
-        <v>1.028926242239803</v>
+        <v>1.022912323544432</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044759996958995</v>
+        <v>1.046898833524853</v>
       </c>
       <c r="J3">
-        <v>1.029543019045319</v>
+        <v>1.01976585475386</v>
       </c>
       <c r="K3">
-        <v>1.037600759938544</v>
+        <v>1.031801309986271</v>
       </c>
       <c r="L3">
-        <v>1.024032108547192</v>
+        <v>1.015881416055321</v>
       </c>
       <c r="M3">
-        <v>1.039201915297217</v>
+        <v>1.033260195871458</v>
       </c>
       <c r="N3">
-        <v>1.031005088222598</v>
+        <v>1.010047438224025</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01419863337365</v>
+        <v>1.003225889987056</v>
       </c>
       <c r="D4">
-        <v>1.031202740129083</v>
+        <v>1.024623911429043</v>
       </c>
       <c r="E4">
-        <v>1.017673257732681</v>
+        <v>1.008576191829278</v>
       </c>
       <c r="F4">
-        <v>1.033448239952387</v>
+        <v>1.026714383827781</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046279619451314</v>
+        <v>1.0481883837451</v>
       </c>
       <c r="J4">
-        <v>1.033245980491519</v>
+        <v>1.022547435591874</v>
       </c>
       <c r="K4">
-        <v>1.040938614328526</v>
+        <v>1.034433960494817</v>
       </c>
       <c r="L4">
-        <v>1.027562960689057</v>
+        <v>1.018572200118013</v>
       </c>
       <c r="M4">
-        <v>1.043159062614108</v>
+        <v>1.03650073629143</v>
       </c>
       <c r="N4">
-        <v>1.034713308298787</v>
+        <v>1.011006532948328</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016221582896512</v>
+        <v>1.004870512774543</v>
       </c>
       <c r="D5">
-        <v>1.032813512169412</v>
+        <v>1.025944489775041</v>
       </c>
       <c r="E5">
-        <v>1.019370049330092</v>
+        <v>1.009927859085756</v>
       </c>
       <c r="F5">
-        <v>1.035318402588214</v>
+        <v>1.028290095816481</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046904412162879</v>
+        <v>1.048718596040472</v>
       </c>
       <c r="J5">
-        <v>1.034774969787166</v>
+        <v>1.023698481870283</v>
       </c>
       <c r="K5">
-        <v>1.042316313677911</v>
+        <v>1.035522544567926</v>
       </c>
       <c r="L5">
-        <v>1.02902129943674</v>
+        <v>1.019686289501007</v>
       </c>
       <c r="M5">
-        <v>1.044794066582216</v>
+        <v>1.037842314563779</v>
       </c>
       <c r="N5">
-        <v>1.036244468934612</v>
+        <v>1.01140321999759</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016559236966662</v>
+        <v>1.005145233007578</v>
       </c>
       <c r="D6">
-        <v>1.033082397538395</v>
+        <v>1.026165084619923</v>
       </c>
       <c r="E6">
-        <v>1.019653338778134</v>
+        <v>1.010153728946426</v>
       </c>
       <c r="F6">
-        <v>1.035630650999621</v>
+        <v>1.028553366047176</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047008512499541</v>
+        <v>1.048806934528076</v>
       </c>
       <c r="J6">
-        <v>1.035030111527336</v>
+        <v>1.023890696386507</v>
       </c>
       <c r="K6">
-        <v>1.04254617762544</v>
+        <v>1.035704278816256</v>
       </c>
       <c r="L6">
-        <v>1.029264675833298</v>
+        <v>1.019872368605938</v>
       </c>
       <c r="M6">
-        <v>1.045066960675802</v>
+        <v>1.038066381900941</v>
       </c>
       <c r="N6">
-        <v>1.036499973005318</v>
+        <v>1.011469451339591</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014225799948973</v>
+        <v>1.00324796135731</v>
       </c>
       <c r="D7">
-        <v>1.031224369500151</v>
+        <v>1.024641633729618</v>
       </c>
       <c r="E7">
-        <v>1.01769603916327</v>
+        <v>1.008594325854221</v>
       </c>
       <c r="F7">
-        <v>1.033473348179393</v>
+        <v>1.026735526249179</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04628802231632</v>
+        <v>1.04819551472561</v>
       </c>
       <c r="J7">
-        <v>1.033266517881918</v>
+        <v>1.022562886870199</v>
       </c>
       <c r="K7">
-        <v>1.040957121737925</v>
+        <v>1.034448576626294</v>
       </c>
       <c r="L7">
-        <v>1.027582547472575</v>
+        <v>1.01858715286921</v>
       </c>
       <c r="M7">
-        <v>1.043181019826075</v>
+        <v>1.036518742806395</v>
       </c>
       <c r="N7">
-        <v>1.034733874854636</v>
+        <v>1.011011858740336</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00416732464805</v>
+        <v>0.9951038361227234</v>
       </c>
       <c r="D8">
-        <v>1.02322023606421</v>
+        <v>1.018103281366098</v>
       </c>
       <c r="E8">
-        <v>1.009270758202983</v>
+        <v>1.001913650709481</v>
       </c>
       <c r="F8">
-        <v>1.024189128809973</v>
+        <v>1.018941864102537</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043155341711495</v>
+        <v>1.045537594417739</v>
       </c>
       <c r="J8">
-        <v>1.025655328458045</v>
+        <v>1.01685502532382</v>
       </c>
       <c r="K8">
-        <v>1.034094598842418</v>
+        <v>1.029043491090972</v>
       </c>
       <c r="L8">
-        <v>1.020326598622249</v>
+        <v>1.013067762627645</v>
       </c>
       <c r="M8">
-        <v>1.035051116069339</v>
+        <v>1.02987122593256</v>
       </c>
       <c r="N8">
-        <v>1.027111876668766</v>
+        <v>1.009043130221763</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9851354312741214</v>
+        <v>0.979856903413478</v>
       </c>
       <c r="D9">
-        <v>1.00810408740501</v>
+        <v>1.005873550017504</v>
       </c>
       <c r="E9">
-        <v>0.9933829003647787</v>
+        <v>0.9894629535585969</v>
       </c>
       <c r="F9">
-        <v>1.006688882314401</v>
+        <v>1.004393101745248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037128210155737</v>
+        <v>1.040437259891414</v>
       </c>
       <c r="J9">
-        <v>1.011224240641726</v>
+        <v>1.006141582778682</v>
       </c>
       <c r="K9">
-        <v>1.021067035696755</v>
+        <v>1.018872046363935</v>
       </c>
       <c r="L9">
-        <v>1.006584255532151</v>
+        <v>1.00272933214592</v>
       </c>
       <c r="M9">
-        <v>1.019674361304912</v>
+        <v>1.017415303784644</v>
       </c>
       <c r="N9">
-        <v>1.012660295052478</v>
+        <v>1.005342295034398</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9713940471261859</v>
+        <v>0.9689939743313117</v>
       </c>
       <c r="D10">
-        <v>0.9972195052466863</v>
+        <v>0.9971747155387003</v>
       </c>
       <c r="E10">
-        <v>0.9819570554553851</v>
+        <v>0.9806367162525038</v>
       </c>
       <c r="F10">
-        <v>0.9941081423667242</v>
+        <v>0.9940619137500005</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032713871157591</v>
+        <v>1.036723639926891</v>
       </c>
       <c r="J10">
-        <v>1.000790460851112</v>
+        <v>0.9984941687811536</v>
       </c>
       <c r="K10">
-        <v>1.011639144518256</v>
+        <v>1.011595169428351</v>
       </c>
       <c r="L10">
-        <v>0.996659905898683</v>
+        <v>0.9953646088167761</v>
       </c>
       <c r="M10">
-        <v>1.008584597258933</v>
+        <v>1.008539216300807</v>
       </c>
       <c r="N10">
-        <v>1.002211698097791</v>
+        <v>1.002697650071793</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9651475626681822</v>
+        <v>0.9641000676172322</v>
       </c>
       <c r="D11">
-        <v>0.9922812860687562</v>
+        <v>0.9932609345740572</v>
       </c>
       <c r="E11">
-        <v>0.976776258204589</v>
+        <v>0.9766724530499099</v>
       </c>
       <c r="F11">
-        <v>0.9884047145586177</v>
+        <v>0.9894171552435289</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030693734978554</v>
+        <v>1.035032811106721</v>
       </c>
       <c r="J11">
-        <v>0.9960457242661588</v>
+        <v>0.9950465321268896</v>
       </c>
       <c r="K11">
-        <v>1.007350248970826</v>
+        <v>1.008311068745449</v>
       </c>
       <c r="L11">
-        <v>0.9921498445045563</v>
+        <v>0.9920481216749737</v>
       </c>
       <c r="M11">
-        <v>1.003548664698819</v>
+        <v>1.004541446725253</v>
       </c>
       <c r="N11">
-        <v>0.9974602234426582</v>
+        <v>1.001504894398291</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9627781601712827</v>
+        <v>0.9622513151474741</v>
       </c>
       <c r="D12">
-        <v>0.9904098346230046</v>
+        <v>0.9917833808578508</v>
       </c>
       <c r="E12">
-        <v>0.9748132826157164</v>
+        <v>0.9751768479045636</v>
       </c>
       <c r="F12">
-        <v>0.986243865540065</v>
+        <v>0.9876641002085653</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029925570041339</v>
+        <v>1.034391507987109</v>
       </c>
       <c r="J12">
-        <v>0.9942458455526286</v>
+        <v>0.9937438759567054</v>
       </c>
       <c r="K12">
-        <v>1.005723102676085</v>
+        <v>1.007069709703621</v>
       </c>
       <c r="L12">
-        <v>0.990439469158003</v>
+        <v>0.99079558983867</v>
       </c>
       <c r="M12">
-        <v>1.001639443506589</v>
+        <v>1.003031515133257</v>
       </c>
       <c r="N12">
-        <v>0.995657788694906</v>
+        <v>1.001054169154848</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9632887127319865</v>
+        <v>0.9626493196804765</v>
       </c>
       <c r="D13">
-        <v>0.9908130087576191</v>
+        <v>0.9921014274598731</v>
       </c>
       <c r="E13">
-        <v>0.9752361565521603</v>
+        <v>0.9754987349964596</v>
       </c>
       <c r="F13">
-        <v>0.986709359758371</v>
+        <v>0.9880414291741088</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030091175175545</v>
+        <v>1.034529683479826</v>
       </c>
       <c r="J13">
-        <v>0.9946336811641721</v>
+        <v>0.994024325213831</v>
       </c>
       <c r="K13">
-        <v>1.006073725694886</v>
+        <v>1.007336983979336</v>
       </c>
       <c r="L13">
-        <v>0.9908079964908997</v>
+        <v>0.9910652218041137</v>
       </c>
       <c r="M13">
-        <v>1.002050788634082</v>
+        <v>1.00335656195566</v>
       </c>
       <c r="N13">
-        <v>0.9960461750775029</v>
+        <v>1.001151208055752</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9649527397140787</v>
+        <v>0.9639478948908088</v>
       </c>
       <c r="D14">
-        <v>0.9921273708126743</v>
+        <v>0.9931392955252012</v>
       </c>
       <c r="E14">
-        <v>0.9766148076804743</v>
+        <v>0.9765493076110119</v>
       </c>
       <c r="F14">
-        <v>0.9882269863987504</v>
+        <v>0.989272826626187</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030630610486575</v>
+        <v>1.034980076184554</v>
       </c>
       <c r="J14">
-        <v>0.9958977315099421</v>
+        <v>0.9949393137319835</v>
       </c>
       <c r="K14">
-        <v>1.007216462402468</v>
+        <v>1.008208905369526</v>
       </c>
       <c r="L14">
-        <v>0.9920092011230394</v>
+        <v>0.9919450172227836</v>
       </c>
       <c r="M14">
-        <v>1.003391658366516</v>
+        <v>1.004417155978873</v>
       </c>
       <c r="N14">
-        <v>0.9973120205197528</v>
+        <v>1.001467797305356</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9659713340911428</v>
+        <v>0.96474381520404</v>
       </c>
       <c r="D15">
-        <v>0.9929321578882377</v>
+        <v>0.9937755525367127</v>
       </c>
       <c r="E15">
-        <v>0.9774590111626312</v>
+        <v>0.9771934849334968</v>
       </c>
       <c r="F15">
-        <v>0.9891563094805813</v>
+        <v>0.9900277843292099</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030960568807501</v>
+        <v>1.035255795890719</v>
       </c>
       <c r="J15">
-        <v>0.9966714794651669</v>
+        <v>0.9955000962853646</v>
       </c>
       <c r="K15">
-        <v>1.00791592910359</v>
+        <v>1.008743228886909</v>
       </c>
       <c r="L15">
-        <v>0.9927445441861305</v>
+        <v>0.9924843059919632</v>
       </c>
       <c r="M15">
-        <v>1.004212577666907</v>
+        <v>1.00506725575356</v>
       </c>
       <c r="N15">
-        <v>0.9980868672858241</v>
+        <v>1.001661823519847</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9718019793534157</v>
+        <v>0.9693145638762692</v>
       </c>
       <c r="D16">
-        <v>0.9975422197412491</v>
+        <v>0.9974312197249277</v>
       </c>
       <c r="E16">
-        <v>0.982295680823387</v>
+        <v>0.9808966691589892</v>
       </c>
       <c r="F16">
-        <v>0.994480948495019</v>
+        <v>0.9943663921766428</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032845530305132</v>
+        <v>1.03683404257469</v>
       </c>
       <c r="J16">
-        <v>1.00110029539173</v>
+        <v>0.9987199753520379</v>
       </c>
       <c r="K16">
-        <v>1.011919183721122</v>
+        <v>1.011810195069432</v>
       </c>
       <c r="L16">
-        <v>0.9969544805222497</v>
+        <v>0.9955819035742637</v>
       </c>
       <c r="M16">
-        <v>1.008913598160686</v>
+        <v>1.008801134329378</v>
       </c>
       <c r="N16">
-        <v>1.002521972638995</v>
+        <v>1.002775762340946</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9753769600683159</v>
+        <v>0.9721291663785383</v>
       </c>
       <c r="D17">
-        <v>1.000371492767838</v>
+        <v>0.9996837905031779</v>
       </c>
       <c r="E17">
-        <v>0.9852647782087878</v>
+        <v>0.9831802977193805</v>
       </c>
       <c r="F17">
-        <v>0.9977498612460439</v>
+        <v>0.9970406477870912</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033997842983666</v>
+        <v>1.037801317911725</v>
       </c>
       <c r="J17">
-        <v>1.003815394390186</v>
+        <v>1.000702178203894</v>
       </c>
       <c r="K17">
-        <v>1.014373011504127</v>
+        <v>1.013697366289808</v>
       </c>
       <c r="L17">
-        <v>0.9995361980514389</v>
+        <v>0.9974898075544451</v>
       </c>
       <c r="M17">
-        <v>1.011797458907848</v>
+        <v>1.011100764895951</v>
       </c>
       <c r="N17">
-        <v>1.005240927389454</v>
+        <v>1.003461404175425</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9774339374265349</v>
+        <v>0.973752699034359</v>
       </c>
       <c r="D18">
-        <v>1.002000288633772</v>
+        <v>1.000983604990664</v>
       </c>
       <c r="E18">
-        <v>0.9869743533269845</v>
+        <v>0.9844986799182323</v>
       </c>
       <c r="F18">
-        <v>0.9996321640834503</v>
+        <v>0.9985841189475757</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034659588845986</v>
+        <v>1.038357582938816</v>
       </c>
       <c r="J18">
-        <v>1.005377431721527</v>
+        <v>1.001845332213406</v>
       </c>
       <c r="K18">
-        <v>1.015784583587653</v>
+        <v>1.014785381703376</v>
       </c>
       <c r="L18">
-        <v>1.001021779256299</v>
+        <v>0.9985904607695193</v>
       </c>
       <c r="M18">
-        <v>1.013457249876512</v>
+        <v>1.012427337180959</v>
       </c>
       <c r="N18">
-        <v>1.006805182992975</v>
+        <v>1.003856772788385</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9781306527793959</v>
+        <v>0.9743032661277955</v>
       </c>
       <c r="D19">
-        <v>1.002552118426813</v>
+        <v>1.001424469915074</v>
       </c>
       <c r="E19">
-        <v>0.9875536000314514</v>
+        <v>0.9849459527620181</v>
       </c>
       <c r="F19">
-        <v>1.000269951925332</v>
+        <v>0.9991076836711987</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034883507931913</v>
+        <v>1.038545933116287</v>
       </c>
       <c r="J19">
-        <v>1.005906471950184</v>
+        <v>1.002232953065157</v>
       </c>
       <c r="K19">
-        <v>1.016262636157366</v>
+        <v>1.015154248694386</v>
       </c>
       <c r="L19">
-        <v>1.001524971618988</v>
+        <v>0.9989637290900866</v>
       </c>
       <c r="M19">
-        <v>1.014019508854326</v>
+        <v>1.012877211215399</v>
       </c>
       <c r="N19">
-        <v>1.007334974519438</v>
+        <v>1.003990825903777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9749963518385578</v>
+        <v>0.9718290825924917</v>
       </c>
       <c r="D20">
-        <v>1.000070182168453</v>
+        <v>0.9994435781892449</v>
       </c>
       <c r="E20">
-        <v>0.9849485475043374</v>
+        <v>0.9829367064477152</v>
       </c>
       <c r="F20">
-        <v>0.9974016879449025</v>
+        <v>0.9967554335294189</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033875294190134</v>
+        <v>1.037698364291659</v>
       </c>
       <c r="J20">
-        <v>1.003526350656233</v>
+        <v>1.000490865364981</v>
       </c>
       <c r="K20">
-        <v>1.014111797619713</v>
+        <v>1.013496218665035</v>
       </c>
       <c r="L20">
-        <v>0.9992613244989252</v>
+        <v>0.9972863791010885</v>
       </c>
       <c r="M20">
-        <v>1.011490379924447</v>
+        <v>1.010855575665456</v>
       </c>
       <c r="N20">
-        <v>1.004951473180246</v>
+        <v>1.003388316056727</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9644641236418</v>
+        <v>0.9635663712017323</v>
       </c>
       <c r="D21">
-        <v>0.9917413795570994</v>
+        <v>0.9928343408274641</v>
       </c>
       <c r="E21">
-        <v>0.9762099257329384</v>
+        <v>0.9762405924535346</v>
       </c>
       <c r="F21">
-        <v>0.9877812861308145</v>
+        <v>0.9889109953623019</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030472264319586</v>
+        <v>1.034847819608165</v>
       </c>
       <c r="J21">
-        <v>0.9955265643001139</v>
+        <v>0.9946704946721067</v>
       </c>
       <c r="K21">
-        <v>1.006880921616939</v>
+        <v>1.007952752489203</v>
       </c>
       <c r="L21">
-        <v>0.9916564740493814</v>
+        <v>0.9916865219144851</v>
       </c>
       <c r="M21">
-        <v>1.002997903220057</v>
+        <v>1.004105542454994</v>
       </c>
       <c r="N21">
-        <v>0.9969403262099131</v>
+        <v>1.001374786290775</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9575547224174646</v>
+        <v>0.9581909091647188</v>
       </c>
       <c r="D22">
-        <v>0.9862876057035368</v>
+        <v>0.9885401647378436</v>
       </c>
       <c r="E22">
-        <v>0.9704901529149096</v>
+        <v>0.9718958405697357</v>
       </c>
       <c r="F22">
-        <v>0.9814852191315251</v>
+        <v>0.9838169453040705</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028228792920897</v>
+        <v>1.032978415721428</v>
       </c>
       <c r="J22">
-        <v>0.9902779211150141</v>
+        <v>0.9908825060098916</v>
       </c>
       <c r="K22">
-        <v>1.002135691554219</v>
+        <v>1.004342113647702</v>
       </c>
       <c r="L22">
-        <v>0.9866697830896825</v>
+        <v>0.9880453903013019</v>
       </c>
       <c r="M22">
-        <v>0.9974326018201491</v>
+        <v>0.9997159560485813</v>
       </c>
       <c r="N22">
-        <v>0.9916842293494624</v>
+        <v>1.000064044042514</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9612465060211317</v>
+        <v>0.9610585009052134</v>
       </c>
       <c r="D23">
-        <v>0.9892005861096363</v>
+        <v>0.99083035073597</v>
       </c>
       <c r="E23">
-        <v>0.9735450041024092</v>
+        <v>0.9742124556435025</v>
       </c>
       <c r="F23">
-        <v>0.9848477820439984</v>
+        <v>0.986533492885227</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02942848983873</v>
+        <v>1.033977030666762</v>
       </c>
       <c r="J23">
-        <v>0.9930823375172231</v>
+        <v>0.9929033440223451</v>
       </c>
       <c r="K23">
-        <v>1.004671209327684</v>
+        <v>1.006268594847443</v>
       </c>
       <c r="L23">
-        <v>0.9893339589655467</v>
+        <v>0.9899875631381828</v>
       </c>
       <c r="M23">
-        <v>1.000405575545956</v>
+        <v>1.00205740785806</v>
       </c>
       <c r="N23">
-        <v>0.9944926283446339</v>
+        <v>1.000763328353138</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9751684192664369</v>
+        <v>0.9719647335367962</v>
       </c>
       <c r="D24">
-        <v>1.000206397563028</v>
+        <v>0.9995521631550851</v>
       </c>
       <c r="E24">
-        <v>0.9850915070424221</v>
+        <v>0.9830468168213513</v>
       </c>
       <c r="F24">
-        <v>0.9975590875837288</v>
+        <v>0.9968843600333148</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033930700679426</v>
+        <v>1.037744909047681</v>
       </c>
       <c r="J24">
-        <v>1.003657023682453</v>
+        <v>1.000586388694937</v>
       </c>
       <c r="K24">
-        <v>1.014229889598081</v>
+        <v>1.013587147877216</v>
       </c>
       <c r="L24">
-        <v>0.999385590495881</v>
+        <v>0.9973783372387868</v>
       </c>
       <c r="M24">
-        <v>1.01162920440416</v>
+        <v>1.010966411615229</v>
       </c>
       <c r="N24">
-        <v>1.005082331777152</v>
+        <v>1.003421355467573</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.990227219799939</v>
+        <v>0.9839140768945901</v>
       </c>
       <c r="D25">
-        <v>1.01214401063713</v>
+        <v>1.009125914705076</v>
       </c>
       <c r="E25">
-        <v>0.9976264916317646</v>
+        <v>0.9927689229889221</v>
       </c>
       <c r="F25">
-        <v>1.011362319976372</v>
+        <v>1.008259068212112</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038751741174874</v>
+        <v>1.041808428071325</v>
       </c>
       <c r="J25">
-        <v>1.015088013210996</v>
+        <v>1.008995194040574</v>
       </c>
       <c r="K25">
-        <v>1.02455668677135</v>
+        <v>1.021584195369159</v>
       </c>
       <c r="L25">
-        <v>1.010261765341771</v>
+        <v>1.005480538955813</v>
       </c>
       <c r="M25">
-        <v>1.023786774479152</v>
+        <v>1.020730511570946</v>
       </c>
       <c r="N25">
-        <v>1.016529554621978</v>
+        <v>1.006328607593262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9929496149403693</v>
+        <v>1.031784646204243</v>
       </c>
       <c r="D2">
-        <v>1.01637430404339</v>
+        <v>1.040412556733572</v>
       </c>
       <c r="E2">
-        <v>1.000150063100188</v>
+        <v>1.031289603000241</v>
       </c>
       <c r="F2">
-        <v>1.016882938299106</v>
+        <v>1.04911141044257</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044826167991161</v>
+        <v>1.034964561482491</v>
       </c>
       <c r="J2">
-        <v>1.015343266357686</v>
+        <v>1.036918463248109</v>
       </c>
       <c r="K2">
-        <v>1.027610136455226</v>
+        <v>1.04319497772573</v>
       </c>
       <c r="L2">
-        <v>1.011607307701183</v>
+        <v>1.034098150403867</v>
       </c>
       <c r="M2">
-        <v>1.028111972851426</v>
+        <v>1.05186937860424</v>
       </c>
       <c r="N2">
-        <v>1.008521302084549</v>
+        <v>1.016201752684047</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9992548557216164</v>
+        <v>1.033058459206594</v>
       </c>
       <c r="D3">
-        <v>1.021435546921701</v>
+        <v>1.041440843722762</v>
       </c>
       <c r="E3">
-        <v>1.005316106902279</v>
+        <v>1.032380963537051</v>
       </c>
       <c r="F3">
-        <v>1.022912323544432</v>
+        <v>1.050377505917677</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046898833524853</v>
+        <v>1.035273435708588</v>
       </c>
       <c r="J3">
-        <v>1.01976585475386</v>
+        <v>1.037832647183524</v>
       </c>
       <c r="K3">
-        <v>1.031801309986271</v>
+        <v>1.044033109662297</v>
       </c>
       <c r="L3">
-        <v>1.015881416055321</v>
+        <v>1.034997285372889</v>
       </c>
       <c r="M3">
-        <v>1.033260195871458</v>
+        <v>1.052946482001031</v>
       </c>
       <c r="N3">
-        <v>1.010047438224025</v>
+        <v>1.016511713292018</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003225889987056</v>
+        <v>1.033882029603688</v>
       </c>
       <c r="D4">
-        <v>1.024623911429043</v>
+        <v>1.042105272459885</v>
       </c>
       <c r="E4">
-        <v>1.008576191829278</v>
+        <v>1.033086890060353</v>
       </c>
       <c r="F4">
-        <v>1.026714383827781</v>
+        <v>1.051196240970176</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0481883837451</v>
+        <v>1.035471155117469</v>
       </c>
       <c r="J4">
-        <v>1.022547435591874</v>
+        <v>1.038423056106821</v>
       </c>
       <c r="K4">
-        <v>1.034433960494817</v>
+        <v>1.04457389496843</v>
       </c>
       <c r="L4">
-        <v>1.018572200118013</v>
+        <v>1.03557824410615</v>
       </c>
       <c r="M4">
-        <v>1.03650073629143</v>
+        <v>1.053642373762224</v>
       </c>
       <c r="N4">
-        <v>1.011006532948328</v>
+        <v>1.016711712602484</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004870512774543</v>
+        <v>1.0342281010141</v>
       </c>
       <c r="D5">
-        <v>1.025944489775041</v>
+        <v>1.042384374643964</v>
       </c>
       <c r="E5">
-        <v>1.009927859085756</v>
+        <v>1.033383602072278</v>
       </c>
       <c r="F5">
-        <v>1.028290095816481</v>
+        <v>1.051540316805171</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048718596040472</v>
+        <v>1.035553764025422</v>
       </c>
       <c r="J5">
-        <v>1.023698481870283</v>
+        <v>1.038670995666385</v>
       </c>
       <c r="K5">
-        <v>1.035522544567926</v>
+        <v>1.044800873609393</v>
       </c>
       <c r="L5">
-        <v>1.019686289501007</v>
+        <v>1.035822279470993</v>
       </c>
       <c r="M5">
-        <v>1.037842314563779</v>
+        <v>1.05393467360193</v>
       </c>
       <c r="N5">
-        <v>1.01140321999759</v>
+        <v>1.016795657426167</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005145233007578</v>
+        <v>1.034286198779911</v>
       </c>
       <c r="D6">
-        <v>1.026165084619923</v>
+        <v>1.042431224065124</v>
       </c>
       <c r="E6">
-        <v>1.010153728946426</v>
+        <v>1.033433417892446</v>
       </c>
       <c r="F6">
-        <v>1.028553366047176</v>
+        <v>1.051598081665723</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048806934528076</v>
+        <v>1.035567604400639</v>
       </c>
       <c r="J6">
-        <v>1.023890696386507</v>
+        <v>1.038712610130574</v>
       </c>
       <c r="K6">
-        <v>1.035704278816256</v>
+        <v>1.044838962820044</v>
       </c>
       <c r="L6">
-        <v>1.019872368605938</v>
+        <v>1.035863242425582</v>
       </c>
       <c r="M6">
-        <v>1.038066381900941</v>
+        <v>1.053983737255026</v>
       </c>
       <c r="N6">
-        <v>1.011469451339591</v>
+        <v>1.016809744238952</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00324796135731</v>
+        <v>1.033886654441986</v>
       </c>
       <c r="D7">
-        <v>1.024641633729618</v>
+        <v>1.042109002713552</v>
       </c>
       <c r="E7">
-        <v>1.008594325854221</v>
+        <v>1.033090854972142</v>
       </c>
       <c r="F7">
-        <v>1.026735526249179</v>
+        <v>1.051200838998221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04819551472561</v>
+        <v>1.035472260954037</v>
       </c>
       <c r="J7">
-        <v>1.022562886870199</v>
+        <v>1.038426370139343</v>
       </c>
       <c r="K7">
-        <v>1.034448576626294</v>
+        <v>1.044576929310111</v>
       </c>
       <c r="L7">
-        <v>1.01858715286921</v>
+        <v>1.035581505701022</v>
       </c>
       <c r="M7">
-        <v>1.036518742806395</v>
+        <v>1.053646280478639</v>
       </c>
       <c r="N7">
-        <v>1.011011858740336</v>
+        <v>1.016712834806598</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9951038361227234</v>
+        <v>1.03221527832803</v>
       </c>
       <c r="D8">
-        <v>1.018103281366098</v>
+        <v>1.040760267203846</v>
       </c>
       <c r="E8">
-        <v>1.001913650709481</v>
+        <v>1.03165848774321</v>
       </c>
       <c r="F8">
-        <v>1.018941864102537</v>
+        <v>1.049539401158905</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045537594417739</v>
+        <v>1.035069391078488</v>
       </c>
       <c r="J8">
-        <v>1.01685502532382</v>
+        <v>1.037227650998253</v>
       </c>
       <c r="K8">
-        <v>1.029043491090972</v>
+        <v>1.04347854865609</v>
       </c>
       <c r="L8">
-        <v>1.013067762627645</v>
+        <v>1.034402192658941</v>
       </c>
       <c r="M8">
-        <v>1.02987122593256</v>
+        <v>1.052233612815217</v>
       </c>
       <c r="N8">
-        <v>1.009043130221763</v>
+        <v>1.016306622863393</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.979856903413478</v>
+        <v>1.029264809039896</v>
       </c>
       <c r="D9">
-        <v>1.005873550017504</v>
+        <v>1.038376329421052</v>
       </c>
       <c r="E9">
-        <v>0.9894629535585969</v>
+        <v>1.029132418923966</v>
       </c>
       <c r="F9">
-        <v>1.004393101745248</v>
+        <v>1.046607689575604</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040437259891414</v>
+        <v>1.034343040084748</v>
       </c>
       <c r="J9">
-        <v>1.006141582778682</v>
+        <v>1.035106616685157</v>
       </c>
       <c r="K9">
-        <v>1.018872046363935</v>
+        <v>1.041531174743272</v>
       </c>
       <c r="L9">
-        <v>1.00272933214592</v>
+        <v>1.032317563598345</v>
       </c>
       <c r="M9">
-        <v>1.017415303784644</v>
+        <v>1.049736047611579</v>
       </c>
       <c r="N9">
-        <v>1.005342295034398</v>
+        <v>1.015586464119158</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9689939743313117</v>
+        <v>1.027294065652775</v>
       </c>
       <c r="D10">
-        <v>0.9971747155387003</v>
+        <v>1.036782017040464</v>
       </c>
       <c r="E10">
-        <v>0.9806367162525038</v>
+        <v>1.027446864940914</v>
       </c>
       <c r="F10">
-        <v>0.9940619137500005</v>
+        <v>1.044650332442429</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036723639926891</v>
+        <v>1.03384770550806</v>
       </c>
       <c r="J10">
-        <v>0.9984941687811536</v>
+        <v>1.033686590967987</v>
       </c>
       <c r="K10">
-        <v>1.011595169428351</v>
+        <v>1.040224823884992</v>
       </c>
       <c r="L10">
-        <v>0.9953646088167761</v>
+        <v>1.030923303807909</v>
       </c>
       <c r="M10">
-        <v>1.008539216300807</v>
+        <v>1.048065306455673</v>
       </c>
       <c r="N10">
-        <v>1.002697650071793</v>
+        <v>1.015103387114209</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9641000676172322</v>
+        <v>1.026439772568014</v>
       </c>
       <c r="D11">
-        <v>0.9932609345740572</v>
+        <v>1.036090444372625</v>
       </c>
       <c r="E11">
-        <v>0.9766724530499099</v>
+        <v>1.02671661473893</v>
       </c>
       <c r="F11">
-        <v>0.9894171552435289</v>
+        <v>1.043802054287517</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035032811106721</v>
+        <v>1.033630576519371</v>
       </c>
       <c r="J11">
-        <v>0.9950465321268896</v>
+        <v>1.033070251106567</v>
       </c>
       <c r="K11">
-        <v>1.008311068745449</v>
+        <v>1.039657212668003</v>
       </c>
       <c r="L11">
-        <v>0.9920481216749737</v>
+        <v>1.030318478007408</v>
       </c>
       <c r="M11">
-        <v>1.004541446725253</v>
+        <v>1.047340473282327</v>
       </c>
       <c r="N11">
-        <v>1.001504894398291</v>
+        <v>1.014893495769226</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9622513151474741</v>
+        <v>1.026122303501205</v>
       </c>
       <c r="D12">
-        <v>0.9917833808578508</v>
+        <v>1.035833377020443</v>
       </c>
       <c r="E12">
-        <v>0.9751768479045636</v>
+        <v>1.02644530547663</v>
       </c>
       <c r="F12">
-        <v>0.9876641002085653</v>
+        <v>1.043486853079739</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034391507987109</v>
+        <v>1.033549526622182</v>
       </c>
       <c r="J12">
-        <v>0.9937438759567054</v>
+        <v>1.032841093166178</v>
       </c>
       <c r="K12">
-        <v>1.007069709703621</v>
+        <v>1.039446080928818</v>
       </c>
       <c r="L12">
-        <v>0.99079558983867</v>
+        <v>1.030093650784018</v>
       </c>
       <c r="M12">
-        <v>1.003031515133257</v>
+        <v>1.047071026044278</v>
       </c>
       <c r="N12">
-        <v>1.001054169154848</v>
+        <v>1.014815424423932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9626493196804765</v>
+        <v>1.026190408393092</v>
       </c>
       <c r="D13">
-        <v>0.9921014274598731</v>
+        <v>1.035888527317831</v>
       </c>
       <c r="E13">
-        <v>0.9754987349964596</v>
+        <v>1.026503505073901</v>
       </c>
       <c r="F13">
-        <v>0.9880414291741088</v>
+        <v>1.043554469972686</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034529683479826</v>
+        <v>1.033566930150681</v>
       </c>
       <c r="J13">
-        <v>0.994024325213831</v>
+        <v>1.032890258404811</v>
       </c>
       <c r="K13">
-        <v>1.007336983979336</v>
+        <v>1.039491382819856</v>
       </c>
       <c r="L13">
-        <v>0.9910652218041137</v>
+        <v>1.030141884627482</v>
       </c>
       <c r="M13">
-        <v>1.00335656195566</v>
+        <v>1.047128833028447</v>
       </c>
       <c r="N13">
-        <v>1.001151208055752</v>
+        <v>1.014832175908868</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9639478948908088</v>
+        <v>1.026413533489982</v>
       </c>
       <c r="D14">
-        <v>0.9931392955252012</v>
+        <v>1.036069198923278</v>
       </c>
       <c r="E14">
-        <v>0.9765493076110119</v>
+        <v>1.026694189506933</v>
       </c>
       <c r="F14">
-        <v>0.989272826626187</v>
+        <v>1.043776001980394</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034980076184554</v>
+        <v>1.033623885045246</v>
       </c>
       <c r="J14">
-        <v>0.9949393137319835</v>
+        <v>1.033051313381106</v>
       </c>
       <c r="K14">
-        <v>1.008208905369526</v>
+        <v>1.039639766497294</v>
       </c>
       <c r="L14">
-        <v>0.9919450172227836</v>
+        <v>1.030299897159965</v>
       </c>
       <c r="M14">
-        <v>1.004417155978873</v>
+        <v>1.047318205029666</v>
       </c>
       <c r="N14">
-        <v>1.001467797305356</v>
+        <v>1.014887044582579</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.96474381520404</v>
+        <v>1.026550988679564</v>
       </c>
       <c r="D15">
-        <v>0.9937755525367127</v>
+        <v>1.03618049187955</v>
       </c>
       <c r="E15">
-        <v>0.9771934849334968</v>
+        <v>1.026811668209345</v>
       </c>
       <c r="F15">
-        <v>0.9900277843292099</v>
+        <v>1.043912480097671</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035255795890719</v>
+        <v>1.033658923996808</v>
       </c>
       <c r="J15">
-        <v>0.9955000962853646</v>
+        <v>1.03315051518838</v>
       </c>
       <c r="K15">
-        <v>1.008743228886909</v>
+        <v>1.039731151331451</v>
       </c>
       <c r="L15">
-        <v>0.9924843059919632</v>
+        <v>1.030397231563413</v>
       </c>
       <c r="M15">
-        <v>1.00506725575356</v>
+        <v>1.047434855200291</v>
       </c>
       <c r="N15">
-        <v>1.001661823519847</v>
+        <v>1.014920836600975</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9693145638762692</v>
+        <v>1.027350741942562</v>
       </c>
       <c r="D16">
-        <v>0.9974312197249277</v>
+        <v>1.03682788842558</v>
       </c>
       <c r="E16">
-        <v>0.9808966691589892</v>
+        <v>1.027495320715011</v>
       </c>
       <c r="F16">
-        <v>0.9943663921766428</v>
+        <v>1.044706614215391</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03683404257469</v>
+        <v>1.033862059812654</v>
       </c>
       <c r="J16">
-        <v>0.9987199753520379</v>
+        <v>1.033727464444427</v>
       </c>
       <c r="K16">
-        <v>1.011810195069432</v>
+        <v>1.040262453036201</v>
       </c>
       <c r="L16">
-        <v>0.9955819035742637</v>
+        <v>1.030963420678676</v>
       </c>
       <c r="M16">
-        <v>1.008801134329378</v>
+        <v>1.048113381686927</v>
       </c>
       <c r="N16">
-        <v>1.002775762340946</v>
+        <v>1.015117301761008</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9721291663785383</v>
+        <v>1.027852149273102</v>
       </c>
       <c r="D17">
-        <v>0.9996837905031779</v>
+        <v>1.037233653517743</v>
       </c>
       <c r="E17">
-        <v>0.9831802977193805</v>
+        <v>1.027924050501159</v>
       </c>
       <c r="F17">
-        <v>0.9970406477870912</v>
+        <v>1.045204555896975</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037801317911725</v>
+        <v>1.033988772461863</v>
       </c>
       <c r="J17">
-        <v>1.000702178203894</v>
+        <v>1.034088976913559</v>
       </c>
       <c r="K17">
-        <v>1.013697366289808</v>
+        <v>1.040595200159292</v>
       </c>
       <c r="L17">
-        <v>0.9974898075544451</v>
+        <v>1.031318279388092</v>
       </c>
       <c r="M17">
-        <v>1.011100764895951</v>
+        <v>1.048538628907818</v>
       </c>
       <c r="N17">
-        <v>1.003461404175425</v>
+        <v>1.015240346950383</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.973752699034359</v>
+        <v>1.028144520479634</v>
       </c>
       <c r="D18">
-        <v>1.000983604990664</v>
+        <v>1.037470211414755</v>
       </c>
       <c r="E18">
-        <v>0.9844986799182323</v>
+        <v>1.028174083474398</v>
       </c>
       <c r="F18">
-        <v>0.9985841189475757</v>
+        <v>1.045494926686089</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038357582938816</v>
+        <v>1.034062426590105</v>
       </c>
       <c r="J18">
-        <v>1.001845332213406</v>
+        <v>1.034299700392893</v>
       </c>
       <c r="K18">
-        <v>1.014785381703376</v>
+        <v>1.040789097678697</v>
       </c>
       <c r="L18">
-        <v>0.9985904607695193</v>
+        <v>1.031525156296563</v>
       </c>
       <c r="M18">
-        <v>1.012427337180959</v>
+        <v>1.048786534382586</v>
       </c>
       <c r="N18">
-        <v>1.003856772788385</v>
+        <v>1.015312048117381</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9743032661277955</v>
+        <v>1.028244196159297</v>
       </c>
       <c r="D19">
-        <v>1.001424469915074</v>
+        <v>1.037550851600035</v>
       </c>
       <c r="E19">
-        <v>0.9849459527620181</v>
+        <v>1.028259331913453</v>
       </c>
       <c r="F19">
-        <v>0.9991076836711987</v>
+        <v>1.045593923818912</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038545933116287</v>
+        <v>1.03408749748561</v>
       </c>
       <c r="J19">
-        <v>1.002232953065157</v>
+        <v>1.034371527879534</v>
       </c>
       <c r="K19">
-        <v>1.015154248694386</v>
+        <v>1.040855179860621</v>
       </c>
       <c r="L19">
-        <v>0.9989637290900866</v>
+        <v>1.031595678039725</v>
       </c>
       <c r="M19">
-        <v>1.012877211215399</v>
+        <v>1.048871041095631</v>
       </c>
       <c r="N19">
-        <v>1.003990825903777</v>
+        <v>1.015336484681391</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9718290825924917</v>
+        <v>1.027798362476902</v>
       </c>
       <c r="D20">
-        <v>0.9994435781892449</v>
+        <v>1.037190130989228</v>
       </c>
       <c r="E20">
-        <v>0.9829367064477152</v>
+        <v>1.027878055788225</v>
       </c>
       <c r="F20">
-        <v>0.9967554335294189</v>
+        <v>1.04515113875025</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037698364291659</v>
+        <v>1.033975203799858</v>
       </c>
       <c r="J20">
-        <v>1.000490865364981</v>
+        <v>1.034050204612708</v>
       </c>
       <c r="K20">
-        <v>1.013496218665035</v>
+        <v>1.040559519030997</v>
       </c>
       <c r="L20">
-        <v>0.9972863791010885</v>
+        <v>1.031280217407313</v>
       </c>
       <c r="M20">
-        <v>1.010855575665456</v>
+        <v>1.04849301779155</v>
       </c>
       <c r="N20">
-        <v>1.003388316056727</v>
+        <v>1.015227152510327</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9635663712017323</v>
+        <v>1.026347832789677</v>
       </c>
       <c r="D21">
-        <v>0.9928343408274641</v>
+        <v>1.03601600080586</v>
       </c>
       <c r="E21">
-        <v>0.9762405924535346</v>
+        <v>1.02663803942166</v>
       </c>
       <c r="F21">
-        <v>0.9889109953623019</v>
+        <v>1.043710769469884</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034847819608165</v>
+        <v>1.033607124257754</v>
       </c>
       <c r="J21">
-        <v>0.9946704946721067</v>
+        <v>1.033003892850713</v>
       </c>
       <c r="K21">
-        <v>1.007952752489203</v>
+        <v>1.03959607938284</v>
       </c>
       <c r="L21">
-        <v>0.9916865219144851</v>
+        <v>1.030253371064337</v>
       </c>
       <c r="M21">
-        <v>1.004105542454994</v>
+        <v>1.047262445568892</v>
       </c>
       <c r="N21">
-        <v>1.001374786290775</v>
+        <v>1.014870890123391</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9581909091647188</v>
+        <v>1.02543497709304</v>
       </c>
       <c r="D22">
-        <v>0.9885401647378436</v>
+        <v>1.035276698467644</v>
       </c>
       <c r="E22">
-        <v>0.9718958405697357</v>
+        <v>1.025858032928189</v>
       </c>
       <c r="F22">
-        <v>0.9838169453040705</v>
+        <v>1.042804497088994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032978415721428</v>
+        <v>1.033373391797875</v>
       </c>
       <c r="J22">
-        <v>0.9908825060098916</v>
+        <v>1.032344750115945</v>
       </c>
       <c r="K22">
-        <v>1.004342113647702</v>
+        <v>1.038988614888167</v>
       </c>
       <c r="L22">
-        <v>0.9880453903013019</v>
+        <v>1.029606778861723</v>
       </c>
       <c r="M22">
-        <v>0.9997159560485813</v>
+        <v>1.046487508386858</v>
       </c>
       <c r="N22">
-        <v>1.000064044042514</v>
+        <v>1.014646266510011</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9610585009052134</v>
+        <v>1.025918981131673</v>
       </c>
       <c r="D23">
-        <v>0.99083035073597</v>
+        <v>1.035668719826848</v>
       </c>
       <c r="E23">
-        <v>0.9742124556435025</v>
+        <v>1.026271564027917</v>
       </c>
       <c r="F23">
-        <v>0.986533492885227</v>
+        <v>1.04328499242905</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033977030666762</v>
+        <v>1.033497516743808</v>
       </c>
       <c r="J23">
-        <v>0.9929033440223451</v>
+        <v>1.032694296833821</v>
       </c>
       <c r="K23">
-        <v>1.006268594847443</v>
+        <v>1.039310806334545</v>
       </c>
       <c r="L23">
-        <v>0.9899875631381828</v>
+        <v>1.029949642674593</v>
       </c>
       <c r="M23">
-        <v>1.00205740785806</v>
+        <v>1.046898434586097</v>
       </c>
       <c r="N23">
-        <v>1.000763328353138</v>
+        <v>1.014765403471421</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9719647335367962</v>
+        <v>1.02782266669652</v>
       </c>
       <c r="D24">
-        <v>0.9995521631550851</v>
+        <v>1.037209797311081</v>
       </c>
       <c r="E24">
-        <v>0.9830468168213513</v>
+        <v>1.027898838936116</v>
       </c>
       <c r="F24">
-        <v>0.9968843600333148</v>
+        <v>1.045175275876272</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037744909047681</v>
+        <v>1.033981335682727</v>
       </c>
       <c r="J24">
-        <v>1.000586388694937</v>
+        <v>1.034067724580971</v>
       </c>
       <c r="K24">
-        <v>1.013587147877216</v>
+        <v>1.040575642378603</v>
       </c>
       <c r="L24">
-        <v>0.9973783372387868</v>
+        <v>1.03129741630607</v>
       </c>
       <c r="M24">
-        <v>1.010966411615229</v>
+        <v>1.048513627905758</v>
       </c>
       <c r="N24">
-        <v>1.003421355467573</v>
+        <v>1.01523311472306</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9839140768945901</v>
+        <v>1.030028224276297</v>
       </c>
       <c r="D25">
-        <v>1.009125914705076</v>
+        <v>1.03899351074733</v>
       </c>
       <c r="E25">
-        <v>0.9927689229889221</v>
+        <v>1.029785724738314</v>
       </c>
       <c r="F25">
-        <v>1.008259068212112</v>
+        <v>1.047366103403679</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041808428071325</v>
+        <v>1.034532772410985</v>
       </c>
       <c r="J25">
-        <v>1.008995194040574</v>
+        <v>1.03565600350345</v>
       </c>
       <c r="K25">
-        <v>1.021584195369159</v>
+        <v>1.04203603744068</v>
       </c>
       <c r="L25">
-        <v>1.005480538955813</v>
+        <v>1.032857275917332</v>
       </c>
       <c r="M25">
-        <v>1.020730511570946</v>
+        <v>1.050382721911967</v>
       </c>
       <c r="N25">
-        <v>1.006328607593262</v>
+        <v>1.015773163242865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031784646204243</v>
+        <v>0.9929496149403693</v>
       </c>
       <c r="D2">
-        <v>1.040412556733572</v>
+        <v>1.01637430404339</v>
       </c>
       <c r="E2">
-        <v>1.031289603000241</v>
+        <v>1.000150063100188</v>
       </c>
       <c r="F2">
-        <v>1.04911141044257</v>
+        <v>1.016882938299106</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034964561482491</v>
+        <v>1.044826167991161</v>
       </c>
       <c r="J2">
-        <v>1.036918463248109</v>
+        <v>1.015343266357686</v>
       </c>
       <c r="K2">
-        <v>1.04319497772573</v>
+        <v>1.027610136455226</v>
       </c>
       <c r="L2">
-        <v>1.034098150403867</v>
+        <v>1.011607307701183</v>
       </c>
       <c r="M2">
-        <v>1.05186937860424</v>
+        <v>1.028111972851426</v>
       </c>
       <c r="N2">
-        <v>1.016201752684047</v>
+        <v>1.008521302084549</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033058459206594</v>
+        <v>0.9992548557216158</v>
       </c>
       <c r="D3">
-        <v>1.041440843722762</v>
+        <v>1.021435546921701</v>
       </c>
       <c r="E3">
-        <v>1.032380963537051</v>
+        <v>1.005316106902279</v>
       </c>
       <c r="F3">
-        <v>1.050377505917677</v>
+        <v>1.022912323544432</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035273435708588</v>
+        <v>1.046898833524853</v>
       </c>
       <c r="J3">
-        <v>1.037832647183524</v>
+        <v>1.019765854753859</v>
       </c>
       <c r="K3">
-        <v>1.044033109662297</v>
+        <v>1.03180130998627</v>
       </c>
       <c r="L3">
-        <v>1.034997285372889</v>
+        <v>1.01588141605532</v>
       </c>
       <c r="M3">
-        <v>1.052946482001031</v>
+        <v>1.033260195871458</v>
       </c>
       <c r="N3">
-        <v>1.016511713292018</v>
+        <v>1.010047438224025</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033882029603688</v>
+        <v>1.003225889987056</v>
       </c>
       <c r="D4">
-        <v>1.042105272459885</v>
+        <v>1.024623911429044</v>
       </c>
       <c r="E4">
-        <v>1.033086890060353</v>
+        <v>1.008576191829279</v>
       </c>
       <c r="F4">
-        <v>1.051196240970176</v>
+        <v>1.026714383827782</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035471155117469</v>
+        <v>1.0481883837451</v>
       </c>
       <c r="J4">
-        <v>1.038423056106821</v>
+        <v>1.022547435591875</v>
       </c>
       <c r="K4">
-        <v>1.04457389496843</v>
+        <v>1.034433960494818</v>
       </c>
       <c r="L4">
-        <v>1.03557824410615</v>
+        <v>1.018572200118013</v>
       </c>
       <c r="M4">
-        <v>1.053642373762224</v>
+        <v>1.036500736291431</v>
       </c>
       <c r="N4">
-        <v>1.016711712602484</v>
+        <v>1.011006532948329</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0342281010141</v>
+        <v>1.004870512774542</v>
       </c>
       <c r="D5">
-        <v>1.042384374643964</v>
+        <v>1.02594448977504</v>
       </c>
       <c r="E5">
-        <v>1.033383602072278</v>
+        <v>1.009927859085755</v>
       </c>
       <c r="F5">
-        <v>1.051540316805171</v>
+        <v>1.02829009581648</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035553764025422</v>
+        <v>1.048718596040472</v>
       </c>
       <c r="J5">
-        <v>1.038670995666385</v>
+        <v>1.023698481870283</v>
       </c>
       <c r="K5">
-        <v>1.044800873609393</v>
+        <v>1.035522544567925</v>
       </c>
       <c r="L5">
-        <v>1.035822279470993</v>
+        <v>1.019686289501006</v>
       </c>
       <c r="M5">
-        <v>1.05393467360193</v>
+        <v>1.037842314563779</v>
       </c>
       <c r="N5">
-        <v>1.016795657426167</v>
+        <v>1.01140321999759</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034286198779911</v>
+        <v>1.005145233007579</v>
       </c>
       <c r="D6">
-        <v>1.042431224065124</v>
+        <v>1.026165084619924</v>
       </c>
       <c r="E6">
-        <v>1.033433417892446</v>
+        <v>1.010153728946427</v>
       </c>
       <c r="F6">
-        <v>1.051598081665723</v>
+        <v>1.028553366047177</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035567604400639</v>
+        <v>1.048806934528076</v>
       </c>
       <c r="J6">
-        <v>1.038712610130574</v>
+        <v>1.023890696386507</v>
       </c>
       <c r="K6">
-        <v>1.044838962820044</v>
+        <v>1.035704278816256</v>
       </c>
       <c r="L6">
-        <v>1.035863242425582</v>
+        <v>1.019872368605938</v>
       </c>
       <c r="M6">
-        <v>1.053983737255026</v>
+        <v>1.038066381900941</v>
       </c>
       <c r="N6">
-        <v>1.016809744238952</v>
+        <v>1.011469451339591</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033886654441986</v>
+        <v>1.003247961357311</v>
       </c>
       <c r="D7">
-        <v>1.042109002713552</v>
+        <v>1.024641633729619</v>
       </c>
       <c r="E7">
-        <v>1.033090854972142</v>
+        <v>1.008594325854221</v>
       </c>
       <c r="F7">
-        <v>1.051200838998221</v>
+        <v>1.02673552624918</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035472260954037</v>
+        <v>1.048195514725611</v>
       </c>
       <c r="J7">
-        <v>1.038426370139343</v>
+        <v>1.0225628868702</v>
       </c>
       <c r="K7">
-        <v>1.044576929310111</v>
+        <v>1.034448576626295</v>
       </c>
       <c r="L7">
-        <v>1.035581505701022</v>
+        <v>1.018587152869211</v>
       </c>
       <c r="M7">
-        <v>1.053646280478639</v>
+        <v>1.036518742806396</v>
       </c>
       <c r="N7">
-        <v>1.016712834806598</v>
+        <v>1.011011858740336</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03221527832803</v>
+        <v>0.9951038361227238</v>
       </c>
       <c r="D8">
-        <v>1.040760267203846</v>
+        <v>1.018103281366098</v>
       </c>
       <c r="E8">
-        <v>1.03165848774321</v>
+        <v>1.001913650709482</v>
       </c>
       <c r="F8">
-        <v>1.049539401158905</v>
+        <v>1.018941864102536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035069391078488</v>
+        <v>1.045537594417739</v>
       </c>
       <c r="J8">
-        <v>1.037227650998253</v>
+        <v>1.01685502532382</v>
       </c>
       <c r="K8">
-        <v>1.04347854865609</v>
+        <v>1.029043491090972</v>
       </c>
       <c r="L8">
-        <v>1.034402192658941</v>
+        <v>1.013067762627645</v>
       </c>
       <c r="M8">
-        <v>1.052233612815217</v>
+        <v>1.02987122593256</v>
       </c>
       <c r="N8">
-        <v>1.016306622863393</v>
+        <v>1.009043130221763</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029264809039896</v>
+        <v>0.9798569034134768</v>
       </c>
       <c r="D9">
-        <v>1.038376329421052</v>
+        <v>1.005873550017503</v>
       </c>
       <c r="E9">
-        <v>1.029132418923966</v>
+        <v>0.9894629535585957</v>
       </c>
       <c r="F9">
-        <v>1.046607689575604</v>
+        <v>1.004393101745247</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034343040084748</v>
+        <v>1.040437259891413</v>
       </c>
       <c r="J9">
-        <v>1.035106616685157</v>
+        <v>1.006141582778681</v>
       </c>
       <c r="K9">
-        <v>1.041531174743272</v>
+        <v>1.018872046363933</v>
       </c>
       <c r="L9">
-        <v>1.032317563598345</v>
+        <v>1.002729332145919</v>
       </c>
       <c r="M9">
-        <v>1.049736047611579</v>
+        <v>1.017415303784642</v>
       </c>
       <c r="N9">
-        <v>1.015586464119158</v>
+        <v>1.005342295034397</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027294065652775</v>
+        <v>0.9689939743313118</v>
       </c>
       <c r="D10">
-        <v>1.036782017040464</v>
+        <v>0.9971747155387009</v>
       </c>
       <c r="E10">
-        <v>1.027446864940914</v>
+        <v>0.9806367162525039</v>
       </c>
       <c r="F10">
-        <v>1.044650332442429</v>
+        <v>0.9940619137500009</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03384770550806</v>
+        <v>1.036723639926892</v>
       </c>
       <c r="J10">
-        <v>1.033686590967987</v>
+        <v>0.9984941687811538</v>
       </c>
       <c r="K10">
-        <v>1.040224823884992</v>
+        <v>1.011595169428352</v>
       </c>
       <c r="L10">
-        <v>1.030923303807909</v>
+        <v>0.9953646088167764</v>
       </c>
       <c r="M10">
-        <v>1.048065306455673</v>
+        <v>1.008539216300808</v>
       </c>
       <c r="N10">
-        <v>1.015103387114209</v>
+        <v>1.002697650071794</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026439772568014</v>
+        <v>0.9641000676172319</v>
       </c>
       <c r="D11">
-        <v>1.036090444372625</v>
+        <v>0.9932609345740572</v>
       </c>
       <c r="E11">
-        <v>1.02671661473893</v>
+        <v>0.9766724530499095</v>
       </c>
       <c r="F11">
-        <v>1.043802054287517</v>
+        <v>0.989417155243529</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033630576519371</v>
+        <v>1.035032811106721</v>
       </c>
       <c r="J11">
-        <v>1.033070251106567</v>
+        <v>0.9950465321268893</v>
       </c>
       <c r="K11">
-        <v>1.039657212668003</v>
+        <v>1.008311068745449</v>
       </c>
       <c r="L11">
-        <v>1.030318478007408</v>
+        <v>0.9920481216749734</v>
       </c>
       <c r="M11">
-        <v>1.047340473282327</v>
+        <v>1.004541446725253</v>
       </c>
       <c r="N11">
-        <v>1.014893495769226</v>
+        <v>1.001504894398291</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026122303501205</v>
+        <v>0.9622513151474742</v>
       </c>
       <c r="D12">
-        <v>1.035833377020443</v>
+        <v>0.9917833808578511</v>
       </c>
       <c r="E12">
-        <v>1.02644530547663</v>
+        <v>0.9751768479045635</v>
       </c>
       <c r="F12">
-        <v>1.043486853079739</v>
+        <v>0.9876641002085655</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033549526622182</v>
+        <v>1.03439150798711</v>
       </c>
       <c r="J12">
-        <v>1.032841093166178</v>
+        <v>0.9937438759567054</v>
       </c>
       <c r="K12">
-        <v>1.039446080928818</v>
+        <v>1.007069709703621</v>
       </c>
       <c r="L12">
-        <v>1.030093650784018</v>
+        <v>0.99079558983867</v>
       </c>
       <c r="M12">
-        <v>1.047071026044278</v>
+        <v>1.003031515133257</v>
       </c>
       <c r="N12">
-        <v>1.014815424423932</v>
+        <v>1.001054169154848</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026190408393092</v>
+        <v>0.9626493196804781</v>
       </c>
       <c r="D13">
-        <v>1.035888527317831</v>
+        <v>0.9921014274598745</v>
       </c>
       <c r="E13">
-        <v>1.026503505073901</v>
+        <v>0.9754987349964611</v>
       </c>
       <c r="F13">
-        <v>1.043554469972686</v>
+        <v>0.9880414291741101</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033566930150681</v>
+        <v>1.034529683479827</v>
       </c>
       <c r="J13">
-        <v>1.032890258404811</v>
+        <v>0.9940243252138325</v>
       </c>
       <c r="K13">
-        <v>1.039491382819856</v>
+        <v>1.007336983979338</v>
       </c>
       <c r="L13">
-        <v>1.030141884627482</v>
+        <v>0.9910652218041155</v>
       </c>
       <c r="M13">
-        <v>1.047128833028447</v>
+        <v>1.003356561955662</v>
       </c>
       <c r="N13">
-        <v>1.014832175908868</v>
+        <v>1.001151208055753</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026413533489982</v>
+        <v>0.9639478948908088</v>
       </c>
       <c r="D14">
-        <v>1.036069198923278</v>
+        <v>0.9931392955252015</v>
       </c>
       <c r="E14">
-        <v>1.026694189506933</v>
+        <v>0.9765493076110118</v>
       </c>
       <c r="F14">
-        <v>1.043776001980394</v>
+        <v>0.9892728266261875</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033623885045246</v>
+        <v>1.034980076184554</v>
       </c>
       <c r="J14">
-        <v>1.033051313381106</v>
+        <v>0.9949393137319836</v>
       </c>
       <c r="K14">
-        <v>1.039639766497294</v>
+        <v>1.008208905369526</v>
       </c>
       <c r="L14">
-        <v>1.030299897159965</v>
+        <v>0.9919450172227836</v>
       </c>
       <c r="M14">
-        <v>1.047318205029666</v>
+        <v>1.004417155978873</v>
       </c>
       <c r="N14">
-        <v>1.014887044582579</v>
+        <v>1.001467797305356</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026550988679564</v>
+        <v>0.9647438152040405</v>
       </c>
       <c r="D15">
-        <v>1.03618049187955</v>
+        <v>0.9937755525367137</v>
       </c>
       <c r="E15">
-        <v>1.026811668209345</v>
+        <v>0.9771934849334976</v>
       </c>
       <c r="F15">
-        <v>1.043912480097671</v>
+        <v>0.9900277843292107</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033658923996808</v>
+        <v>1.03525579589072</v>
       </c>
       <c r="J15">
-        <v>1.03315051518838</v>
+        <v>0.9955000962853652</v>
       </c>
       <c r="K15">
-        <v>1.039731151331451</v>
+        <v>1.00874322888691</v>
       </c>
       <c r="L15">
-        <v>1.030397231563413</v>
+        <v>0.9924843059919639</v>
       </c>
       <c r="M15">
-        <v>1.047434855200291</v>
+        <v>1.005067255753561</v>
       </c>
       <c r="N15">
-        <v>1.014920836600975</v>
+        <v>1.001661823519847</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027350741942562</v>
+        <v>0.9693145638762687</v>
       </c>
       <c r="D16">
-        <v>1.03682788842558</v>
+        <v>0.9974312197249269</v>
       </c>
       <c r="E16">
-        <v>1.027495320715011</v>
+        <v>0.9808966691589887</v>
       </c>
       <c r="F16">
-        <v>1.044706614215391</v>
+        <v>0.9943663921766422</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033862059812654</v>
+        <v>1.03683404257469</v>
       </c>
       <c r="J16">
-        <v>1.033727464444427</v>
+        <v>0.9987199753520376</v>
       </c>
       <c r="K16">
-        <v>1.040262453036201</v>
+        <v>1.011810195069432</v>
       </c>
       <c r="L16">
-        <v>1.030963420678676</v>
+        <v>0.9955819035742632</v>
       </c>
       <c r="M16">
-        <v>1.048113381686927</v>
+        <v>1.008801134329377</v>
       </c>
       <c r="N16">
-        <v>1.015117301761008</v>
+        <v>1.002775762340945</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027852149273102</v>
+        <v>0.9721291663785376</v>
       </c>
       <c r="D17">
-        <v>1.037233653517743</v>
+        <v>0.9996837905031772</v>
       </c>
       <c r="E17">
-        <v>1.027924050501159</v>
+        <v>0.9831802977193796</v>
       </c>
       <c r="F17">
-        <v>1.045204555896975</v>
+        <v>0.9970406477870905</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033988772461863</v>
+        <v>1.037801317911725</v>
       </c>
       <c r="J17">
-        <v>1.034088976913559</v>
+        <v>1.000702178203893</v>
       </c>
       <c r="K17">
-        <v>1.040595200159292</v>
+        <v>1.013697366289807</v>
       </c>
       <c r="L17">
-        <v>1.031318279388092</v>
+        <v>0.9974898075544443</v>
       </c>
       <c r="M17">
-        <v>1.048538628907818</v>
+        <v>1.01110076489595</v>
       </c>
       <c r="N17">
-        <v>1.015240346950383</v>
+        <v>1.003461404175425</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028144520479634</v>
+        <v>0.9737526990343583</v>
       </c>
       <c r="D18">
-        <v>1.037470211414755</v>
+        <v>1.000983604990664</v>
       </c>
       <c r="E18">
-        <v>1.028174083474398</v>
+        <v>0.9844986799182314</v>
       </c>
       <c r="F18">
-        <v>1.045494926686089</v>
+        <v>0.9985841189475752</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034062426590105</v>
+        <v>1.038357582938815</v>
       </c>
       <c r="J18">
-        <v>1.034299700392893</v>
+        <v>1.001845332213405</v>
       </c>
       <c r="K18">
-        <v>1.040789097678697</v>
+        <v>1.014785381703375</v>
       </c>
       <c r="L18">
-        <v>1.031525156296563</v>
+        <v>0.9985904607695184</v>
       </c>
       <c r="M18">
-        <v>1.048786534382586</v>
+        <v>1.012427337180959</v>
       </c>
       <c r="N18">
-        <v>1.015312048117381</v>
+        <v>1.003856772788385</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028244196159297</v>
+        <v>0.9743032661277958</v>
       </c>
       <c r="D19">
-        <v>1.037550851600035</v>
+        <v>1.001424469915073</v>
       </c>
       <c r="E19">
-        <v>1.028259331913453</v>
+        <v>0.9849459527620179</v>
       </c>
       <c r="F19">
-        <v>1.045593923818912</v>
+        <v>0.9991076836711986</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03408749748561</v>
+        <v>1.038545933116287</v>
       </c>
       <c r="J19">
-        <v>1.034371527879534</v>
+        <v>1.002232953065157</v>
       </c>
       <c r="K19">
-        <v>1.040855179860621</v>
+        <v>1.015154248694386</v>
       </c>
       <c r="L19">
-        <v>1.031595678039725</v>
+        <v>0.9989637290900865</v>
       </c>
       <c r="M19">
-        <v>1.048871041095631</v>
+        <v>1.012877211215399</v>
       </c>
       <c r="N19">
-        <v>1.015336484681391</v>
+        <v>1.003990825903777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027798362476902</v>
+        <v>0.9718290825924909</v>
       </c>
       <c r="D20">
-        <v>1.037190130989228</v>
+        <v>0.9994435781892439</v>
       </c>
       <c r="E20">
-        <v>1.027878055788225</v>
+        <v>0.982936706447714</v>
       </c>
       <c r="F20">
-        <v>1.04515113875025</v>
+        <v>0.9967554335294179</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033975203799858</v>
+        <v>1.037698364291659</v>
       </c>
       <c r="J20">
-        <v>1.034050204612708</v>
+        <v>1.00049086536498</v>
       </c>
       <c r="K20">
-        <v>1.040559519030997</v>
+        <v>1.013496218665034</v>
       </c>
       <c r="L20">
-        <v>1.031280217407313</v>
+        <v>0.9972863791010875</v>
       </c>
       <c r="M20">
-        <v>1.04849301779155</v>
+        <v>1.010855575665455</v>
       </c>
       <c r="N20">
-        <v>1.015227152510327</v>
+        <v>1.003388316056726</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026347832789677</v>
+        <v>0.9635663712017341</v>
       </c>
       <c r="D21">
-        <v>1.03601600080586</v>
+        <v>0.9928343408274658</v>
       </c>
       <c r="E21">
-        <v>1.02663803942166</v>
+        <v>0.9762405924535364</v>
       </c>
       <c r="F21">
-        <v>1.043710769469884</v>
+        <v>0.9889109953623036</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033607124257754</v>
+        <v>1.034847819608166</v>
       </c>
       <c r="J21">
-        <v>1.033003892850713</v>
+        <v>0.9946704946721084</v>
       </c>
       <c r="K21">
-        <v>1.03959607938284</v>
+        <v>1.007952752489204</v>
       </c>
       <c r="L21">
-        <v>1.030253371064337</v>
+        <v>0.9916865219144869</v>
       </c>
       <c r="M21">
-        <v>1.047262445568892</v>
+        <v>1.004105542454995</v>
       </c>
       <c r="N21">
-        <v>1.014870890123391</v>
+        <v>1.001374786290775</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02543497709304</v>
+        <v>0.9581909091647177</v>
       </c>
       <c r="D22">
-        <v>1.035276698467644</v>
+        <v>0.9885401647378428</v>
       </c>
       <c r="E22">
-        <v>1.025858032928189</v>
+        <v>0.9718958405697348</v>
       </c>
       <c r="F22">
-        <v>1.042804497088994</v>
+        <v>0.9838169453040699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033373391797875</v>
+        <v>1.032978415721427</v>
       </c>
       <c r="J22">
-        <v>1.032344750115945</v>
+        <v>0.9908825060098908</v>
       </c>
       <c r="K22">
-        <v>1.038988614888167</v>
+        <v>1.004342113647701</v>
       </c>
       <c r="L22">
-        <v>1.029606778861723</v>
+        <v>0.9880453903013011</v>
       </c>
       <c r="M22">
-        <v>1.046487508386858</v>
+        <v>0.9997159560485808</v>
       </c>
       <c r="N22">
-        <v>1.014646266510011</v>
+        <v>1.000064044042514</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025918981131673</v>
+        <v>0.9610585009052131</v>
       </c>
       <c r="D23">
-        <v>1.035668719826848</v>
+        <v>0.9908303507359694</v>
       </c>
       <c r="E23">
-        <v>1.026271564027917</v>
+        <v>0.974212455643502</v>
       </c>
       <c r="F23">
-        <v>1.04328499242905</v>
+        <v>0.986533492885227</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033497516743808</v>
+        <v>1.033977030666762</v>
       </c>
       <c r="J23">
-        <v>1.032694296833821</v>
+        <v>0.9929033440223446</v>
       </c>
       <c r="K23">
-        <v>1.039310806334545</v>
+        <v>1.006268594847442</v>
       </c>
       <c r="L23">
-        <v>1.029949642674593</v>
+        <v>0.9899875631381824</v>
       </c>
       <c r="M23">
-        <v>1.046898434586097</v>
+        <v>1.00205740785806</v>
       </c>
       <c r="N23">
-        <v>1.014765403471421</v>
+        <v>1.000763328353138</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02782266669652</v>
+        <v>0.9719647335367969</v>
       </c>
       <c r="D24">
-        <v>1.037209797311081</v>
+        <v>0.9995521631550859</v>
       </c>
       <c r="E24">
-        <v>1.027898838936116</v>
+        <v>0.983046816821352</v>
       </c>
       <c r="F24">
-        <v>1.045175275876272</v>
+        <v>0.9968843600333158</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033981335682727</v>
+        <v>1.037744909047681</v>
       </c>
       <c r="J24">
-        <v>1.034067724580971</v>
+        <v>1.000586388694938</v>
       </c>
       <c r="K24">
-        <v>1.040575642378603</v>
+        <v>1.013587147877217</v>
       </c>
       <c r="L24">
-        <v>1.03129741630607</v>
+        <v>0.9973783372387874</v>
       </c>
       <c r="M24">
-        <v>1.048513627905758</v>
+        <v>1.01096641161523</v>
       </c>
       <c r="N24">
-        <v>1.01523311472306</v>
+        <v>1.003421355467573</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030028224276297</v>
+        <v>0.9839140768945909</v>
       </c>
       <c r="D25">
-        <v>1.03899351074733</v>
+        <v>1.009125914705077</v>
       </c>
       <c r="E25">
-        <v>1.029785724738314</v>
+        <v>0.9927689229889226</v>
       </c>
       <c r="F25">
-        <v>1.047366103403679</v>
+        <v>1.008259068212112</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034532772410985</v>
+        <v>1.041808428071325</v>
       </c>
       <c r="J25">
-        <v>1.03565600350345</v>
+        <v>1.008995194040575</v>
       </c>
       <c r="K25">
-        <v>1.04203603744068</v>
+        <v>1.021584195369159</v>
       </c>
       <c r="L25">
-        <v>1.032857275917332</v>
+        <v>1.005480538955813</v>
       </c>
       <c r="M25">
-        <v>1.050382721911967</v>
+        <v>1.020730511570946</v>
       </c>
       <c r="N25">
-        <v>1.015773163242865</v>
+        <v>1.006328607593262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9929496149403693</v>
+        <v>1.01407846176263</v>
       </c>
       <c r="D2">
-        <v>1.01637430404339</v>
+        <v>1.033061201024511</v>
       </c>
       <c r="E2">
-        <v>1.000150063100188</v>
+        <v>1.0185182538968</v>
       </c>
       <c r="F2">
-        <v>1.016882938299106</v>
+        <v>1.037136533833292</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044826167991161</v>
+        <v>1.04855827084717</v>
       </c>
       <c r="J2">
-        <v>1.015343266357686</v>
+        <v>1.035846090334961</v>
       </c>
       <c r="K2">
-        <v>1.027610136455226</v>
+        <v>1.044078382371632</v>
       </c>
       <c r="L2">
-        <v>1.011607307701183</v>
+        <v>1.029725490329727</v>
       </c>
       <c r="M2">
-        <v>1.028111972851426</v>
+        <v>1.048101650815237</v>
       </c>
       <c r="N2">
-        <v>1.008521302084549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015552790424502</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04664159484922</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042237515154426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9992548557216158</v>
+        <v>1.017916090239129</v>
       </c>
       <c r="D3">
-        <v>1.021435546921701</v>
+        <v>1.035618949736425</v>
       </c>
       <c r="E3">
-        <v>1.005316106902279</v>
+        <v>1.021557039694522</v>
       </c>
       <c r="F3">
-        <v>1.022912323544432</v>
+        <v>1.039791269076367</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046898833524853</v>
+        <v>1.049499732632428</v>
       </c>
       <c r="J3">
-        <v>1.019765854753859</v>
+        <v>1.037929980700647</v>
       </c>
       <c r="K3">
-        <v>1.03180130998627</v>
+        <v>1.045815494706154</v>
       </c>
       <c r="L3">
-        <v>1.01588141605532</v>
+        <v>1.031921328482316</v>
       </c>
       <c r="M3">
-        <v>1.033260195871458</v>
+        <v>1.049939121873709</v>
       </c>
       <c r="N3">
-        <v>1.010047438224025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016275784132838</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048095816307548</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043463141338687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003225889987056</v>
+        <v>1.020356043116605</v>
       </c>
       <c r="D4">
-        <v>1.024623911429044</v>
+        <v>1.03724970330837</v>
       </c>
       <c r="E4">
-        <v>1.008576191829279</v>
+        <v>1.023494651004418</v>
       </c>
       <c r="F4">
-        <v>1.026714383827782</v>
+        <v>1.041487371265275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0481883837451</v>
+        <v>1.050090819929854</v>
       </c>
       <c r="J4">
-        <v>1.022547435591875</v>
+        <v>1.039252993303342</v>
       </c>
       <c r="K4">
-        <v>1.034433960494818</v>
+        <v>1.046918419485043</v>
       </c>
       <c r="L4">
-        <v>1.018572200118013</v>
+        <v>1.03331755049814</v>
       </c>
       <c r="M4">
-        <v>1.036500736291431</v>
+        <v>1.051109594230728</v>
       </c>
       <c r="N4">
-        <v>1.011006532948329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016734602095054</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049022156493444</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044243886547272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004870512774542</v>
+        <v>1.021375653470217</v>
       </c>
       <c r="D5">
-        <v>1.02594448977504</v>
+        <v>1.037934257838806</v>
       </c>
       <c r="E5">
-        <v>1.009927859085755</v>
+        <v>1.0243061431659</v>
       </c>
       <c r="F5">
-        <v>1.02829009581648</v>
+        <v>1.04219871051797</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048718596040472</v>
+        <v>1.050337678837101</v>
       </c>
       <c r="J5">
-        <v>1.023698481870283</v>
+        <v>1.03980706164388</v>
       </c>
       <c r="K5">
-        <v>1.035522544567925</v>
+        <v>1.047381753481874</v>
       </c>
       <c r="L5">
-        <v>1.019686289501006</v>
+        <v>1.033902330089433</v>
       </c>
       <c r="M5">
-        <v>1.037842314563779</v>
+        <v>1.051600656299619</v>
       </c>
       <c r="N5">
-        <v>1.01140321999759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016927182853746</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049410794570102</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044578625716721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005145233007579</v>
+        <v>1.021551021619065</v>
       </c>
       <c r="D6">
-        <v>1.026165084619924</v>
+        <v>1.038054533994317</v>
       </c>
       <c r="E6">
-        <v>1.010153728946427</v>
+        <v>1.024446394795272</v>
       </c>
       <c r="F6">
-        <v>1.028553366047177</v>
+        <v>1.042321936939603</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048806934528076</v>
+        <v>1.050382081100644</v>
       </c>
       <c r="J6">
-        <v>1.023890696386507</v>
+        <v>1.039904389204836</v>
       </c>
       <c r="K6">
-        <v>1.035704278816256</v>
+        <v>1.047464867278671</v>
       </c>
       <c r="L6">
-        <v>1.019872368605938</v>
+        <v>1.034004520649918</v>
       </c>
       <c r="M6">
-        <v>1.038066381900941</v>
+        <v>1.051686896311828</v>
       </c>
       <c r="N6">
-        <v>1.011469451339591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016961593868464</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049479046924155</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04464608403888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003247961357311</v>
+        <v>1.020382529900575</v>
       </c>
       <c r="D7">
-        <v>1.024641633729619</v>
+        <v>1.03727411679479</v>
       </c>
       <c r="E7">
-        <v>1.008594325854221</v>
+        <v>1.02351736199095</v>
       </c>
       <c r="F7">
-        <v>1.02673552624918</v>
+        <v>1.041507884777043</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048195514725611</v>
+        <v>1.050102768196054</v>
       </c>
       <c r="J7">
-        <v>1.0225628868702</v>
+        <v>1.039272932956929</v>
       </c>
       <c r="K7">
-        <v>1.034448576626295</v>
+        <v>1.04693970614375</v>
       </c>
       <c r="L7">
-        <v>1.018587152869211</v>
+        <v>1.033337093651345</v>
       </c>
       <c r="M7">
-        <v>1.036518742806396</v>
+        <v>1.051127041618336</v>
       </c>
       <c r="N7">
-        <v>1.011011858740336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016743129232282</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049035964770036</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044278928482137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9951038361227238</v>
+        <v>1.015400774793985</v>
       </c>
       <c r="D8">
-        <v>1.018103281366098</v>
+        <v>1.03394981967786</v>
       </c>
       <c r="E8">
-        <v>1.001913650709482</v>
+        <v>1.019566294407186</v>
       </c>
       <c r="F8">
-        <v>1.018941864102536</v>
+        <v>1.038052073350198</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045537594417739</v>
+        <v>1.048891121608865</v>
       </c>
       <c r="J8">
-        <v>1.01685502532382</v>
+        <v>1.036571473943739</v>
       </c>
       <c r="K8">
-        <v>1.029043491090972</v>
+        <v>1.044688747505792</v>
       </c>
       <c r="L8">
-        <v>1.013067762627645</v>
+        <v>1.030487593115192</v>
       </c>
       <c r="M8">
-        <v>1.02987122593256</v>
+        <v>1.048740141205442</v>
       </c>
       <c r="N8">
-        <v>1.009043130221763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015806598484761</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047146912752503</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042691876562906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9798569034134768</v>
+        <v>1.006255677087503</v>
       </c>
       <c r="D9">
-        <v>1.005873550017503</v>
+        <v>1.027874565928879</v>
       </c>
       <c r="E9">
-        <v>0.9894629535585957</v>
+        <v>1.012356099973427</v>
       </c>
       <c r="F9">
-        <v>1.004393101745247</v>
+        <v>1.031772178858877</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040437259891413</v>
+        <v>1.046600034334812</v>
       </c>
       <c r="J9">
-        <v>1.006141582778681</v>
+        <v>1.031589448893947</v>
       </c>
       <c r="K9">
-        <v>1.018872046363933</v>
+        <v>1.040531025376275</v>
       </c>
       <c r="L9">
-        <v>1.002729332145919</v>
+        <v>1.025251839240832</v>
       </c>
       <c r="M9">
-        <v>1.017415303784642</v>
+        <v>1.044369980123642</v>
       </c>
       <c r="N9">
-        <v>1.005342295034397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014075355869849</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043688246645198</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039748955233864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9689939743313118</v>
+        <v>0.9999734432131392</v>
       </c>
       <c r="D10">
-        <v>0.9971747155387009</v>
+        <v>1.02376413239836</v>
       </c>
       <c r="E10">
-        <v>0.9806367162525039</v>
+        <v>1.007445321871274</v>
       </c>
       <c r="F10">
-        <v>0.9940619137500009</v>
+        <v>1.027611843462482</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036723639926892</v>
+        <v>1.04501708785776</v>
       </c>
       <c r="J10">
-        <v>0.9984941687811538</v>
+        <v>1.028188114833925</v>
       </c>
       <c r="K10">
-        <v>1.011595169428352</v>
+        <v>1.037717176966629</v>
       </c>
       <c r="L10">
-        <v>0.9953646088167764</v>
+        <v>1.021681437451607</v>
       </c>
       <c r="M10">
-        <v>1.008539216300808</v>
+        <v>1.041499833671324</v>
       </c>
       <c r="N10">
-        <v>1.002697650071794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012900824599739</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041467977063446</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037776151776804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9641000676172319</v>
+        <v>0.9977201360649404</v>
       </c>
       <c r="D11">
-        <v>0.9932609345740572</v>
+        <v>1.022565753587519</v>
       </c>
       <c r="E11">
-        <v>0.9766724530499095</v>
+        <v>1.005766023026538</v>
       </c>
       <c r="F11">
-        <v>0.989417155243529</v>
+        <v>1.026968940224366</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035032811106721</v>
+        <v>1.044656184920589</v>
       </c>
       <c r="J11">
-        <v>0.9950465321268893</v>
+        <v>1.02718806857798</v>
       </c>
       <c r="K11">
-        <v>1.008311068745449</v>
+        <v>1.037074301060247</v>
       </c>
       <c r="L11">
-        <v>0.9920481216749734</v>
+        <v>1.020580013694399</v>
       </c>
       <c r="M11">
-        <v>1.004541446725253</v>
+        <v>1.041399573935243</v>
       </c>
       <c r="N11">
-        <v>1.001504894398291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012621619345734</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041823163261868</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037354353247962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9622513151474742</v>
+        <v>0.9970587910268901</v>
       </c>
       <c r="D12">
-        <v>0.9917833808578511</v>
+        <v>1.022326854469587</v>
       </c>
       <c r="E12">
-        <v>0.9751768479045635</v>
+        <v>1.005308323561003</v>
       </c>
       <c r="F12">
-        <v>0.9876641002085655</v>
+        <v>1.027146395802722</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03439150798711</v>
+        <v>1.044640683943717</v>
       </c>
       <c r="J12">
-        <v>0.9937438759567054</v>
+        <v>1.026988151828237</v>
       </c>
       <c r="K12">
-        <v>1.007069709703621</v>
+        <v>1.03703845355929</v>
       </c>
       <c r="L12">
-        <v>0.99079558983867</v>
+        <v>1.020334526236192</v>
       </c>
       <c r="M12">
-        <v>1.003031515133257</v>
+        <v>1.0417713607242</v>
       </c>
       <c r="N12">
-        <v>1.001054169154848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012605215264547</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042442395526502</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037329008059045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9626493196804781</v>
+        <v>0.9975955306981346</v>
       </c>
       <c r="D13">
-        <v>0.9921014274598745</v>
+        <v>1.022830633942606</v>
       </c>
       <c r="E13">
-        <v>0.9754987349964611</v>
+        <v>1.005773454090981</v>
       </c>
       <c r="F13">
-        <v>0.9880414291741101</v>
+        <v>1.027995543423937</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034529683479827</v>
+        <v>1.044905134424272</v>
       </c>
       <c r="J13">
-        <v>0.9940243252138325</v>
+        <v>1.027409007052299</v>
       </c>
       <c r="K13">
-        <v>1.007336983979338</v>
+        <v>1.037490516462134</v>
       </c>
       <c r="L13">
-        <v>0.9910652218041155</v>
+        <v>1.020747208236193</v>
       </c>
       <c r="M13">
-        <v>1.003356561955662</v>
+        <v>1.042563051727833</v>
       </c>
       <c r="N13">
-        <v>1.001151208055753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012798380045073</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04334405359163</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037646145193279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9639478948908088</v>
+        <v>0.9985133493506758</v>
       </c>
       <c r="D14">
-        <v>0.9931392955252015</v>
+        <v>1.023518803442185</v>
       </c>
       <c r="E14">
-        <v>0.9765493076110118</v>
+        <v>1.006516556900017</v>
       </c>
       <c r="F14">
-        <v>0.9892728266261875</v>
+        <v>1.028891484583429</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034980076184554</v>
+        <v>1.045216259652395</v>
       </c>
       <c r="J14">
-        <v>0.9949393137319836</v>
+        <v>1.027983848433284</v>
       </c>
       <c r="K14">
-        <v>1.008208905369526</v>
+        <v>1.038026818969796</v>
       </c>
       <c r="L14">
-        <v>0.9919450172227836</v>
+        <v>1.021333427082967</v>
       </c>
       <c r="M14">
-        <v>1.004417155978873</v>
+        <v>1.043304652607633</v>
       </c>
       <c r="N14">
-        <v>1.001467797305356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013028340037879</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044103028035484</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038026745713906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9647438152040405</v>
+        <v>0.9990043628980152</v>
       </c>
       <c r="D15">
-        <v>0.9937755525367137</v>
+        <v>1.023859010343175</v>
       </c>
       <c r="E15">
-        <v>0.9771934849334976</v>
+        <v>1.006905079108736</v>
       </c>
       <c r="F15">
-        <v>0.9900277843292107</v>
+        <v>1.029277048758043</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03525579589072</v>
+        <v>1.045358860604885</v>
       </c>
       <c r="J15">
-        <v>0.9955000962853652</v>
+        <v>1.028267280283206</v>
       </c>
       <c r="K15">
-        <v>1.00874322888691</v>
+        <v>1.038275074267667</v>
       </c>
       <c r="L15">
-        <v>0.9924843059919639</v>
+        <v>1.021626729497308</v>
       </c>
       <c r="M15">
-        <v>1.005067255753561</v>
+        <v>1.043598203046596</v>
       </c>
       <c r="N15">
-        <v>1.001661823519847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013133406313772</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04437247140734</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038208117899965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9693145638762687</v>
+        <v>1.001558591609073</v>
       </c>
       <c r="D16">
-        <v>0.9974312197249269</v>
+        <v>1.025506564756828</v>
       </c>
       <c r="E16">
-        <v>0.9808966691589887</v>
+        <v>1.008886720976007</v>
       </c>
       <c r="F16">
-        <v>0.9943663921766422</v>
+        <v>1.030914289734323</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03683404257469</v>
+        <v>1.045991878967346</v>
       </c>
       <c r="J16">
-        <v>0.9987199753520376</v>
+        <v>1.029633920013872</v>
       </c>
       <c r="K16">
-        <v>1.011810195069432</v>
+        <v>1.039394699580216</v>
       </c>
       <c r="L16">
-        <v>0.9955819035742632</v>
+        <v>1.023061143597396</v>
       </c>
       <c r="M16">
-        <v>1.008801134329377</v>
+        <v>1.044711836531621</v>
       </c>
       <c r="N16">
-        <v>1.002775762340945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01359633690693</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04521409507865</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.039002880358183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9721291663785376</v>
+        <v>1.003040776606668</v>
       </c>
       <c r="D17">
-        <v>0.9996837905031772</v>
+        <v>1.02641300641681</v>
       </c>
       <c r="E17">
-        <v>0.9831802977193796</v>
+        <v>1.010022128285387</v>
       </c>
       <c r="F17">
-        <v>0.9970406477870905</v>
+        <v>1.031697074178011</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037801317911725</v>
+        <v>1.046313530162106</v>
       </c>
       <c r="J17">
-        <v>1.000702178203893</v>
+        <v>1.030382601690012</v>
       </c>
       <c r="K17">
-        <v>1.013697366289807</v>
+        <v>1.039973244464309</v>
       </c>
       <c r="L17">
-        <v>0.9974898075544443</v>
+        <v>1.023856685933138</v>
       </c>
       <c r="M17">
-        <v>1.01110076489595</v>
+        <v>1.045171262843193</v>
       </c>
       <c r="N17">
-        <v>1.003461404175425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013831384694622</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045448644834701</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03941450707113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9737526990343583</v>
+        <v>1.00372226213473</v>
       </c>
       <c r="D18">
-        <v>1.000983604990664</v>
+        <v>1.026733230891432</v>
       </c>
       <c r="E18">
-        <v>0.9844986799182314</v>
+        <v>1.010515830338825</v>
       </c>
       <c r="F18">
-        <v>0.9985841189475752</v>
+        <v>1.031749811554767</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038357582938815</v>
+        <v>1.046380845239196</v>
       </c>
       <c r="J18">
-        <v>1.001845332213405</v>
+        <v>1.030645380696921</v>
       </c>
       <c r="K18">
-        <v>1.014785381703375</v>
+        <v>1.040105935208405</v>
       </c>
       <c r="L18">
-        <v>0.9985904607695184</v>
+        <v>1.024155482499815</v>
       </c>
       <c r="M18">
-        <v>1.012427337180959</v>
+        <v>1.045042118063762</v>
       </c>
       <c r="N18">
-        <v>1.003856772788385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013881758178516</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045109766589881</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039496736127725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9743032661277958</v>
+        <v>1.003690402004156</v>
       </c>
       <c r="D19">
-        <v>1.001424469915073</v>
+        <v>1.026535152969764</v>
       </c>
       <c r="E19">
-        <v>0.9849459527620179</v>
+        <v>1.010440045316704</v>
       </c>
       <c r="F19">
-        <v>0.9991076836711986</v>
+        <v>1.031139202275347</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038545933116287</v>
+        <v>1.046228746263158</v>
       </c>
       <c r="J19">
-        <v>1.002232953065157</v>
+        <v>1.030480895209273</v>
       </c>
       <c r="K19">
-        <v>1.015154248694386</v>
+        <v>1.039848877667525</v>
       </c>
       <c r="L19">
-        <v>0.9989637290900865</v>
+        <v>1.024017380708598</v>
       </c>
       <c r="M19">
-        <v>1.012877211215399</v>
+        <v>1.04437945954926</v>
       </c>
       <c r="N19">
-        <v>1.003990825903777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013775459145016</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044261633333615</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039321358778772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9718290825924909</v>
+        <v>1.001637074178452</v>
       </c>
       <c r="D20">
-        <v>0.9994435781892439</v>
+        <v>1.024869024095217</v>
       </c>
       <c r="E20">
-        <v>0.982936706447714</v>
+        <v>1.008748668257902</v>
       </c>
       <c r="F20">
-        <v>0.9967554335294179</v>
+        <v>1.028720934046861</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037698364291659</v>
+        <v>1.045454285827646</v>
       </c>
       <c r="J20">
-        <v>1.00049086536498</v>
+        <v>1.029105034895797</v>
       </c>
       <c r="K20">
-        <v>1.013496218665034</v>
+        <v>1.038488236659754</v>
       </c>
       <c r="L20">
-        <v>0.9972863791010875</v>
+        <v>1.022639407714841</v>
       </c>
       <c r="M20">
-        <v>1.010855575665455</v>
+        <v>1.04227688519719</v>
       </c>
       <c r="N20">
-        <v>1.003388316056726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013222659219153</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042072418036703</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038363251057826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9635663712017341</v>
+        <v>0.9968178045191597</v>
       </c>
       <c r="D21">
-        <v>0.9928343408274658</v>
+        <v>1.021671654935786</v>
       </c>
       <c r="E21">
-        <v>0.9762405924535364</v>
+        <v>1.004979240500449</v>
       </c>
       <c r="F21">
-        <v>0.9889109953623036</v>
+        <v>1.025382417740913</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034847819608166</v>
+        <v>1.044184638507436</v>
       </c>
       <c r="J21">
-        <v>0.9946704946721084</v>
+        <v>1.026449177161286</v>
       </c>
       <c r="K21">
-        <v>1.007952752489204</v>
+        <v>1.036253763042707</v>
       </c>
       <c r="L21">
-        <v>0.9916865219144869</v>
+        <v>1.019866889712941</v>
       </c>
       <c r="M21">
-        <v>1.004105542454995</v>
+        <v>1.039898356957394</v>
       </c>
       <c r="N21">
-        <v>1.001374786290775</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012292953013973</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040149263661319</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036786625817084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9581909091647177</v>
+        <v>0.9937452751411394</v>
       </c>
       <c r="D22">
-        <v>0.9885401647378428</v>
+        <v>1.019649725892361</v>
       </c>
       <c r="E22">
-        <v>0.9718958405697348</v>
+        <v>1.002586047312859</v>
       </c>
       <c r="F22">
-        <v>0.9838169453040699</v>
+        <v>1.023315998142085</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032978415721427</v>
+        <v>1.04337522901052</v>
       </c>
       <c r="J22">
-        <v>0.9908825060098908</v>
+        <v>1.024762470416588</v>
       </c>
       <c r="K22">
-        <v>1.004342113647701</v>
+        <v>1.03484171598244</v>
       </c>
       <c r="L22">
-        <v>0.9880453903013011</v>
+        <v>1.018106447589654</v>
       </c>
       <c r="M22">
-        <v>0.9997159560485808</v>
+        <v>1.038439291727396</v>
       </c>
       <c r="N22">
-        <v>1.000064044042514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011704083330159</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038994509869542</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035774782854562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9610585009052131</v>
+        <v>0.9953671977934113</v>
       </c>
       <c r="D23">
-        <v>0.9908303507359694</v>
+        <v>1.020710308900606</v>
       </c>
       <c r="E23">
-        <v>0.974212455643502</v>
+        <v>1.00384670010876</v>
       </c>
       <c r="F23">
-        <v>0.986533492885227</v>
+        <v>1.024403817217204</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033977030666762</v>
+        <v>1.043798083124442</v>
       </c>
       <c r="J23">
-        <v>0.9929033440223446</v>
+        <v>1.025647719130541</v>
       </c>
       <c r="K23">
-        <v>1.006268594847442</v>
+        <v>1.035578781492634</v>
       </c>
       <c r="L23">
-        <v>0.9899875631381824</v>
+        <v>1.01903128185153</v>
       </c>
       <c r="M23">
-        <v>1.00205740785806</v>
+        <v>1.039204862348291</v>
       </c>
       <c r="N23">
-        <v>1.000763328353138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012011356312355</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03960040869907</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036286304696982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9719647335367969</v>
+        <v>1.001646140698331</v>
       </c>
       <c r="D24">
-        <v>0.9995521631550859</v>
+        <v>1.024839703567493</v>
       </c>
       <c r="E24">
-        <v>0.983046816821352</v>
+        <v>1.008746067881184</v>
       </c>
       <c r="F24">
-        <v>0.9968843600333158</v>
+        <v>1.02864109269591</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037744909047681</v>
+        <v>1.045428491778088</v>
       </c>
       <c r="J24">
-        <v>1.000586388694938</v>
+        <v>1.029080970705856</v>
       </c>
       <c r="K24">
-        <v>1.013587147877217</v>
+        <v>1.038444209925359</v>
       </c>
       <c r="L24">
-        <v>0.9973783372387874</v>
+        <v>1.022621314104314</v>
       </c>
       <c r="M24">
-        <v>1.01096641161523</v>
+        <v>1.042183238723128</v>
       </c>
       <c r="N24">
-        <v>1.003421355467573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013205817287654</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041957592996228</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03830480843177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9839140768945909</v>
+        <v>1.008684133660507</v>
       </c>
       <c r="D25">
-        <v>1.009125914705077</v>
+        <v>1.029493583311226</v>
       </c>
       <c r="E25">
-        <v>0.9927689229889226</v>
+        <v>1.014268095482115</v>
       </c>
       <c r="F25">
-        <v>1.008259068212112</v>
+        <v>1.033434833245631</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041808428071325</v>
+        <v>1.04722377206383</v>
       </c>
       <c r="J25">
-        <v>1.008995194040575</v>
+        <v>1.032922735246044</v>
       </c>
       <c r="K25">
-        <v>1.021584195369159</v>
+        <v>1.041650673753796</v>
       </c>
       <c r="L25">
-        <v>1.005480538955813</v>
+        <v>1.026648882977737</v>
       </c>
       <c r="M25">
-        <v>1.020730511570946</v>
+        <v>1.04553537709783</v>
       </c>
       <c r="N25">
-        <v>1.006328607593262</v>
+        <v>1.01454163236645</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044610575573941</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040569073747127</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01407846176263</v>
+        <v>1.013271049528174</v>
       </c>
       <c r="D2">
-        <v>1.033061201024511</v>
+        <v>1.031737159634932</v>
       </c>
       <c r="E2">
-        <v>1.0185182538968</v>
+        <v>1.017844547847079</v>
       </c>
       <c r="F2">
-        <v>1.037136533833292</v>
+        <v>1.036180578012518</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04855827084717</v>
+        <v>1.047988992608929</v>
       </c>
       <c r="J2">
-        <v>1.035846090334961</v>
+        <v>1.035061943764404</v>
       </c>
       <c r="K2">
-        <v>1.044078382371632</v>
+        <v>1.042771366962835</v>
       </c>
       <c r="L2">
-        <v>1.029725490329727</v>
+        <v>1.029060753866832</v>
       </c>
       <c r="M2">
-        <v>1.048101650815237</v>
+        <v>1.047157861868539</v>
       </c>
       <c r="N2">
-        <v>1.015552790424502</v>
+        <v>1.016297886759226</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04664159484922</v>
+        <v>1.045894655092116</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042237515154426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041322083557712</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023305870600855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017916090239129</v>
+        <v>1.016927046420963</v>
       </c>
       <c r="D3">
-        <v>1.035618949736425</v>
+        <v>1.034089412722015</v>
       </c>
       <c r="E3">
-        <v>1.021557039694522</v>
+        <v>1.020721891505795</v>
       </c>
       <c r="F3">
-        <v>1.039791269076367</v>
+        <v>1.038688014535945</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049499732632428</v>
+        <v>1.048820029798795</v>
       </c>
       <c r="J3">
-        <v>1.037929980700647</v>
+        <v>1.036966663427799</v>
       </c>
       <c r="K3">
-        <v>1.045815494706154</v>
+        <v>1.044303929668208</v>
       </c>
       <c r="L3">
-        <v>1.031921328482316</v>
+        <v>1.031096323359305</v>
       </c>
       <c r="M3">
-        <v>1.049939121873709</v>
+        <v>1.048848695591683</v>
       </c>
       <c r="N3">
-        <v>1.016275784132838</v>
+        <v>1.016820460261808</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048095816307548</v>
+        <v>1.047232825483096</v>
       </c>
       <c r="Q3">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R3">
-        <v>1.043463141338687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04240280037782</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023625690959761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020356043116605</v>
+        <v>1.019252926860468</v>
       </c>
       <c r="D4">
-        <v>1.03724970330837</v>
+        <v>1.035590415275695</v>
       </c>
       <c r="E4">
-        <v>1.023494651004418</v>
+        <v>1.022558021903982</v>
       </c>
       <c r="F4">
-        <v>1.041487371265275</v>
+        <v>1.040291257458226</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050090819929854</v>
+        <v>1.049341407548994</v>
       </c>
       <c r="J4">
-        <v>1.039252993303342</v>
+        <v>1.03817664141772</v>
       </c>
       <c r="K4">
-        <v>1.046918419485043</v>
+        <v>1.045277463628215</v>
       </c>
       <c r="L4">
-        <v>1.03331755049814</v>
+        <v>1.032391606342636</v>
       </c>
       <c r="M4">
-        <v>1.051109594230728</v>
+        <v>1.049926556367238</v>
       </c>
       <c r="N4">
-        <v>1.016734602095054</v>
+        <v>1.017152387466578</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049022156493444</v>
+        <v>1.048085871654966</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044243886547272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043092138377592</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02382650548578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021375653470217</v>
+        <v>1.020225105585786</v>
       </c>
       <c r="D5">
-        <v>1.037934257838806</v>
+        <v>1.03622094681463</v>
       </c>
       <c r="E5">
-        <v>1.0243061431659</v>
+        <v>1.023327287677404</v>
       </c>
       <c r="F5">
-        <v>1.04219871051797</v>
+        <v>1.040963965888027</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050337678837101</v>
+        <v>1.049559207019165</v>
       </c>
       <c r="J5">
-        <v>1.03980706164388</v>
+        <v>1.03868359999647</v>
       </c>
       <c r="K5">
-        <v>1.047381753481874</v>
+        <v>1.045686872230607</v>
       </c>
       <c r="L5">
-        <v>1.033902330089433</v>
+        <v>1.032934342001441</v>
       </c>
       <c r="M5">
-        <v>1.051600656299619</v>
+        <v>1.050379053339604</v>
       </c>
       <c r="N5">
-        <v>1.016927182853746</v>
+        <v>1.017291807635214</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049410794570102</v>
+        <v>1.048443988865584</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044578625716721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043389459432678</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02391095096024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021551021619065</v>
+        <v>1.020392229234744</v>
       </c>
       <c r="D6">
-        <v>1.038054533994317</v>
+        <v>1.036331927190264</v>
       </c>
       <c r="E6">
-        <v>1.024446394795272</v>
+        <v>1.02346018183688</v>
       </c>
       <c r="F6">
-        <v>1.042321936939603</v>
+        <v>1.041080545569734</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050382081100644</v>
+        <v>1.049598560852953</v>
       </c>
       <c r="J6">
-        <v>1.039904389204836</v>
+        <v>1.038772737649053</v>
       </c>
       <c r="K6">
-        <v>1.047464867278671</v>
+        <v>1.045760706088673</v>
       </c>
       <c r="L6">
-        <v>1.034004520649918</v>
+        <v>1.033029206289146</v>
       </c>
       <c r="M6">
-        <v>1.051686896311828</v>
+        <v>1.050458657305237</v>
       </c>
       <c r="N6">
-        <v>1.016961593868464</v>
+        <v>1.017316758585061</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049479046924155</v>
+        <v>1.048506989380004</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04464608403888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043451225250228</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02392683365485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020382529900575</v>
+        <v>1.019286820499302</v>
       </c>
       <c r="D7">
-        <v>1.03727411679479</v>
+        <v>1.03561958861292</v>
       </c>
       <c r="E7">
-        <v>1.02351736199095</v>
+        <v>1.02258749508775</v>
       </c>
       <c r="F7">
-        <v>1.041507884777043</v>
+        <v>1.040315206524997</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050102768196054</v>
+        <v>1.049356808411987</v>
       </c>
       <c r="J7">
-        <v>1.039272932956929</v>
+        <v>1.038203796424361</v>
       </c>
       <c r="K7">
-        <v>1.04693970614375</v>
+        <v>1.045303450303865</v>
       </c>
       <c r="L7">
-        <v>1.033337093651345</v>
+        <v>1.03241783033986</v>
       </c>
       <c r="M7">
-        <v>1.051127041618336</v>
+        <v>1.049947396733838</v>
       </c>
       <c r="N7">
-        <v>1.016743129232282</v>
+        <v>1.017187166278777</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049035964770036</v>
+        <v>1.048102365236427</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044278928482137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043132502929947</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023834523204166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015400774793985</v>
+        <v>1.014557612142025</v>
       </c>
       <c r="D8">
-        <v>1.03394981967786</v>
+        <v>1.032573941078555</v>
       </c>
       <c r="E8">
-        <v>1.019566294407186</v>
+        <v>1.018861538593611</v>
       </c>
       <c r="F8">
-        <v>1.038052073350198</v>
+        <v>1.03705902006788</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048891121608865</v>
+        <v>1.048297012565864</v>
       </c>
       <c r="J8">
-        <v>1.036571473943739</v>
+        <v>1.035751794731971</v>
       </c>
       <c r="K8">
-        <v>1.044688747505792</v>
+        <v>1.043330039921013</v>
       </c>
       <c r="L8">
-        <v>1.030487593115192</v>
+        <v>1.029791938545756</v>
       </c>
       <c r="M8">
-        <v>1.048740141205442</v>
+        <v>1.047759353899461</v>
       </c>
       <c r="N8">
-        <v>1.015806598484761</v>
+        <v>1.016568243470705</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047146912752503</v>
+        <v>1.046370692023552</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042691876562906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041742161198187</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023427770823534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006255677087503</v>
+        <v>1.005858701487776</v>
       </c>
       <c r="D9">
-        <v>1.027874565928879</v>
+        <v>1.026997050136069</v>
       </c>
       <c r="E9">
-        <v>1.012356099973427</v>
+        <v>1.012047474247573</v>
       </c>
       <c r="F9">
-        <v>1.031772178858877</v>
+        <v>1.0311373428543</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046600034334812</v>
+        <v>1.046274435211888</v>
       </c>
       <c r="J9">
-        <v>1.031589448893947</v>
+        <v>1.031206256771856</v>
       </c>
       <c r="K9">
-        <v>1.040531025376275</v>
+        <v>1.03966679423372</v>
       </c>
       <c r="L9">
-        <v>1.025251839240832</v>
+        <v>1.024948067453103</v>
       </c>
       <c r="M9">
-        <v>1.044369980123642</v>
+        <v>1.043744659779416</v>
       </c>
       <c r="N9">
-        <v>1.014075355869849</v>
+        <v>1.015329471452135</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043688246645198</v>
+        <v>1.043193349527599</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039748955233864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039148588658974</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022648596898119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9999734432131392</v>
+        <v>0.9999257218024806</v>
       </c>
       <c r="D10">
-        <v>1.02376413239836</v>
+        <v>1.023256485968695</v>
       </c>
       <c r="E10">
-        <v>1.007445321871274</v>
+        <v>1.007446691136987</v>
       </c>
       <c r="F10">
-        <v>1.027611843462482</v>
+        <v>1.027244052784328</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04501708785776</v>
+        <v>1.044894555574785</v>
       </c>
       <c r="J10">
-        <v>1.028188114833925</v>
+        <v>1.028142287065765</v>
       </c>
       <c r="K10">
-        <v>1.037717176966629</v>
+        <v>1.037218160631752</v>
       </c>
       <c r="L10">
-        <v>1.021681437451607</v>
+        <v>1.02168278246659</v>
       </c>
       <c r="M10">
-        <v>1.041499833671324</v>
+        <v>1.041138234167299</v>
       </c>
       <c r="N10">
-        <v>1.012900824599739</v>
+        <v>1.014612295647702</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041467977063446</v>
+        <v>1.041181813345527</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037776151776804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037435693643823</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022127745766604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9977201360649404</v>
+        <v>0.9978095866726625</v>
       </c>
       <c r="D11">
-        <v>1.022565753587519</v>
+        <v>1.022183888186108</v>
       </c>
       <c r="E11">
-        <v>1.005766023026538</v>
+        <v>1.005886771055206</v>
       </c>
       <c r="F11">
-        <v>1.026968940224366</v>
+        <v>1.026692517685175</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044656184920589</v>
+        <v>1.044602654796375</v>
       </c>
       <c r="J11">
-        <v>1.02718806857798</v>
+        <v>1.027273774164927</v>
       </c>
       <c r="K11">
-        <v>1.037074301060247</v>
+        <v>1.036699233771508</v>
       </c>
       <c r="L11">
-        <v>1.020580013694399</v>
+        <v>1.020698518870748</v>
       </c>
       <c r="M11">
-        <v>1.041399573935243</v>
+        <v>1.041128017167052</v>
       </c>
       <c r="N11">
-        <v>1.012621619345734</v>
+        <v>1.0146512389753</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041823163261868</v>
+        <v>1.041608365169562</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037354353247962</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037104741744556</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022083836790193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9970587910268901</v>
+        <v>0.9971736622299285</v>
       </c>
       <c r="D12">
-        <v>1.022326854469587</v>
+        <v>1.021964133661348</v>
       </c>
       <c r="E12">
-        <v>1.005308323561003</v>
+        <v>1.005448687503281</v>
       </c>
       <c r="F12">
-        <v>1.027146395802722</v>
+        <v>1.026884051155277</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044640683943717</v>
+        <v>1.044594959262412</v>
       </c>
       <c r="J12">
-        <v>1.026988151828237</v>
+        <v>1.027098121288592</v>
       </c>
       <c r="K12">
-        <v>1.03703845355929</v>
+        <v>1.036682295873941</v>
       </c>
       <c r="L12">
-        <v>1.020334526236192</v>
+        <v>1.020472238495485</v>
       </c>
       <c r="M12">
-        <v>1.0417713607242</v>
+        <v>1.041513704702925</v>
       </c>
       <c r="N12">
-        <v>1.012605215264547</v>
+        <v>1.014740837341857</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042442395526502</v>
+        <v>1.042238661234015</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037329008059045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037092766417356</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022127728594355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9975955306981346</v>
+        <v>0.9976370024709864</v>
       </c>
       <c r="D13">
-        <v>1.022830633942606</v>
+        <v>1.02239590283479</v>
       </c>
       <c r="E13">
-        <v>1.005773454090981</v>
+        <v>1.005844975834613</v>
       </c>
       <c r="F13">
-        <v>1.027995543423937</v>
+        <v>1.027681397691461</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044905134424272</v>
+        <v>1.04481374524349</v>
       </c>
       <c r="J13">
-        <v>1.027409007052299</v>
+        <v>1.027448718153306</v>
       </c>
       <c r="K13">
-        <v>1.037490516462134</v>
+        <v>1.037063615855484</v>
       </c>
       <c r="L13">
-        <v>1.020747208236193</v>
+        <v>1.020817384868272</v>
       </c>
       <c r="M13">
-        <v>1.042563051727833</v>
+        <v>1.042254490062604</v>
       </c>
       <c r="N13">
-        <v>1.012798380045073</v>
+        <v>1.014844273981954</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04334405359163</v>
+        <v>1.043100127969788</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037646145193279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037359638787658</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022247488120014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9985133493506758</v>
+        <v>0.9984598431012949</v>
       </c>
       <c r="D14">
-        <v>1.023518803442185</v>
+        <v>1.022993547914549</v>
       </c>
       <c r="E14">
-        <v>1.006516556900017</v>
+        <v>1.006501109237678</v>
       </c>
       <c r="F14">
-        <v>1.028891484583429</v>
+        <v>1.028512167847827</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045216259652395</v>
+        <v>1.045069619029835</v>
       </c>
       <c r="J14">
-        <v>1.027983848433284</v>
+        <v>1.027932580916156</v>
       </c>
       <c r="K14">
-        <v>1.038026818969796</v>
+        <v>1.037510905514401</v>
       </c>
       <c r="L14">
-        <v>1.021333427082967</v>
+        <v>1.021318266223662</v>
       </c>
       <c r="M14">
-        <v>1.043304652607633</v>
+        <v>1.042931990073205</v>
       </c>
       <c r="N14">
-        <v>1.013028340037879</v>
+        <v>1.014924418328907</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044103028035484</v>
+        <v>1.043808468621455</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038026745713906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.0376774368342</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02236589510599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9990043628980152</v>
+        <v>0.9989064342980364</v>
       </c>
       <c r="D15">
-        <v>1.023859010343175</v>
+        <v>1.023291808692133</v>
       </c>
       <c r="E15">
-        <v>1.006905079108736</v>
+        <v>1.006849522823594</v>
       </c>
       <c r="F15">
-        <v>1.029277048758043</v>
+        <v>1.028867522064368</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045358860604885</v>
+        <v>1.045187267578018</v>
       </c>
       <c r="J15">
-        <v>1.028267280283206</v>
+        <v>1.028173413019893</v>
       </c>
       <c r="K15">
-        <v>1.038275074267667</v>
+        <v>1.037717883845745</v>
       </c>
       <c r="L15">
-        <v>1.021626729497308</v>
+        <v>1.021572196632157</v>
       </c>
       <c r="M15">
-        <v>1.043598203046596</v>
+        <v>1.043195804958431</v>
       </c>
       <c r="N15">
-        <v>1.013133406313772</v>
+        <v>1.014952563199933</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04437247140734</v>
+        <v>1.044054416785987</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038208117899965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037830192714502</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022414949387649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001558591609073</v>
+        <v>1.001266517354658</v>
       </c>
       <c r="D16">
-        <v>1.025506564756828</v>
+        <v>1.024754572950692</v>
       </c>
       <c r="E16">
-        <v>1.008886720976007</v>
+        <v>1.008658768576584</v>
       </c>
       <c r="F16">
-        <v>1.030914289734323</v>
+        <v>1.030371620941088</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045991878967346</v>
+        <v>1.04571456374117</v>
       </c>
       <c r="J16">
-        <v>1.029633920013872</v>
+        <v>1.029353350798687</v>
       </c>
       <c r="K16">
-        <v>1.039394699580216</v>
+        <v>1.038655402531278</v>
       </c>
       <c r="L16">
-        <v>1.023061143597396</v>
+        <v>1.022837202848399</v>
       </c>
       <c r="M16">
-        <v>1.044711836531621</v>
+        <v>1.044178203016477</v>
       </c>
       <c r="N16">
-        <v>1.01359633690693</v>
+        <v>1.015059559578629</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04521409507865</v>
+        <v>1.044792300281847</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039002880358183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038496497369755</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022606376484801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003040776606668</v>
+        <v>1.00265964209904</v>
       </c>
       <c r="D17">
-        <v>1.02641300641681</v>
+        <v>1.025573503598489</v>
       </c>
       <c r="E17">
-        <v>1.010022128285387</v>
+        <v>1.009716388017142</v>
       </c>
       <c r="F17">
-        <v>1.031697074178011</v>
+        <v>1.031091283508839</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046313530162106</v>
+        <v>1.045988538748211</v>
       </c>
       <c r="J17">
-        <v>1.030382601690012</v>
+        <v>1.030015996464531</v>
       </c>
       <c r="K17">
-        <v>1.039973244464309</v>
+        <v>1.039147517660136</v>
       </c>
       <c r="L17">
-        <v>1.023856685933138</v>
+        <v>1.023556171884164</v>
       </c>
       <c r="M17">
-        <v>1.045171262843193</v>
+        <v>1.04457527981167</v>
       </c>
       <c r="N17">
-        <v>1.013831384694622</v>
+        <v>1.015129742321738</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045448644834701</v>
+        <v>1.044977521073753</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03941450707113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038847262172488</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02269268055482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00372226213473</v>
+        <v>1.003323617650494</v>
       </c>
       <c r="D18">
-        <v>1.026733230891432</v>
+        <v>1.025875393500536</v>
       </c>
       <c r="E18">
-        <v>1.010515830338825</v>
+        <v>1.010196852533519</v>
       </c>
       <c r="F18">
-        <v>1.031749811554767</v>
+        <v>1.031130514881188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046380845239196</v>
+        <v>1.04604901317434</v>
       </c>
       <c r="J18">
-        <v>1.030645380696921</v>
+        <v>1.030261648077472</v>
       </c>
       <c r="K18">
-        <v>1.040105935208405</v>
+        <v>1.039261946927613</v>
       </c>
       <c r="L18">
-        <v>1.024155482499815</v>
+        <v>1.023841866080333</v>
       </c>
       <c r="M18">
-        <v>1.045042118063762</v>
+        <v>1.044432692246178</v>
       </c>
       <c r="N18">
-        <v>1.013881758178516</v>
+        <v>1.015128462646437</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045109766589881</v>
+        <v>1.044627916639989</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039496736127725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038915445584003</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022683802812282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003690402004156</v>
+        <v>1.003330263958862</v>
       </c>
       <c r="D19">
-        <v>1.026535152969764</v>
+        <v>1.025715690957619</v>
       </c>
       <c r="E19">
-        <v>1.010440045316704</v>
+        <v>1.010158138784134</v>
       </c>
       <c r="F19">
-        <v>1.031139202275347</v>
+        <v>1.030547051575483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046228746263158</v>
+        <v>1.045922652479634</v>
       </c>
       <c r="J19">
-        <v>1.030480895209273</v>
+        <v>1.030134150407065</v>
       </c>
       <c r="K19">
-        <v>1.039848877667525</v>
+        <v>1.039042580618621</v>
       </c>
       <c r="L19">
-        <v>1.024017380708598</v>
+        <v>1.023740187791051</v>
       </c>
       <c r="M19">
-        <v>1.04437945954926</v>
+        <v>1.043796710749542</v>
       </c>
       <c r="N19">
-        <v>1.013775459145016</v>
+        <v>1.015049057685351</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044261633333615</v>
+        <v>1.043800726522404</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039321358778772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038767342751269</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022593502911725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001637074178452</v>
+        <v>1.001469719685232</v>
       </c>
       <c r="D20">
-        <v>1.024869024095217</v>
+        <v>1.024244503554302</v>
       </c>
       <c r="E20">
-        <v>1.008748668257902</v>
+        <v>1.0086428462052</v>
       </c>
       <c r="F20">
-        <v>1.028720934046861</v>
+        <v>1.028268643871384</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045454285827646</v>
+        <v>1.045264332916096</v>
       </c>
       <c r="J20">
-        <v>1.029105034895797</v>
+        <v>1.028944103430092</v>
       </c>
       <c r="K20">
-        <v>1.038488236659754</v>
+        <v>1.037874030551547</v>
       </c>
       <c r="L20">
-        <v>1.022639407714841</v>
+        <v>1.02253540516978</v>
       </c>
       <c r="M20">
-        <v>1.04227688519719</v>
+        <v>1.041831991589583</v>
       </c>
       <c r="N20">
-        <v>1.013222659219153</v>
+        <v>1.014734878422187</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042072418036703</v>
+        <v>1.041720332576461</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038363251057826</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037945443474061</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02227093621491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9968178045191597</v>
+        <v>0.9970547373255775</v>
       </c>
       <c r="D21">
-        <v>1.021671654935786</v>
+        <v>1.021430462270964</v>
       </c>
       <c r="E21">
-        <v>1.004979240500449</v>
+        <v>1.005237336475237</v>
       </c>
       <c r="F21">
-        <v>1.025382417740913</v>
+        <v>1.025207496292409</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044184638507436</v>
+        <v>1.044220267603362</v>
       </c>
       <c r="J21">
-        <v>1.026449177161286</v>
+        <v>1.026676116976998</v>
       </c>
       <c r="K21">
-        <v>1.036253763042707</v>
+        <v>1.036016892848194</v>
       </c>
       <c r="L21">
-        <v>1.019866889712941</v>
+        <v>1.020120160638754</v>
       </c>
       <c r="M21">
-        <v>1.039898356957394</v>
+        <v>1.03972654068181</v>
       </c>
       <c r="N21">
-        <v>1.012292953013973</v>
+        <v>1.014532663857369</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040149263661319</v>
+        <v>1.040013282520087</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036786625817084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036635939235483</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021871542379316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9937452751411394</v>
+        <v>0.9942383817726671</v>
       </c>
       <c r="D22">
-        <v>1.019649725892361</v>
+        <v>1.019651431870306</v>
       </c>
       <c r="E22">
-        <v>1.002586047312859</v>
+        <v>1.003074983048974</v>
       </c>
       <c r="F22">
-        <v>1.023315998142085</v>
+        <v>1.023317236376585</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04337522901052</v>
+        <v>1.043553985820065</v>
       </c>
       <c r="J22">
-        <v>1.024762470416588</v>
+        <v>1.025233557627736</v>
       </c>
       <c r="K22">
-        <v>1.03484171598244</v>
+        <v>1.034843389844677</v>
       </c>
       <c r="L22">
-        <v>1.018106447589654</v>
+        <v>1.018585769060355</v>
       </c>
       <c r="M22">
-        <v>1.038439291727396</v>
+        <v>1.038440506869075</v>
       </c>
       <c r="N22">
-        <v>1.011704083330159</v>
+        <v>1.01439839970076</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038994509869542</v>
+        <v>1.038995471574721</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035774782854562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035791461844519</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021619222817689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9953671977934113</v>
+        <v>0.9957103232229451</v>
       </c>
       <c r="D23">
-        <v>1.020710308900606</v>
+        <v>1.020573023908</v>
       </c>
       <c r="E23">
-        <v>1.00384670010876</v>
+        <v>1.004200083232106</v>
       </c>
       <c r="F23">
-        <v>1.024403817217204</v>
+        <v>1.024304215685707</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043798083124442</v>
+        <v>1.043893768423216</v>
       </c>
       <c r="J23">
-        <v>1.025647719130541</v>
+        <v>1.025975975488343</v>
       </c>
       <c r="K23">
-        <v>1.035578781492634</v>
+        <v>1.035444014982097</v>
       </c>
       <c r="L23">
-        <v>1.01903128185153</v>
+        <v>1.019377898246147</v>
       </c>
       <c r="M23">
-        <v>1.039204862348291</v>
+        <v>1.039107070808914</v>
       </c>
       <c r="N23">
-        <v>1.012011356312355</v>
+        <v>1.01442172529679</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03960040869907</v>
+        <v>1.039523013151465</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036286304696982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03620557285274</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021745224216086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001646140698331</v>
+        <v>1.001483101180662</v>
       </c>
       <c r="D24">
-        <v>1.024839703567493</v>
+        <v>1.024219341745756</v>
       </c>
       <c r="E24">
-        <v>1.008746067881184</v>
+        <v>1.008644511157346</v>
       </c>
       <c r="F24">
-        <v>1.02864109269591</v>
+        <v>1.028191754665648</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045428491778088</v>
+        <v>1.045241578561162</v>
       </c>
       <c r="J24">
-        <v>1.029080970705856</v>
+        <v>1.028924179625376</v>
       </c>
       <c r="K24">
-        <v>1.038444209925359</v>
+        <v>1.037834081435149</v>
       </c>
       <c r="L24">
-        <v>1.022621314104314</v>
+        <v>1.022521501306161</v>
       </c>
       <c r="M24">
-        <v>1.042183238723128</v>
+        <v>1.041741241023249</v>
       </c>
       <c r="N24">
-        <v>1.013205817287654</v>
+        <v>1.014719571454696</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041957592996228</v>
+        <v>1.041607782072899</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03830480843177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037887214637514</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022253817570944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008684133660507</v>
+        <v>1.008155538482072</v>
       </c>
       <c r="D25">
-        <v>1.029493583311226</v>
+        <v>1.028474830524213</v>
       </c>
       <c r="E25">
-        <v>1.014268095482115</v>
+        <v>1.013842305495286</v>
       </c>
       <c r="F25">
-        <v>1.033434833245631</v>
+        <v>1.03269827678596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04722377206383</v>
+        <v>1.046820534024634</v>
       </c>
       <c r="J25">
-        <v>1.032922735246044</v>
+        <v>1.032411519281946</v>
       </c>
       <c r="K25">
-        <v>1.041650673753796</v>
+        <v>1.040646626721245</v>
       </c>
       <c r="L25">
-        <v>1.026648882977737</v>
+        <v>1.0262294716998</v>
       </c>
       <c r="M25">
-        <v>1.04553537709783</v>
+        <v>1.044809346779807</v>
       </c>
       <c r="N25">
-        <v>1.01454163236645</v>
+        <v>1.015629215604388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044610575573941</v>
+        <v>1.044035974282816</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040569073747127</v>
+        <v>1.039872650042123</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022861085504195</v>
       </c>
     </row>
   </sheetData>
